--- a/SMKITS5/docs/annotatedAnalysis/valuesAndDiagrams.xlsx
+++ b/SMKITS5/docs/annotatedAnalysis/valuesAndDiagrams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bern_\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC6F763-3300-42E3-AFAC-57E9BE124DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2218C754-7C49-4AAD-A1D9-F99DDBDFC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1440" windowWidth="21540" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="21540" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tests" sheetId="30" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1095">
   <si>
     <t>file</t>
   </si>
@@ -3385,6 +3385,15 @@
   </si>
   <si>
     <t>bows2-Bilder</t>
+  </si>
+  <si>
+    <t>Einzelattributierung</t>
+  </si>
+  <si>
+    <t>vergleichende Attributierung</t>
+  </si>
+  <si>
+    <t>Attributierungsmodus</t>
   </si>
 </sst>
 </file>
@@ -3531,7 +3540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -3621,8 +3630,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3682,8 +3695,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3875,7 +3889,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>tests!$B$1</c:f>
+              <c:f>tests!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3902,59 +3916,111 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>tests!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>keine Einbettung</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>jsteg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>outguess-0.20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>outguess-0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>outguess-0.13 als 0.20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>steghide</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>f5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>tests!$A$2:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="14"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>keine Einbettung</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>jsteg</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>outguess-0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>outguess-0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>outguess-0.13 als 0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>steghide</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>f5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>keine Einbettung</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>jsteg</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>outguess-0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>outguess-0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>outguess-0.13 als 0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>steghide</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>f5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Einzelattributierung</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>vergleichende Attributierung</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tests!$B$2:$B$8</c:f>
+              <c:f>tests!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.72343749999999996</c:v>
+                  <c:v>0.80937499999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86093750000000002</c:v>
+                  <c:v>0.97968750000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.971830985915493</c:v>
+                  <c:v>0.98904538341158055</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.99058084772370492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99531250000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72343749999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86093750000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.971830985915493</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.96703296703296704</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>0.99687499999999996</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>0.99531250000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -3971,7 +4037,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>tests!$C$1</c:f>
+              <c:f>tests!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3998,45 +4064,76 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>tests!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>keine Einbettung</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>jsteg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>outguess-0.20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>outguess-0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>outguess-0.13 als 0.20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>steghide</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>f5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>tests!$A$2:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="14"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>keine Einbettung</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>jsteg</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>outguess-0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>outguess-0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>outguess-0.13 als 0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>steghide</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>f5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>keine Einbettung</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>jsteg</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>outguess-0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>outguess-0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>outguess-0.13 als 0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>steghide</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>f5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Einzelattributierung</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>vergleichende Attributierung</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tests!$C$2:$C$8</c:f>
+              <c:f>tests!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.9453125</c:v>
+                  <c:v>0.97135416666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94791666666666663</c:v>
+                  <c:v>0.97395833333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.984375</c:v>
@@ -4048,9 +4145,30 @@
                   <c:v>0.98958333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9453125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94791666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.984375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98958333333333337</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>0.97916666666666663</c:v>
                 </c:pt>
               </c:numCache>
@@ -4067,7 +4185,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>tests!$D$1</c:f>
+              <c:f>tests!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4094,42 +4212,73 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>tests!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>keine Einbettung</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>jsteg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>outguess-0.20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>outguess-0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>outguess-0.13 als 0.20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>steghide</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>f5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>tests!$A$2:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="14"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>keine Einbettung</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>jsteg</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>outguess-0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>outguess-0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>outguess-0.13 als 0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>steghide</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>f5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>keine Einbettung</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>jsteg</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>outguess-0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>outguess-0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>outguess-0.13 als 0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>steghide</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>f5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Einzelattributierung</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>vergleichende Attributierung</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tests!$D$2:$D$8</c:f>
+              <c:f>tests!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.9598930481283422</c:v>
+                  <c:v>0.96256684491978606</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -4144,9 +4293,30 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9598930481283422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.95721925133689845</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4163,7 +4333,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>tests!$E$1</c:f>
+              <c:f>tests!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4185,40 +4355,71 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>tests!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>keine Einbettung</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>jsteg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>outguess-0.20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>outguess-0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>outguess-0.13 als 0.20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>steghide</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>f5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>tests!$A$2:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="14"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>keine Einbettung</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>jsteg</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>outguess-0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>outguess-0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>outguess-0.13 als 0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>steghide</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>f5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>keine Einbettung</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>jsteg</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>outguess-0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>outguess-0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>outguess-0.13 als 0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>steghide</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>f5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Einzelattributierung</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>vergleichende Attributierung</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tests!$E$2:$E$8</c:f>
+              <c:f>tests!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -4235,6 +4436,24 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -30950,13 +31169,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -31994,149 +32213,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E9EE83-BF33-4380-BA71-50AAD1331D90}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1" t="s">
         <v>1034</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1090</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1091</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1088</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="66">
+      <c r="C2" s="69">
+        <v>0.80937499999999996</v>
+      </c>
+      <c r="D2" s="69">
+        <v>0.97135416666666663</v>
+      </c>
+      <c r="E2" s="69">
+        <v>0.96256684491978606</v>
+      </c>
+      <c r="F2" s="69">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67"/>
+      <c r="B3" s="68" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C3" s="69">
+        <v>0.97968750000000004</v>
+      </c>
+      <c r="D3" s="69">
+        <v>0.97395833333333337</v>
+      </c>
+      <c r="E3" s="69">
+        <v>1</v>
+      </c>
+      <c r="F3" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C4" s="69">
+        <v>0.98904538341158055</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.984375</v>
+      </c>
+      <c r="E4" s="69">
+        <v>1</v>
+      </c>
+      <c r="F4" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
+      <c r="B5" s="68" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C5" s="69">
+        <v>0</v>
+      </c>
+      <c r="D5" s="69">
+        <v>0</v>
+      </c>
+      <c r="E5" s="69">
+        <v>0</v>
+      </c>
+      <c r="F5" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="67"/>
+      <c r="B6" s="68" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C6" s="69">
+        <v>0.99058084772370492</v>
+      </c>
+      <c r="D6" s="69">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="E6" s="69">
+        <v>1</v>
+      </c>
+      <c r="F6" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="68" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C7" s="69">
+        <v>0</v>
+      </c>
+      <c r="D7" s="69">
+        <v>0</v>
+      </c>
+      <c r="E7" s="69">
+        <v>0</v>
+      </c>
+      <c r="F7" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C8" s="69">
+        <v>0.99531250000000004</v>
+      </c>
+      <c r="D8" s="69">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E8" s="69">
+        <v>1</v>
+      </c>
+      <c r="F8" s="69"/>
+    </row>
+    <row r="9" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C9" s="69">
         <v>0.72343749999999996</v>
       </c>
-      <c r="C2" s="66">
+      <c r="D9" s="69">
         <v>0.9453125</v>
       </c>
-      <c r="D2" s="66">
+      <c r="E9" s="69">
         <v>0.9598930481283422</v>
       </c>
-      <c r="E2" s="66">
+      <c r="F9" s="69">
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="10" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68" t="s">
         <v>1036</v>
       </c>
-      <c r="B3" s="66">
+      <c r="C10" s="69">
         <v>0.86093750000000002</v>
       </c>
-      <c r="C3" s="66">
+      <c r="D10" s="69">
         <v>0.94791666666666663</v>
       </c>
-      <c r="D3" s="66">
+      <c r="E10" s="69">
         <v>1</v>
       </c>
-      <c r="E3" s="66">
+      <c r="F10" s="69">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="11" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="68" t="s">
         <v>1086</v>
       </c>
-      <c r="B4" s="66">
+      <c r="C11" s="69">
         <v>0.971830985915493</v>
       </c>
-      <c r="C4" s="66">
+      <c r="D11" s="69">
         <v>0.984375</v>
       </c>
-      <c r="D4" s="66">
+      <c r="E11" s="69">
         <v>1</v>
       </c>
-      <c r="E4" s="66">
+      <c r="F11" s="69">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="12" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="68" t="s">
         <v>1038</v>
       </c>
-      <c r="B5" s="66">
+      <c r="C12" s="69">
         <v>0</v>
       </c>
-      <c r="C5" s="66">
+      <c r="D12" s="69">
         <v>0</v>
       </c>
-      <c r="D5" s="66">
+      <c r="E12" s="69">
         <v>0</v>
       </c>
-      <c r="E5" s="66">
+      <c r="F12" s="69">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="13" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="68" t="s">
         <v>1087</v>
       </c>
-      <c r="B6" s="66">
+      <c r="C13" s="69">
         <v>0.96703296703296704</v>
       </c>
-      <c r="C6" s="66">
+      <c r="D13" s="69">
         <v>0.98958333333333337</v>
       </c>
-      <c r="D6" s="66">
+      <c r="E13" s="69">
         <v>1</v>
       </c>
-      <c r="E6" s="66">
+      <c r="F13" s="69">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="14" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
+      <c r="B14" s="68" t="s">
         <v>1039</v>
       </c>
-      <c r="B7" s="66">
+      <c r="C14" s="69">
         <v>0.99687499999999996</v>
       </c>
-      <c r="C7" s="66">
+      <c r="D14" s="69">
         <v>1</v>
       </c>
-      <c r="D7" s="66">
+      <c r="E14" s="69">
         <v>0.95721925133689845</v>
       </c>
-      <c r="E7" s="66">
+      <c r="F14" s="69">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="15" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
+      <c r="B15" s="68" t="s">
         <v>1035</v>
       </c>
-      <c r="B8" s="66">
+      <c r="C15" s="69">
         <v>0.99531250000000004</v>
       </c>
-      <c r="C8" s="66">
+      <c r="D15" s="69">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D8" s="66">
+      <c r="E15" s="69">
         <v>1</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="F15" s="69"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -32153,12 +32514,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -32199,7 +32560,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="47" t="s">
         <v>1063</v>
       </c>
       <c r="B4" t="s">
@@ -32219,7 +32580,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="47"/>
       <c r="B5" t="s">
         <v>1050</v>
       </c>
@@ -32237,7 +32598,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
+      <c r="A6" s="47"/>
       <c r="B6" t="s">
         <v>1051</v>
       </c>
@@ -32255,7 +32616,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="47"/>
       <c r="B7" t="s">
         <v>1052</v>
       </c>
@@ -32273,7 +32634,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="47"/>
       <c r="B8" t="s">
         <v>1053</v>
       </c>
@@ -32291,7 +32652,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="47" t="s">
         <v>1064</v>
       </c>
       <c r="B9" t="s">
@@ -32311,7 +32672,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+      <c r="A10" s="47"/>
       <c r="B10" t="s">
         <v>1050</v>
       </c>
@@ -32329,7 +32690,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="A11" s="47"/>
       <c r="B11" t="s">
         <v>1051</v>
       </c>
@@ -32347,7 +32708,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="47"/>
       <c r="B12" t="s">
         <v>1052</v>
       </c>
@@ -32365,7 +32726,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="47"/>
       <c r="B13" t="s">
         <v>1053</v>
       </c>
@@ -32383,7 +32744,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="47" t="s">
         <v>1066</v>
       </c>
       <c r="B14" t="s">
@@ -32403,7 +32764,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="47"/>
       <c r="B15" t="s">
         <v>1050</v>
       </c>
@@ -32421,7 +32782,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="A16" s="47"/>
       <c r="B16" t="s">
         <v>1051</v>
       </c>
@@ -32439,7 +32800,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="47"/>
       <c r="B17" t="s">
         <v>1052</v>
       </c>
@@ -32457,7 +32818,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="47"/>
       <c r="B18" t="s">
         <v>1053</v>
       </c>
@@ -32475,7 +32836,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="47" t="s">
         <v>1065</v>
       </c>
       <c r="B19" t="s">
@@ -32495,7 +32856,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
+      <c r="A20" s="47"/>
       <c r="B20" t="s">
         <v>1050</v>
       </c>
@@ -32513,7 +32874,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
+      <c r="A21" s="47"/>
       <c r="B21" t="s">
         <v>1051</v>
       </c>
@@ -32531,7 +32892,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="A22" s="47"/>
       <c r="B22" t="s">
         <v>1052</v>
       </c>
@@ -32549,7 +32910,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="A23" s="47"/>
       <c r="B23" t="s">
         <v>1053</v>
       </c>
@@ -32587,464 +32948,464 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="47" t="s">
         <v>1063</v>
       </c>
       <c r="B26" t="s">
         <v>1049</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="45">
         <f t="shared" ref="C26:F45" si="0">C4/C$3</f>
         <v>0</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
+      <c r="A27" s="47"/>
       <c r="B27" t="s">
         <v>1050</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="66">
+      <c r="E27" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="66">
+      <c r="F27" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
+      <c r="A28" s="47"/>
       <c r="B28" t="s">
         <v>1051</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="66">
+      <c r="E28" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="66">
+      <c r="F28" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="A29" s="47"/>
       <c r="B29" t="s">
         <v>1052</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="66">
+      <c r="F29" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
+      <c r="A30" s="47"/>
       <c r="B30" t="s">
         <v>1053</v>
       </c>
-      <c r="C30" s="66">
+      <c r="C30" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="66">
+      <c r="E30" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="66">
+      <c r="F30" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="47" t="s">
         <v>1064</v>
       </c>
       <c r="B31" t="s">
         <v>1049</v>
       </c>
-      <c r="C31" s="66">
+      <c r="C31" s="45">
         <f t="shared" si="0"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D31" s="66">
+      <c r="D31" s="45">
         <f t="shared" si="0"/>
         <v>8.6822916666666663E-3</v>
       </c>
-      <c r="E31" s="66">
+      <c r="E31" s="45">
         <f t="shared" si="0"/>
         <v>5.3475935828877002E-3</v>
       </c>
-      <c r="F31" s="66">
+      <c r="F31" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
+      <c r="A32" s="47"/>
       <c r="B32" t="s">
         <v>1050</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="45">
         <f t="shared" si="0"/>
         <v>0.1619796875</v>
       </c>
-      <c r="D32" s="66">
+      <c r="D32" s="45">
         <f t="shared" si="0"/>
         <v>0.13889062500000002</v>
       </c>
-      <c r="E32" s="66">
+      <c r="E32" s="45">
         <f t="shared" si="0"/>
         <v>1.4260249554367201E-2</v>
       </c>
-      <c r="F32" s="66">
+      <c r="F32" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+      <c r="A33" s="47"/>
       <c r="B33" t="s">
         <v>1051</v>
       </c>
-      <c r="C33" s="66">
+      <c r="C33" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="66">
+      <c r="D33" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="66">
+      <c r="E33" s="45">
         <f t="shared" si="0"/>
         <v>0.2121212121212121</v>
       </c>
-      <c r="F33" s="66">
+      <c r="F33" s="45">
         <f t="shared" si="0"/>
         <v>0.13340000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="47"/>
       <c r="B34" t="s">
         <v>1052</v>
       </c>
-      <c r="C34" s="66">
+      <c r="C34" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="66">
+      <c r="D34" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="66">
+      <c r="E34" s="45">
         <f t="shared" si="0"/>
         <v>0.20499108734402854</v>
       </c>
-      <c r="F34" s="66">
+      <c r="F34" s="45">
         <f t="shared" si="0"/>
         <v>6.6400000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
+      <c r="A35" s="47"/>
       <c r="B35" t="s">
         <v>1053</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D35" s="66">
+      <c r="D35" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="66">
+      <c r="E35" s="45">
         <f t="shared" si="0"/>
         <v>0.21925133689839571</v>
       </c>
-      <c r="F35" s="66">
+      <c r="F35" s="45">
         <f t="shared" si="0"/>
         <v>0.13340000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="47" t="s">
         <v>1066</v>
       </c>
       <c r="B36" t="s">
         <v>1049</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="45">
         <f t="shared" si="0"/>
         <v>4.3749999999999997E-2</v>
       </c>
-      <c r="D36" s="66">
+      <c r="D36" s="45">
         <f t="shared" si="0"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="E36" s="66">
+      <c r="E36" s="45">
         <f t="shared" si="0"/>
         <v>8.0213903743315509E-2</v>
       </c>
-      <c r="F36" s="66">
+      <c r="F36" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
+      <c r="A37" s="47"/>
       <c r="B37" t="s">
         <v>1050</v>
       </c>
-      <c r="C37" s="66">
+      <c r="C37" s="45">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D37" s="66">
+      <c r="D37" s="45">
         <f t="shared" si="0"/>
         <v>2.6041666666666668E-2</v>
       </c>
-      <c r="E37" s="66">
+      <c r="E37" s="45">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="F37" s="66">
+      <c r="F37" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
+      <c r="A38" s="47"/>
       <c r="B38" t="s">
         <v>1051</v>
       </c>
-      <c r="C38" s="66">
+      <c r="C38" s="45">
         <f t="shared" si="0"/>
         <v>7.3437500000000003E-2</v>
       </c>
-      <c r="D38" s="66">
+      <c r="D38" s="45">
         <f t="shared" si="0"/>
         <v>2.6041666666666668E-2</v>
       </c>
-      <c r="E38" s="66">
+      <c r="E38" s="45">
         <f t="shared" si="0"/>
         <v>9.6256684491978606E-2</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
+      <c r="A39" s="47"/>
       <c r="B39" t="s">
         <v>1052</v>
       </c>
-      <c r="C39" s="66">
+      <c r="C39" s="45">
         <f t="shared" si="0"/>
         <v>4.5312499999999999E-2</v>
       </c>
-      <c r="D39" s="66">
+      <c r="D39" s="45">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E39" s="66">
+      <c r="E39" s="45">
         <f t="shared" si="0"/>
         <v>7.4866310160427801E-2</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
+      <c r="A40" s="47"/>
       <c r="B40" t="s">
         <v>1053</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="45">
         <f t="shared" si="0"/>
         <v>6.4062499999999994E-2</v>
       </c>
-      <c r="D40" s="66">
+      <c r="D40" s="45">
         <f t="shared" si="0"/>
         <v>3.6458333333333336E-2</v>
       </c>
-      <c r="E40" s="66">
+      <c r="E40" s="45">
         <f t="shared" si="0"/>
         <v>7.4866310160427801E-2</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="47" t="s">
         <v>1065</v>
       </c>
       <c r="B41" t="s">
         <v>1049</v>
       </c>
-      <c r="C41" s="66">
+      <c r="C41" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D41" s="66">
+      <c r="D41" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="66">
+      <c r="E41" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F41" s="66">
+      <c r="F41" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
+      <c r="A42" s="47"/>
       <c r="B42" t="s">
         <v>1050</v>
       </c>
-      <c r="C42" s="66">
+      <c r="C42" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D42" s="66">
+      <c r="D42" s="45">
         <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
-      <c r="E42" s="66">
+      <c r="E42" s="45">
         <f t="shared" si="0"/>
         <v>5.3475935828877004E-2</v>
       </c>
-      <c r="F42" s="66">
+      <c r="F42" s="45">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
+      <c r="A43" s="47"/>
       <c r="B43" t="s">
         <v>1051</v>
       </c>
-      <c r="C43" s="66">
+      <c r="C43" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D43" s="66">
+      <c r="D43" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="66">
+      <c r="E43" s="45">
         <f t="shared" si="0"/>
         <v>0.19964349376114082</v>
       </c>
-      <c r="F43" s="66">
+      <c r="F43" s="45">
         <f t="shared" si="0"/>
         <v>0.13340000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
+      <c r="A44" s="47"/>
       <c r="B44" t="s">
         <v>1052</v>
       </c>
-      <c r="C44" s="66">
+      <c r="C44" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D44" s="66">
+      <c r="D44" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="66">
+      <c r="E44" s="45">
         <f t="shared" si="0"/>
         <v>0.20320855614973263</v>
       </c>
-      <c r="F44" s="66">
+      <c r="F44" s="45">
         <f t="shared" si="0"/>
         <v>0.13340000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
+      <c r="A45" s="47"/>
       <c r="B45" t="s">
         <v>1053</v>
       </c>
-      <c r="C45" s="66">
+      <c r="C45" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D45" s="66">
+      <c r="D45" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="66">
+      <c r="E45" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F45" s="66">
+      <c r="F45" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A9:A13"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33074,102 +33435,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>845</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
       <c r="W1" s="17"/>
       <c r="X1" s="34"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>841</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="26"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="52" t="s">
         <v>842</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="27"/>
       <c r="L2" s="20"/>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="55" t="s">
         <v>843</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="55"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
       <c r="Q2" s="28"/>
       <c r="R2" s="21"/>
-      <c r="S2" s="56" t="s">
+      <c r="S2" s="58" t="s">
         <v>844</v>
       </c>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="58"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
       <c r="W2" s="22"/>
       <c r="X2" s="35"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
-      <c r="B3" s="59">
+      <c r="B3" s="61">
         <f>AVERAGE(B4:D4)</f>
         <v>0.23774720567708343</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="29"/>
       <c r="F3" s="23"/>
       <c r="G3" s="30"/>
-      <c r="H3" s="61">
+      <c r="H3" s="63">
         <f>AVERAGE(H4:J4)</f>
         <v>0.25280609895833328</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="30"/>
       <c r="L3" s="24"/>
       <c r="M3" s="25"/>
-      <c r="N3" s="46">
+      <c r="N3" s="48">
         <f>AVERAGE(N4:P4)</f>
         <v>0.24289263279569884</v>
       </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="49"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="18"/>
       <c r="S3" s="38"/>
-      <c r="T3" s="63">
+      <c r="T3" s="65">
         <f>AVERAGE(T4:V4)</f>
         <v>0.35929373333333331</v>
       </c>
-      <c r="U3" s="63"/>
-      <c r="V3" s="64"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="66"/>
       <c r="W3" s="6"/>
       <c r="X3" s="36"/>
     </row>
@@ -53470,56 +53831,56 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>1040</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>1041</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55" t="s">
         <v>1042</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="57" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="59" t="s">
         <v>1043</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -53629,7 +53990,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="47" t="s">
         <v>1036</v>
       </c>
       <c r="B6" t="s">
@@ -53638,7 +53999,7 @@
       <c r="C6">
         <v>0.89002800000000004</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="47" t="s">
         <v>1036</v>
       </c>
       <c r="G6" t="s">
@@ -53647,7 +54008,7 @@
       <c r="H6">
         <v>0.89084399999999997</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="47" t="s">
         <v>1036</v>
       </c>
       <c r="L6" t="s">
@@ -53656,7 +54017,7 @@
       <c r="M6">
         <v>0.91812400000000005</v>
       </c>
-      <c r="P6" s="65" t="s">
+      <c r="P6" s="47" t="s">
         <v>1036</v>
       </c>
       <c r="Q6" t="s">
@@ -53667,28 +54028,28 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="47"/>
       <c r="B7" t="s">
         <v>1050</v>
       </c>
       <c r="C7">
         <v>0.87957700000000005</v>
       </c>
-      <c r="F7" s="65"/>
+      <c r="F7" s="47"/>
       <c r="G7" t="s">
         <v>1050</v>
       </c>
       <c r="H7">
         <v>0.88375000000000004</v>
       </c>
-      <c r="K7" s="65"/>
+      <c r="K7" s="47"/>
       <c r="L7" t="s">
         <v>1050</v>
       </c>
       <c r="M7">
         <v>0.91866700000000001</v>
       </c>
-      <c r="P7" s="65"/>
+      <c r="P7" s="47"/>
       <c r="Q7" t="s">
         <v>1050</v>
       </c>
@@ -53697,28 +54058,28 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="47"/>
       <c r="B8" t="s">
         <v>1051</v>
       </c>
       <c r="C8">
         <v>0.86964799999999998</v>
       </c>
-      <c r="F8" s="65"/>
+      <c r="F8" s="47"/>
       <c r="G8" t="s">
         <v>1051</v>
       </c>
       <c r="H8">
         <v>0.87114100000000005</v>
       </c>
-      <c r="K8" s="65"/>
+      <c r="K8" s="47"/>
       <c r="L8" t="s">
         <v>1051</v>
       </c>
       <c r="M8">
         <v>0.91866099999999995</v>
       </c>
-      <c r="P8" s="65"/>
+      <c r="P8" s="47"/>
       <c r="Q8" t="s">
         <v>1051</v>
       </c>
@@ -53727,28 +54088,28 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="47"/>
       <c r="B9" t="s">
         <v>1052</v>
       </c>
       <c r="C9">
         <v>0.86936899999999995</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="47"/>
       <c r="G9" t="s">
         <v>1052</v>
       </c>
       <c r="H9">
         <v>0.87075000000000002</v>
       </c>
-      <c r="K9" s="65"/>
+      <c r="K9" s="47"/>
       <c r="L9" t="s">
         <v>1052</v>
       </c>
       <c r="M9">
         <v>0.91856499999999996</v>
       </c>
-      <c r="P9" s="65"/>
+      <c r="P9" s="47"/>
       <c r="Q9" t="s">
         <v>1052</v>
       </c>
@@ -53757,28 +54118,28 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+      <c r="A10" s="47"/>
       <c r="B10" t="s">
         <v>1053</v>
       </c>
       <c r="C10">
         <v>0.86909199999999998</v>
       </c>
-      <c r="F10" s="65"/>
+      <c r="F10" s="47"/>
       <c r="G10" t="s">
         <v>1053</v>
       </c>
       <c r="H10">
         <v>0.87054699999999996</v>
       </c>
-      <c r="K10" s="65"/>
+      <c r="K10" s="47"/>
       <c r="L10" t="s">
         <v>1053</v>
       </c>
       <c r="M10">
         <v>0.91850500000000002</v>
       </c>
-      <c r="P10" s="65"/>
+      <c r="P10" s="47"/>
       <c r="Q10" t="s">
         <v>1053</v>
       </c>
@@ -53787,7 +54148,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="47" t="s">
         <v>1037</v>
       </c>
       <c r="B11" t="s">
@@ -53802,7 +54163,7 @@
       <c r="E11">
         <v>0.891343</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="47" t="s">
         <v>1037</v>
       </c>
       <c r="G11" t="s">
@@ -53817,7 +54178,7 @@
       <c r="J11">
         <v>0.89084399999999997</v>
       </c>
-      <c r="K11" s="65" t="s">
+      <c r="K11" s="47" t="s">
         <v>1037</v>
       </c>
       <c r="L11" t="s">
@@ -53832,7 +54193,7 @@
       <c r="O11">
         <v>0.91761700000000002</v>
       </c>
-      <c r="P11" s="65" t="s">
+      <c r="P11" s="47" t="s">
         <v>1037</v>
       </c>
       <c r="Q11" t="s">
@@ -53849,7 +54210,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="47"/>
       <c r="B12" t="s">
         <v>1050</v>
       </c>
@@ -53862,7 +54223,7 @@
       <c r="E12">
         <v>0.90184500000000001</v>
       </c>
-      <c r="F12" s="65"/>
+      <c r="F12" s="47"/>
       <c r="G12" t="s">
         <v>1050</v>
       </c>
@@ -53875,7 +54236,7 @@
       <c r="J12">
         <v>0.91204399999999997</v>
       </c>
-      <c r="K12" s="65"/>
+      <c r="K12" s="47"/>
       <c r="L12" t="s">
         <v>1050</v>
       </c>
@@ -53888,7 +54249,7 @@
       <c r="O12">
         <v>0.91786699999999999</v>
       </c>
-      <c r="P12" s="65"/>
+      <c r="P12" s="47"/>
       <c r="Q12" t="s">
         <v>1050</v>
       </c>
@@ -53903,12 +54264,12 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="47"/>
       <c r="B13" t="s">
         <v>1051</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="K13" s="65"/>
+      <c r="F13" s="47"/>
+      <c r="K13" s="47"/>
       <c r="L13" t="s">
         <v>1051</v>
       </c>
@@ -53921,7 +54282,7 @@
       <c r="O13">
         <v>0.92906699999999998</v>
       </c>
-      <c r="P13" s="65"/>
+      <c r="P13" s="47"/>
       <c r="Q13" t="s">
         <v>1051</v>
       </c>
@@ -53936,12 +54297,12 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="47"/>
       <c r="B14" t="s">
         <v>1052</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="K14" s="65"/>
+      <c r="F14" s="47"/>
+      <c r="K14" s="47"/>
       <c r="L14" t="s">
         <v>1052</v>
       </c>
@@ -53954,7 +54315,7 @@
       <c r="O14">
         <v>0.92905499999999996</v>
       </c>
-      <c r="P14" s="65"/>
+      <c r="P14" s="47"/>
       <c r="Q14" t="s">
         <v>1052</v>
       </c>
@@ -53969,12 +54330,12 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="47"/>
       <c r="B15" t="s">
         <v>1053</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="K15" s="65"/>
+      <c r="F15" s="47"/>
+      <c r="K15" s="47"/>
       <c r="L15" t="s">
         <v>1053</v>
       </c>
@@ -53987,7 +54348,7 @@
       <c r="O15">
         <v>0.92904699999999996</v>
       </c>
-      <c r="P15" s="65"/>
+      <c r="P15" s="47"/>
       <c r="Q15" t="s">
         <v>1053</v>
       </c>
@@ -54002,7 +54363,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="47" t="s">
         <v>1038</v>
       </c>
       <c r="B16" t="s">
@@ -54017,7 +54378,7 @@
       <c r="E16">
         <v>0.89201299999999994</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="47" t="s">
         <v>1038</v>
       </c>
       <c r="G16" t="s">
@@ -54032,7 +54393,7 @@
       <c r="J16">
         <v>0.89080199999999998</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="47" t="s">
         <v>1038</v>
       </c>
       <c r="L16" t="s">
@@ -54047,7 +54408,7 @@
       <c r="O16">
         <v>0.91917099999999996</v>
       </c>
-      <c r="P16" s="65" t="s">
+      <c r="P16" s="47" t="s">
         <v>1038</v>
       </c>
       <c r="Q16" t="s">
@@ -54064,7 +54425,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="47"/>
       <c r="B17" t="s">
         <v>1050</v>
       </c>
@@ -54077,7 +54438,7 @@
       <c r="E17">
         <v>0.90373400000000004</v>
       </c>
-      <c r="F17" s="65"/>
+      <c r="F17" s="47"/>
       <c r="G17" t="s">
         <v>1050</v>
       </c>
@@ -54090,7 +54451,7 @@
       <c r="J17">
         <v>0.91247299999999998</v>
       </c>
-      <c r="K17" s="65"/>
+      <c r="K17" s="47"/>
       <c r="L17" t="s">
         <v>1050</v>
       </c>
@@ -54103,7 +54464,7 @@
       <c r="O17">
         <v>0.92312400000000006</v>
       </c>
-      <c r="P17" s="65"/>
+      <c r="P17" s="47"/>
       <c r="Q17" t="s">
         <v>1050</v>
       </c>
@@ -54118,12 +54479,12 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="47"/>
       <c r="B18" t="s">
         <v>1051</v>
       </c>
-      <c r="F18" s="65"/>
-      <c r="K18" s="65"/>
+      <c r="F18" s="47"/>
+      <c r="K18" s="47"/>
       <c r="L18" t="s">
         <v>1051</v>
       </c>
@@ -54136,7 +54497,7 @@
       <c r="O18">
         <v>0.927589</v>
       </c>
-      <c r="P18" s="65"/>
+      <c r="P18" s="47"/>
       <c r="Q18" t="s">
         <v>1051</v>
       </c>
@@ -54151,12 +54512,12 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="47"/>
       <c r="B19" t="s">
         <v>1052</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="K19" s="65"/>
+      <c r="F19" s="47"/>
+      <c r="K19" s="47"/>
       <c r="L19" t="s">
         <v>1052</v>
       </c>
@@ -54169,7 +54530,7 @@
       <c r="O19">
         <v>0.92611200000000005</v>
       </c>
-      <c r="P19" s="65"/>
+      <c r="P19" s="47"/>
       <c r="Q19" t="s">
         <v>1052</v>
       </c>
@@ -54184,12 +54545,12 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
+      <c r="A20" s="47"/>
       <c r="B20" t="s">
         <v>1053</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="K20" s="65"/>
+      <c r="F20" s="47"/>
+      <c r="K20" s="47"/>
       <c r="L20" t="s">
         <v>1053</v>
       </c>
@@ -54202,7 +54563,7 @@
       <c r="O20">
         <v>0.92611200000000005</v>
       </c>
-      <c r="P20" s="65"/>
+      <c r="P20" s="47"/>
       <c r="Q20" t="s">
         <v>1053</v>
       </c>
@@ -54217,7 +54578,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="47" t="s">
         <v>1039</v>
       </c>
       <c r="B21" t="s">
@@ -54229,7 +54590,7 @@
       <c r="E21">
         <v>0.89186699999999997</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="47" t="s">
         <v>1039</v>
       </c>
       <c r="G21" t="s">
@@ -54241,7 +54602,7 @@
       <c r="J21">
         <v>0.89437</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="47" t="s">
         <v>1039</v>
       </c>
       <c r="L21" t="s">
@@ -54253,7 +54614,7 @@
       <c r="O21">
         <v>0.91801100000000002</v>
       </c>
-      <c r="P21" s="65" t="s">
+      <c r="P21" s="47" t="s">
         <v>1039</v>
       </c>
       <c r="Q21" t="s">
@@ -54267,7 +54628,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="A22" s="47"/>
       <c r="B22" t="s">
         <v>1050</v>
       </c>
@@ -54277,7 +54638,7 @@
       <c r="E22">
         <v>0.89236599999999999</v>
       </c>
-      <c r="F22" s="65"/>
+      <c r="F22" s="47"/>
       <c r="G22" t="s">
         <v>1050</v>
       </c>
@@ -54287,7 +54648,7 @@
       <c r="J22">
         <v>0.89433300000000004</v>
       </c>
-      <c r="K22" s="65"/>
+      <c r="K22" s="47"/>
       <c r="L22" t="s">
         <v>1050</v>
       </c>
@@ -54297,7 +54658,7 @@
       <c r="O22">
         <v>0.91802099999999998</v>
       </c>
-      <c r="P22" s="65"/>
+      <c r="P22" s="47"/>
       <c r="Q22" t="s">
         <v>1050</v>
       </c>
@@ -54309,7 +54670,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="A23" s="47"/>
       <c r="B23" t="s">
         <v>1051</v>
       </c>
@@ -54319,7 +54680,7 @@
       <c r="E23">
         <v>0.89233099999999999</v>
       </c>
-      <c r="F23" s="65"/>
+      <c r="F23" s="47"/>
       <c r="G23" t="s">
         <v>1051</v>
       </c>
@@ -54329,7 +54690,7 @@
       <c r="J23">
         <v>0.89437</v>
       </c>
-      <c r="K23" s="65"/>
+      <c r="K23" s="47"/>
       <c r="L23" t="s">
         <v>1051</v>
       </c>
@@ -54339,7 +54700,7 @@
       <c r="O23">
         <v>0.91804300000000005</v>
       </c>
-      <c r="P23" s="65"/>
+      <c r="P23" s="47"/>
       <c r="Q23" t="s">
         <v>1051</v>
       </c>
@@ -54351,7 +54712,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+      <c r="A24" s="47"/>
       <c r="B24" t="s">
         <v>1052</v>
       </c>
@@ -54361,7 +54722,7 @@
       <c r="E24">
         <v>0.89228099999999999</v>
       </c>
-      <c r="F24" s="65"/>
+      <c r="F24" s="47"/>
       <c r="G24" t="s">
         <v>1052</v>
       </c>
@@ -54371,7 +54732,7 @@
       <c r="J24">
         <v>0.89437</v>
       </c>
-      <c r="K24" s="65"/>
+      <c r="K24" s="47"/>
       <c r="L24" t="s">
         <v>1052</v>
       </c>
@@ -54381,7 +54742,7 @@
       <c r="O24">
         <v>0.91801100000000002</v>
       </c>
-      <c r="P24" s="65"/>
+      <c r="P24" s="47"/>
       <c r="Q24" t="s">
         <v>1052</v>
       </c>
@@ -54393,7 +54754,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+      <c r="A25" s="47"/>
       <c r="B25" t="s">
         <v>1053</v>
       </c>
@@ -54403,7 +54764,7 @@
       <c r="E25">
         <v>0.89655099999999999</v>
       </c>
-      <c r="F25" s="65"/>
+      <c r="F25" s="47"/>
       <c r="G25" t="s">
         <v>1053</v>
       </c>
@@ -54413,7 +54774,7 @@
       <c r="J25">
         <v>0.89444800000000002</v>
       </c>
-      <c r="K25" s="65"/>
+      <c r="K25" s="47"/>
       <c r="L25" t="s">
         <v>1053</v>
       </c>
@@ -54423,7 +54784,7 @@
       <c r="O25">
         <v>0.92203800000000002</v>
       </c>
-      <c r="P25" s="65"/>
+      <c r="P25" s="47"/>
       <c r="Q25" t="s">
         <v>1053</v>
       </c>
@@ -54435,7 +54796,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="47" t="s">
         <v>1035</v>
       </c>
       <c r="B26" t="s">
@@ -54450,7 +54811,7 @@
       <c r="E26">
         <v>0.89664100000000002</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="47" t="s">
         <v>1035</v>
       </c>
       <c r="G26" t="s">
@@ -54465,7 +54826,7 @@
       <c r="J26">
         <v>0.89110400000000001</v>
       </c>
-      <c r="K26" s="65" t="s">
+      <c r="K26" s="47" t="s">
         <v>1035</v>
       </c>
       <c r="L26" t="s">
@@ -54480,10 +54841,10 @@
       <c r="O26">
         <v>0.924535</v>
       </c>
-      <c r="P26" s="65"/>
+      <c r="P26" s="47"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
+      <c r="A27" s="47"/>
       <c r="B27" t="s">
         <v>1050</v>
       </c>
@@ -54496,7 +54857,7 @@
       <c r="E27">
         <v>0.89632000000000001</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="47"/>
       <c r="G27" t="s">
         <v>1050</v>
       </c>
@@ -54509,7 +54870,7 @@
       <c r="J27">
         <v>0.89078599999999997</v>
       </c>
-      <c r="K27" s="65"/>
+      <c r="K27" s="47"/>
       <c r="L27" t="s">
         <v>1050</v>
       </c>
@@ -54522,10 +54883,10 @@
       <c r="O27">
         <v>0.92424799999999996</v>
       </c>
-      <c r="P27" s="65"/>
+      <c r="P27" s="47"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
+      <c r="A28" s="47"/>
       <c r="B28" t="s">
         <v>1051</v>
       </c>
@@ -54538,7 +54899,7 @@
       <c r="E28">
         <v>0.89461999999999997</v>
       </c>
-      <c r="F28" s="65"/>
+      <c r="F28" s="47"/>
       <c r="G28" t="s">
         <v>1051</v>
       </c>
@@ -54551,7 +54912,7 @@
       <c r="J28">
         <v>0.88955700000000004</v>
       </c>
-      <c r="K28" s="65"/>
+      <c r="K28" s="47"/>
       <c r="L28" t="s">
         <v>1051</v>
       </c>
@@ -54564,10 +54925,10 @@
       <c r="O28">
         <v>0.92257299999999998</v>
       </c>
-      <c r="P28" s="65"/>
+      <c r="P28" s="47"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="A29" s="47"/>
       <c r="B29" t="s">
         <v>1052</v>
       </c>
@@ -54580,7 +54941,7 @@
       <c r="E29">
         <v>0.894652</v>
       </c>
-      <c r="F29" s="65"/>
+      <c r="F29" s="47"/>
       <c r="G29" t="s">
         <v>1052</v>
       </c>
@@ -54593,7 +54954,7 @@
       <c r="J29">
         <v>0.88954200000000005</v>
       </c>
-      <c r="K29" s="65"/>
+      <c r="K29" s="47"/>
       <c r="L29" t="s">
         <v>1052</v>
       </c>
@@ -54606,7 +54967,2315 @@
       <c r="O29">
         <v>0.92271999999999998</v>
       </c>
-      <c r="P29" s="65"/>
+      <c r="P29" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="P11:P15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="P16:P20"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="P6:P10"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D8CCB6-7FDE-4554-BA14-8E190884BEC8}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="59" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C4">
+        <v>104807</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H4">
+        <v>151219</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M4">
+        <v>3541420</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="R4">
+        <v>6030170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C5">
+        <v>63498.307812500003</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="H5">
+        <v>40199.442708333336</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="M5">
+        <v>1577708.5668449197</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="R5">
+        <v>1997891.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C6">
+        <v>41202.6</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H6">
+        <v>36399.199999999997</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M6">
+        <v>1350340</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R6">
+        <v>1130710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C7">
+        <v>40657.5</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H7">
+        <v>36064.5</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M7">
+        <v>1350330</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R7">
+        <v>1130720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C8">
+        <v>39206.400000000001</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H8">
+        <v>34602.699999999997</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M8">
+        <v>1350300</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R8">
+        <v>1129854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C9">
+        <v>39193.599999999999</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H9">
+        <v>34560</v>
+      </c>
+      <c r="K9" s="47"/>
+      <c r="L9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M9">
+        <v>1350240</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R9">
+        <v>1129830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C10">
+        <v>39187.199999999997</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H10">
+        <v>34538.699999999997</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M10">
+        <v>1350170</v>
+      </c>
+      <c r="P10" s="47"/>
+      <c r="Q10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R10">
+        <v>1129814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C11">
+        <v>41305.699999999997</v>
+      </c>
+      <c r="D11">
+        <v>41305.4</v>
+      </c>
+      <c r="E11">
+        <v>41305.5</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H11">
+        <v>36441.599999999999</v>
+      </c>
+      <c r="I11">
+        <v>36441</v>
+      </c>
+      <c r="J11">
+        <v>36440.5</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M11">
+        <v>1334820</v>
+      </c>
+      <c r="N11">
+        <v>1334820</v>
+      </c>
+      <c r="O11">
+        <v>1334820</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R11">
+        <v>975295</v>
+      </c>
+      <c r="S11">
+        <v>975308</v>
+      </c>
+      <c r="T11">
+        <v>975270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C12">
+        <v>48141.3</v>
+      </c>
+      <c r="D12">
+        <v>48146.2</v>
+      </c>
+      <c r="E12">
+        <v>48143.199999999997</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H12">
+        <v>42813</v>
+      </c>
+      <c r="I12">
+        <v>42813.9</v>
+      </c>
+      <c r="J12">
+        <v>42813.2</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M12">
+        <v>1327110</v>
+      </c>
+      <c r="N12">
+        <v>1327110</v>
+      </c>
+      <c r="O12">
+        <v>1327110</v>
+      </c>
+      <c r="P12" s="47"/>
+      <c r="Q12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R12">
+        <v>1015390</v>
+      </c>
+      <c r="S12">
+        <v>1015411</v>
+      </c>
+      <c r="T12">
+        <v>1015420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M13">
+        <v>1435370</v>
+      </c>
+      <c r="N13">
+        <v>1435340</v>
+      </c>
+      <c r="O13">
+        <v>1435350</v>
+      </c>
+      <c r="P13" s="47"/>
+      <c r="Q13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R13">
+        <v>1348280</v>
+      </c>
+      <c r="S13">
+        <v>1348290</v>
+      </c>
+      <c r="T13">
+        <v>1348250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M14">
+        <v>1435090</v>
+      </c>
+      <c r="N14">
+        <v>1435080</v>
+      </c>
+      <c r="O14">
+        <v>1435090</v>
+      </c>
+      <c r="P14" s="47"/>
+      <c r="Q14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R14">
+        <v>1347560</v>
+      </c>
+      <c r="S14">
+        <v>1347447</v>
+      </c>
+      <c r="T14">
+        <v>1347540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M15">
+        <v>1435220</v>
+      </c>
+      <c r="N15">
+        <v>1435240</v>
+      </c>
+      <c r="O15">
+        <v>1435240</v>
+      </c>
+      <c r="P15" s="47"/>
+      <c r="Q15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R15">
+        <v>1347930</v>
+      </c>
+      <c r="S15">
+        <v>1348000</v>
+      </c>
+      <c r="T15">
+        <v>1348020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C16">
+        <v>41430.1</v>
+      </c>
+      <c r="D16">
+        <v>41433.300000000003</v>
+      </c>
+      <c r="E16">
+        <v>41433.4</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H16">
+        <v>36452.699999999997</v>
+      </c>
+      <c r="I16">
+        <v>36455.1</v>
+      </c>
+      <c r="J16">
+        <v>36455.1</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M16">
+        <v>1363020</v>
+      </c>
+      <c r="N16">
+        <v>1363020</v>
+      </c>
+      <c r="O16">
+        <v>1363020</v>
+      </c>
+      <c r="P16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R16">
+        <v>1130360</v>
+      </c>
+      <c r="S16">
+        <v>1130340</v>
+      </c>
+      <c r="T16">
+        <v>1130340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C17">
+        <v>50155.8</v>
+      </c>
+      <c r="D17">
+        <v>50155.7</v>
+      </c>
+      <c r="E17">
+        <v>50163.9</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H17">
+        <v>43695.199999999997</v>
+      </c>
+      <c r="I17">
+        <v>43694.9</v>
+      </c>
+      <c r="J17">
+        <v>43705</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M17">
+        <v>1370760</v>
+      </c>
+      <c r="N17">
+        <v>1370770</v>
+      </c>
+      <c r="O17">
+        <v>1370770</v>
+      </c>
+      <c r="P17" s="47"/>
+      <c r="Q17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R17">
+        <v>1131524</v>
+      </c>
+      <c r="S17">
+        <v>1131550</v>
+      </c>
+      <c r="T17">
+        <v>1131560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M18">
+        <v>1450460</v>
+      </c>
+      <c r="N18">
+        <v>1450370</v>
+      </c>
+      <c r="O18">
+        <v>1450400</v>
+      </c>
+      <c r="P18" s="47"/>
+      <c r="Q18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R18">
+        <v>1337670</v>
+      </c>
+      <c r="S18">
+        <v>1337560</v>
+      </c>
+      <c r="T18">
+        <v>1337580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M19">
+        <v>1432680</v>
+      </c>
+      <c r="N19">
+        <v>1432670</v>
+      </c>
+      <c r="O19">
+        <v>1432670</v>
+      </c>
+      <c r="P19" s="47"/>
+      <c r="Q19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R19">
+        <v>1336278</v>
+      </c>
+      <c r="S19">
+        <v>1336278</v>
+      </c>
+      <c r="T19">
+        <v>1336350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M20">
+        <v>1432960</v>
+      </c>
+      <c r="N20">
+        <v>1432970</v>
+      </c>
+      <c r="O20">
+        <v>1432960</v>
+      </c>
+      <c r="P20" s="47"/>
+      <c r="Q20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R20">
+        <v>1336920</v>
+      </c>
+      <c r="S20">
+        <v>1336970</v>
+      </c>
+      <c r="T20">
+        <v>1336980</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D21">
+        <v>119364</v>
+      </c>
+      <c r="E21">
+        <v>104834</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I21">
+        <v>151231</v>
+      </c>
+      <c r="J21">
+        <v>151230</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N21">
+        <v>3278350</v>
+      </c>
+      <c r="O21">
+        <v>3261030</v>
+      </c>
+      <c r="P21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="S21">
+        <v>6335670</v>
+      </c>
+      <c r="T21">
+        <v>6335605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D22">
+        <v>119424</v>
+      </c>
+      <c r="E22">
+        <v>104888</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I22">
+        <v>151265</v>
+      </c>
+      <c r="J22">
+        <v>151263</v>
+      </c>
+      <c r="K22" s="47"/>
+      <c r="L22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N22">
+        <v>3278420</v>
+      </c>
+      <c r="O22">
+        <v>3261090</v>
+      </c>
+      <c r="P22" s="47"/>
+      <c r="Q22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S22">
+        <v>6335660</v>
+      </c>
+      <c r="T22">
+        <v>6335650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D23">
+        <v>119469</v>
+      </c>
+      <c r="E23">
+        <v>105066</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I23">
+        <v>151287</v>
+      </c>
+      <c r="J23">
+        <v>151288</v>
+      </c>
+      <c r="K23" s="47"/>
+      <c r="L23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N23">
+        <v>3278450</v>
+      </c>
+      <c r="O23">
+        <v>3261130</v>
+      </c>
+      <c r="P23" s="47"/>
+      <c r="Q23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="S23">
+        <v>6335740</v>
+      </c>
+      <c r="T23">
+        <v>6335790</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D24">
+        <v>119361</v>
+      </c>
+      <c r="E24">
+        <v>105272</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I24">
+        <v>151231</v>
+      </c>
+      <c r="J24">
+        <v>151231</v>
+      </c>
+      <c r="K24" s="47"/>
+      <c r="L24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N24">
+        <v>3278360</v>
+      </c>
+      <c r="O24">
+        <v>3261040</v>
+      </c>
+      <c r="P24" s="47"/>
+      <c r="Q24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="S24">
+        <v>6335580</v>
+      </c>
+      <c r="T24">
+        <v>6335540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D25">
+        <v>119740</v>
+      </c>
+      <c r="E25">
+        <v>100001</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I25">
+        <v>151429</v>
+      </c>
+      <c r="J25">
+        <v>151427</v>
+      </c>
+      <c r="K25" s="47"/>
+      <c r="L25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N25">
+        <v>3278670</v>
+      </c>
+      <c r="O25">
+        <v>3261140</v>
+      </c>
+      <c r="P25" s="47"/>
+      <c r="Q25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="S25">
+        <v>6336180</v>
+      </c>
+      <c r="T25">
+        <v>6335930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C26">
+        <v>53515.8</v>
+      </c>
+      <c r="D26">
+        <v>53516.1</v>
+      </c>
+      <c r="E26">
+        <v>53515.1</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H26">
+        <v>41277</v>
+      </c>
+      <c r="I26">
+        <v>41276.6</v>
+      </c>
+      <c r="J26">
+        <v>41276.9</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M26">
+        <v>104285</v>
+      </c>
+      <c r="N26">
+        <v>104298</v>
+      </c>
+      <c r="O26">
+        <v>104284</v>
+      </c>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C27">
+        <v>52066</v>
+      </c>
+      <c r="D27">
+        <v>52067.199999999997</v>
+      </c>
+      <c r="E27">
+        <v>52068.800000000003</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H27">
+        <v>40090.800000000003</v>
+      </c>
+      <c r="I27">
+        <v>40093.1</v>
+      </c>
+      <c r="J27">
+        <v>40094.199999999997</v>
+      </c>
+      <c r="K27" s="47"/>
+      <c r="L27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M27">
+        <v>103257</v>
+      </c>
+      <c r="N27">
+        <v>103313</v>
+      </c>
+      <c r="O27">
+        <v>103281</v>
+      </c>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C28">
+        <v>45591.5</v>
+      </c>
+      <c r="D28">
+        <v>45583.6</v>
+      </c>
+      <c r="E28">
+        <v>45585.5</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H28">
+        <v>36179.699999999997</v>
+      </c>
+      <c r="I28">
+        <v>36182.800000000003</v>
+      </c>
+      <c r="J28">
+        <v>36176.699999999997</v>
+      </c>
+      <c r="K28" s="47"/>
+      <c r="L28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M28">
+        <v>90334.5</v>
+      </c>
+      <c r="N28">
+        <v>90405.3</v>
+      </c>
+      <c r="O28">
+        <v>90350.5</v>
+      </c>
+      <c r="P28" s="47"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C29">
+        <v>45600.7</v>
+      </c>
+      <c r="D29">
+        <v>45597.1</v>
+      </c>
+      <c r="E29">
+        <v>45597</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H29">
+        <v>36181.9</v>
+      </c>
+      <c r="I29">
+        <v>36178.699999999997</v>
+      </c>
+      <c r="J29">
+        <v>36182.9</v>
+      </c>
+      <c r="K29" s="47"/>
+      <c r="L29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M29">
+        <v>90603.199999999997</v>
+      </c>
+      <c r="N29">
+        <v>90641.7</v>
+      </c>
+      <c r="O29">
+        <v>90544.3</v>
+      </c>
+      <c r="P29" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="P6:P10"/>
+    <mergeCell ref="P11:P15"/>
+    <mergeCell ref="P16:P20"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D17BE2-A759-46B9-AE0A-A4BC15731660}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="59" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C5">
+        <v>0.23471359749999995</v>
+      </c>
+      <c r="D5">
+        <v>0.25402382093750009</v>
+      </c>
+      <c r="E5">
+        <v>0.22450419859375023</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H5">
+        <v>0.25280609895833328</v>
+      </c>
+      <c r="I5">
+        <v>0.25280609895833328</v>
+      </c>
+      <c r="J5">
+        <v>0.25280609895833328</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M5">
+        <v>0.24057110752688168</v>
+      </c>
+      <c r="N5">
+        <v>0.25206124032258043</v>
+      </c>
+      <c r="O5">
+        <v>0.23604555053763446</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R5">
+        <v>0.34411880000000006</v>
+      </c>
+      <c r="S5">
+        <v>0.40768059999999995</v>
+      </c>
+      <c r="T5">
+        <v>0.32608179999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C6">
+        <v>0.19630400000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.22206300000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.18808800000000001</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H6">
+        <v>0.237923</v>
+      </c>
+      <c r="I6">
+        <v>0.237923</v>
+      </c>
+      <c r="J6">
+        <v>0.237923</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M6">
+        <v>0.99018799999999996</v>
+      </c>
+      <c r="N6">
+        <v>0.99016999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.99056</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C7">
+        <v>0.14333699999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.165358</v>
+      </c>
+      <c r="E7">
+        <v>0.13159199999999999</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H7">
+        <v>0.203296</v>
+      </c>
+      <c r="I7">
+        <v>0.203296</v>
+      </c>
+      <c r="J7">
+        <v>0.203296</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M7">
+        <v>0.87431499999999995</v>
+      </c>
+      <c r="N7">
+        <v>0.87416300000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.87551000000000001</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K9" s="47"/>
+      <c r="L9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="P10" s="47"/>
+      <c r="Q10" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C11">
+        <v>0.193721</v>
+      </c>
+      <c r="D11">
+        <v>0.22053800000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.184304</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H11">
+        <v>0.237064</v>
+      </c>
+      <c r="I11">
+        <v>0.237064</v>
+      </c>
+      <c r="J11">
+        <v>0.237064</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M11">
+        <v>0.97027200000000002</v>
+      </c>
+      <c r="N11">
+        <v>0.96473299999999995</v>
+      </c>
+      <c r="O11">
+        <v>0.96073900000000001</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C12">
+        <v>0.11645899999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.14038900000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.103324</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H12">
+        <v>0.17843000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.17843000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.17843000000000001</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M12">
+        <v>0.62006700000000003</v>
+      </c>
+      <c r="N12">
+        <v>0.61555000000000004</v>
+      </c>
+      <c r="O12">
+        <v>0.61432799999999999</v>
+      </c>
+      <c r="P12" s="47"/>
+      <c r="Q12" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P13" s="47"/>
+      <c r="Q13" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="P14" s="47"/>
+      <c r="Q14" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="P15" s="47"/>
+      <c r="Q15" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C16">
+        <v>0.194857</v>
+      </c>
+      <c r="D16">
+        <v>0.22179099999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.18648300000000001</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H16">
+        <v>0.238563</v>
+      </c>
+      <c r="I16">
+        <v>0.238563</v>
+      </c>
+      <c r="J16">
+        <v>0.238563</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M16">
+        <v>0.97856100000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.97325600000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.96923899999999996</v>
+      </c>
+      <c r="P16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C17">
+        <v>0.121397</v>
+      </c>
+      <c r="D17">
+        <v>0.14402599999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.10874</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H17">
+        <v>0.18576599999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.18576599999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.18576599999999999</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M17">
+        <v>0.71679400000000004</v>
+      </c>
+      <c r="N17">
+        <v>0.71238900000000005</v>
+      </c>
+      <c r="O17">
+        <v>0.71152199999999999</v>
+      </c>
+      <c r="P17" s="47"/>
+      <c r="Q17" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P18" s="47"/>
+      <c r="Q18" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="P19" s="47"/>
+      <c r="Q19" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="P20" s="47"/>
+      <c r="Q20" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C21">
+        <v>0.94805499999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.94514500000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.94734600000000002</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H21">
+        <v>0.99038499999999996</v>
+      </c>
+      <c r="I21">
+        <v>0.99038499999999996</v>
+      </c>
+      <c r="J21">
+        <v>0.99038499999999996</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M21">
+        <v>0.96423300000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.96333299999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.96473299999999995</v>
+      </c>
+      <c r="P21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C22">
+        <v>0.81682699999999997</v>
+      </c>
+      <c r="D22">
+        <v>0.81008100000000005</v>
+      </c>
+      <c r="E22">
+        <v>0.81538299999999997</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H22">
+        <v>0.96517200000000003</v>
+      </c>
+      <c r="I22">
+        <v>0.96517200000000003</v>
+      </c>
+      <c r="J22">
+        <v>0.96517200000000003</v>
+      </c>
+      <c r="K22" s="47"/>
+      <c r="L22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M22">
+        <v>0.86624199999999996</v>
+      </c>
+      <c r="N22">
+        <v>0.86314199999999996</v>
+      </c>
+      <c r="O22">
+        <v>0.86752499999999999</v>
+      </c>
+      <c r="P22" s="47"/>
+      <c r="Q22" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C23">
+        <v>0.74146000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.734545</v>
+      </c>
+      <c r="E23">
+        <v>0.73968699999999998</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H23">
+        <v>0.94957599999999998</v>
+      </c>
+      <c r="I23">
+        <v>0.94957599999999998</v>
+      </c>
+      <c r="J23">
+        <v>0.94957599999999998</v>
+      </c>
+      <c r="K23" s="47"/>
+      <c r="L23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M23">
+        <v>0.80759000000000003</v>
+      </c>
+      <c r="N23">
+        <v>0.80491199999999996</v>
+      </c>
+      <c r="O23">
+        <v>0.80919200000000002</v>
+      </c>
+      <c r="P23" s="47"/>
+      <c r="Q23" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C24">
+        <v>0.953901</v>
+      </c>
+      <c r="D24">
+        <v>0.95126599999999994</v>
+      </c>
+      <c r="E24">
+        <v>0.95324200000000003</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H24">
+        <v>0.99146900000000004</v>
+      </c>
+      <c r="I24">
+        <v>0.99146900000000004</v>
+      </c>
+      <c r="J24">
+        <v>0.99146900000000004</v>
+      </c>
+      <c r="K24" s="47"/>
+      <c r="L24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M24">
+        <v>0.96725000000000005</v>
+      </c>
+      <c r="N24">
+        <v>0.96665000000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="P24" s="47"/>
+      <c r="Q24" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C25">
+        <v>0.49005500000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.492008</v>
+      </c>
+      <c r="E25">
+        <v>0.48448999999999998</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H25">
+        <v>0.87930200000000003</v>
+      </c>
+      <c r="I25">
+        <v>0.87930200000000003</v>
+      </c>
+      <c r="J25">
+        <v>0.87930200000000003</v>
+      </c>
+      <c r="K25" s="47"/>
+      <c r="L25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M25">
+        <v>0.55984699999999998</v>
+      </c>
+      <c r="N25">
+        <v>0.559419</v>
+      </c>
+      <c r="O25">
+        <v>0.56125700000000001</v>
+      </c>
+      <c r="P25" s="47"/>
+      <c r="Q25" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C26">
+        <v>0.125085</v>
+      </c>
+      <c r="D26">
+        <v>0.156114</v>
+      </c>
+      <c r="E26">
+        <v>0.110765</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H26">
+        <v>0.252332</v>
+      </c>
+      <c r="I26">
+        <v>0.252332</v>
+      </c>
+      <c r="J26">
+        <v>0.252332</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M26">
+        <v>0.32134000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.35797800000000002</v>
+      </c>
+      <c r="O26">
+        <v>0.31786999999999999</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C27">
+        <v>0.117091</v>
+      </c>
+      <c r="D27">
+        <v>0.14502999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.10460700000000001</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H27">
+        <v>0.23960400000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.23960400000000001</v>
+      </c>
+      <c r="J27">
+        <v>0.23960400000000001</v>
+      </c>
+      <c r="K27" s="47"/>
+      <c r="L27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M27">
+        <v>0.29989100000000002</v>
+      </c>
+      <c r="N27">
+        <v>0.33516400000000002</v>
+      </c>
+      <c r="O27">
+        <v>0.29764800000000002</v>
+      </c>
+      <c r="P27" s="47"/>
+      <c r="Q27" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C28">
+        <v>0.100818</v>
+      </c>
+      <c r="D28">
+        <v>0.122519</v>
+      </c>
+      <c r="E28">
+        <v>9.2453599999999997E-2</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H28">
+        <v>0.21997</v>
+      </c>
+      <c r="I28">
+        <v>0.21997</v>
+      </c>
+      <c r="J28">
+        <v>0.21997</v>
+      </c>
+      <c r="K28" s="47"/>
+      <c r="L28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M28">
+        <v>0.199352</v>
+      </c>
+      <c r="N28">
+        <v>0.228378</v>
+      </c>
+      <c r="O28">
+        <v>0.19954</v>
+      </c>
+      <c r="P28" s="47"/>
+      <c r="Q28" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C29">
+        <v>0.10080799999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.122528</v>
+      </c>
+      <c r="E29">
+        <v>9.2410999999999993E-2</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H29">
+        <v>0.21993599999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.21993599999999999</v>
+      </c>
+      <c r="J29">
+        <v>0.21993599999999999</v>
+      </c>
+      <c r="K29" s="47"/>
+      <c r="L29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M29">
+        <v>0.19981099999999999</v>
+      </c>
+      <c r="N29">
+        <v>0.22875200000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.200211</v>
+      </c>
+      <c r="P29" s="47"/>
+      <c r="Q29" t="s">
+        <v>1052</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -54641,2314 +57310,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D8CCB6-7FDE-4554-BA14-8E190884BEC8}">
-  <dimension ref="A1:T29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="57" t="s">
-        <v>1043</v>
-      </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C4">
-        <v>104807</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H4">
-        <v>151219</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="M4">
-        <v>3541420</v>
-      </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="R4">
-        <v>6030170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C5">
-        <v>63498.307812500003</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="H5">
-        <v>40199.442708333336</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="M5">
-        <v>1577708.5668449197</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="R5">
-        <v>1997891.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C6">
-        <v>41202.6</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H6">
-        <v>36399.199999999997</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M6">
-        <v>1350340</v>
-      </c>
-      <c r="P6" s="65" t="s">
-        <v>1036</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R6">
-        <v>1130710</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C7">
-        <v>40657.5</v>
-      </c>
-      <c r="F7" s="65"/>
-      <c r="G7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H7">
-        <v>36064.5</v>
-      </c>
-      <c r="K7" s="65"/>
-      <c r="L7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M7">
-        <v>1350330</v>
-      </c>
-      <c r="P7" s="65"/>
-      <c r="Q7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="R7">
-        <v>1130720</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C8">
-        <v>39206.400000000001</v>
-      </c>
-      <c r="F8" s="65"/>
-      <c r="G8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H8">
-        <v>34602.699999999997</v>
-      </c>
-      <c r="K8" s="65"/>
-      <c r="L8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M8">
-        <v>1350300</v>
-      </c>
-      <c r="P8" s="65"/>
-      <c r="Q8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="R8">
-        <v>1129854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C9">
-        <v>39193.599999999999</v>
-      </c>
-      <c r="F9" s="65"/>
-      <c r="G9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H9">
-        <v>34560</v>
-      </c>
-      <c r="K9" s="65"/>
-      <c r="L9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M9">
-        <v>1350240</v>
-      </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R9">
-        <v>1129830</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C10">
-        <v>39187.199999999997</v>
-      </c>
-      <c r="F10" s="65"/>
-      <c r="G10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H10">
-        <v>34538.699999999997</v>
-      </c>
-      <c r="K10" s="65"/>
-      <c r="L10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M10">
-        <v>1350170</v>
-      </c>
-      <c r="P10" s="65"/>
-      <c r="Q10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="R10">
-        <v>1129814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C11">
-        <v>41305.699999999997</v>
-      </c>
-      <c r="D11">
-        <v>41305.4</v>
-      </c>
-      <c r="E11">
-        <v>41305.5</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H11">
-        <v>36441.599999999999</v>
-      </c>
-      <c r="I11">
-        <v>36441</v>
-      </c>
-      <c r="J11">
-        <v>36440.5</v>
-      </c>
-      <c r="K11" s="65" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M11">
-        <v>1334820</v>
-      </c>
-      <c r="N11">
-        <v>1334820</v>
-      </c>
-      <c r="O11">
-        <v>1334820</v>
-      </c>
-      <c r="P11" s="65" t="s">
-        <v>1037</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R11">
-        <v>975295</v>
-      </c>
-      <c r="S11">
-        <v>975308</v>
-      </c>
-      <c r="T11">
-        <v>975270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C12">
-        <v>48141.3</v>
-      </c>
-      <c r="D12">
-        <v>48146.2</v>
-      </c>
-      <c r="E12">
-        <v>48143.199999999997</v>
-      </c>
-      <c r="F12" s="65"/>
-      <c r="G12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H12">
-        <v>42813</v>
-      </c>
-      <c r="I12">
-        <v>42813.9</v>
-      </c>
-      <c r="J12">
-        <v>42813.2</v>
-      </c>
-      <c r="K12" s="65"/>
-      <c r="L12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M12">
-        <v>1327110</v>
-      </c>
-      <c r="N12">
-        <v>1327110</v>
-      </c>
-      <c r="O12">
-        <v>1327110</v>
-      </c>
-      <c r="P12" s="65"/>
-      <c r="Q12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="R12">
-        <v>1015390</v>
-      </c>
-      <c r="S12">
-        <v>1015411</v>
-      </c>
-      <c r="T12">
-        <v>1015420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M13">
-        <v>1435370</v>
-      </c>
-      <c r="N13">
-        <v>1435340</v>
-      </c>
-      <c r="O13">
-        <v>1435350</v>
-      </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="R13">
-        <v>1348280</v>
-      </c>
-      <c r="S13">
-        <v>1348290</v>
-      </c>
-      <c r="T13">
-        <v>1348250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M14">
-        <v>1435090</v>
-      </c>
-      <c r="N14">
-        <v>1435080</v>
-      </c>
-      <c r="O14">
-        <v>1435090</v>
-      </c>
-      <c r="P14" s="65"/>
-      <c r="Q14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R14">
-        <v>1347560</v>
-      </c>
-      <c r="S14">
-        <v>1347447</v>
-      </c>
-      <c r="T14">
-        <v>1347540</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M15">
-        <v>1435220</v>
-      </c>
-      <c r="N15">
-        <v>1435240</v>
-      </c>
-      <c r="O15">
-        <v>1435240</v>
-      </c>
-      <c r="P15" s="65"/>
-      <c r="Q15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="R15">
-        <v>1347930</v>
-      </c>
-      <c r="S15">
-        <v>1348000</v>
-      </c>
-      <c r="T15">
-        <v>1348020</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C16">
-        <v>41430.1</v>
-      </c>
-      <c r="D16">
-        <v>41433.300000000003</v>
-      </c>
-      <c r="E16">
-        <v>41433.4</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H16">
-        <v>36452.699999999997</v>
-      </c>
-      <c r="I16">
-        <v>36455.1</v>
-      </c>
-      <c r="J16">
-        <v>36455.1</v>
-      </c>
-      <c r="K16" s="65" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M16">
-        <v>1363020</v>
-      </c>
-      <c r="N16">
-        <v>1363020</v>
-      </c>
-      <c r="O16">
-        <v>1363020</v>
-      </c>
-      <c r="P16" s="65" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R16">
-        <v>1130360</v>
-      </c>
-      <c r="S16">
-        <v>1130340</v>
-      </c>
-      <c r="T16">
-        <v>1130340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C17">
-        <v>50155.8</v>
-      </c>
-      <c r="D17">
-        <v>50155.7</v>
-      </c>
-      <c r="E17">
-        <v>50163.9</v>
-      </c>
-      <c r="F17" s="65"/>
-      <c r="G17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H17">
-        <v>43695.199999999997</v>
-      </c>
-      <c r="I17">
-        <v>43694.9</v>
-      </c>
-      <c r="J17">
-        <v>43705</v>
-      </c>
-      <c r="K17" s="65"/>
-      <c r="L17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M17">
-        <v>1370760</v>
-      </c>
-      <c r="N17">
-        <v>1370770</v>
-      </c>
-      <c r="O17">
-        <v>1370770</v>
-      </c>
-      <c r="P17" s="65"/>
-      <c r="Q17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="R17">
-        <v>1131524</v>
-      </c>
-      <c r="S17">
-        <v>1131550</v>
-      </c>
-      <c r="T17">
-        <v>1131560</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M18">
-        <v>1450460</v>
-      </c>
-      <c r="N18">
-        <v>1450370</v>
-      </c>
-      <c r="O18">
-        <v>1450400</v>
-      </c>
-      <c r="P18" s="65"/>
-      <c r="Q18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="R18">
-        <v>1337670</v>
-      </c>
-      <c r="S18">
-        <v>1337560</v>
-      </c>
-      <c r="T18">
-        <v>1337580</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M19">
-        <v>1432680</v>
-      </c>
-      <c r="N19">
-        <v>1432670</v>
-      </c>
-      <c r="O19">
-        <v>1432670</v>
-      </c>
-      <c r="P19" s="65"/>
-      <c r="Q19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R19">
-        <v>1336278</v>
-      </c>
-      <c r="S19">
-        <v>1336278</v>
-      </c>
-      <c r="T19">
-        <v>1336350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M20">
-        <v>1432960</v>
-      </c>
-      <c r="N20">
-        <v>1432970</v>
-      </c>
-      <c r="O20">
-        <v>1432960</v>
-      </c>
-      <c r="P20" s="65"/>
-      <c r="Q20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="R20">
-        <v>1336920</v>
-      </c>
-      <c r="S20">
-        <v>1336970</v>
-      </c>
-      <c r="T20">
-        <v>1336980</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D21">
-        <v>119364</v>
-      </c>
-      <c r="E21">
-        <v>104834</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I21">
-        <v>151231</v>
-      </c>
-      <c r="J21">
-        <v>151230</v>
-      </c>
-      <c r="K21" s="65" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="N21">
-        <v>3278350</v>
-      </c>
-      <c r="O21">
-        <v>3261030</v>
-      </c>
-      <c r="P21" s="65" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="S21">
-        <v>6335670</v>
-      </c>
-      <c r="T21">
-        <v>6335605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D22">
-        <v>119424</v>
-      </c>
-      <c r="E22">
-        <v>104888</v>
-      </c>
-      <c r="F22" s="65"/>
-      <c r="G22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I22">
-        <v>151265</v>
-      </c>
-      <c r="J22">
-        <v>151263</v>
-      </c>
-      <c r="K22" s="65"/>
-      <c r="L22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="N22">
-        <v>3278420</v>
-      </c>
-      <c r="O22">
-        <v>3261090</v>
-      </c>
-      <c r="P22" s="65"/>
-      <c r="Q22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S22">
-        <v>6335660</v>
-      </c>
-      <c r="T22">
-        <v>6335650</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D23">
-        <v>119469</v>
-      </c>
-      <c r="E23">
-        <v>105066</v>
-      </c>
-      <c r="F23" s="65"/>
-      <c r="G23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I23">
-        <v>151287</v>
-      </c>
-      <c r="J23">
-        <v>151288</v>
-      </c>
-      <c r="K23" s="65"/>
-      <c r="L23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="N23">
-        <v>3278450</v>
-      </c>
-      <c r="O23">
-        <v>3261130</v>
-      </c>
-      <c r="P23" s="65"/>
-      <c r="Q23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="S23">
-        <v>6335740</v>
-      </c>
-      <c r="T23">
-        <v>6335790</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D24">
-        <v>119361</v>
-      </c>
-      <c r="E24">
-        <v>105272</v>
-      </c>
-      <c r="F24" s="65"/>
-      <c r="G24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I24">
-        <v>151231</v>
-      </c>
-      <c r="J24">
-        <v>151231</v>
-      </c>
-      <c r="K24" s="65"/>
-      <c r="L24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="N24">
-        <v>3278360</v>
-      </c>
-      <c r="O24">
-        <v>3261040</v>
-      </c>
-      <c r="P24" s="65"/>
-      <c r="Q24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="S24">
-        <v>6335580</v>
-      </c>
-      <c r="T24">
-        <v>6335540</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D25">
-        <v>119740</v>
-      </c>
-      <c r="E25">
-        <v>100001</v>
-      </c>
-      <c r="F25" s="65"/>
-      <c r="G25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I25">
-        <v>151429</v>
-      </c>
-      <c r="J25">
-        <v>151427</v>
-      </c>
-      <c r="K25" s="65"/>
-      <c r="L25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="N25">
-        <v>3278670</v>
-      </c>
-      <c r="O25">
-        <v>3261140</v>
-      </c>
-      <c r="P25" s="65"/>
-      <c r="Q25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="S25">
-        <v>6336180</v>
-      </c>
-      <c r="T25">
-        <v>6335930</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C26">
-        <v>53515.8</v>
-      </c>
-      <c r="D26">
-        <v>53516.1</v>
-      </c>
-      <c r="E26">
-        <v>53515.1</v>
-      </c>
-      <c r="F26" s="65" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H26">
-        <v>41277</v>
-      </c>
-      <c r="I26">
-        <v>41276.6</v>
-      </c>
-      <c r="J26">
-        <v>41276.9</v>
-      </c>
-      <c r="K26" s="65" t="s">
-        <v>1035</v>
-      </c>
-      <c r="L26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M26">
-        <v>104285</v>
-      </c>
-      <c r="N26">
-        <v>104298</v>
-      </c>
-      <c r="O26">
-        <v>104284</v>
-      </c>
-      <c r="P26" s="65"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C27">
-        <v>52066</v>
-      </c>
-      <c r="D27">
-        <v>52067.199999999997</v>
-      </c>
-      <c r="E27">
-        <v>52068.800000000003</v>
-      </c>
-      <c r="F27" s="65"/>
-      <c r="G27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H27">
-        <v>40090.800000000003</v>
-      </c>
-      <c r="I27">
-        <v>40093.1</v>
-      </c>
-      <c r="J27">
-        <v>40094.199999999997</v>
-      </c>
-      <c r="K27" s="65"/>
-      <c r="L27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M27">
-        <v>103257</v>
-      </c>
-      <c r="N27">
-        <v>103313</v>
-      </c>
-      <c r="O27">
-        <v>103281</v>
-      </c>
-      <c r="P27" s="65"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C28">
-        <v>45591.5</v>
-      </c>
-      <c r="D28">
-        <v>45583.6</v>
-      </c>
-      <c r="E28">
-        <v>45585.5</v>
-      </c>
-      <c r="F28" s="65"/>
-      <c r="G28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H28">
-        <v>36179.699999999997</v>
-      </c>
-      <c r="I28">
-        <v>36182.800000000003</v>
-      </c>
-      <c r="J28">
-        <v>36176.699999999997</v>
-      </c>
-      <c r="K28" s="65"/>
-      <c r="L28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M28">
-        <v>90334.5</v>
-      </c>
-      <c r="N28">
-        <v>90405.3</v>
-      </c>
-      <c r="O28">
-        <v>90350.5</v>
-      </c>
-      <c r="P28" s="65"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C29">
-        <v>45600.7</v>
-      </c>
-      <c r="D29">
-        <v>45597.1</v>
-      </c>
-      <c r="E29">
-        <v>45597</v>
-      </c>
-      <c r="F29" s="65"/>
-      <c r="G29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H29">
-        <v>36181.9</v>
-      </c>
-      <c r="I29">
-        <v>36178.699999999997</v>
-      </c>
-      <c r="J29">
-        <v>36182.9</v>
-      </c>
-      <c r="K29" s="65"/>
-      <c r="L29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M29">
-        <v>90603.199999999997</v>
-      </c>
-      <c r="N29">
-        <v>90641.7</v>
-      </c>
-      <c r="O29">
-        <v>90544.3</v>
-      </c>
-      <c r="P29" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="P6:P10"/>
-    <mergeCell ref="P11:P15"/>
-    <mergeCell ref="P16:P20"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="K26:K29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D17BE2-A759-46B9-AE0A-A4BC15731660}">
-  <dimension ref="A1:T29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="57" t="s">
-        <v>1043</v>
-      </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C5">
-        <v>0.23471359749999995</v>
-      </c>
-      <c r="D5">
-        <v>0.25402382093750009</v>
-      </c>
-      <c r="E5">
-        <v>0.22450419859375023</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H5">
-        <v>0.25280609895833328</v>
-      </c>
-      <c r="I5">
-        <v>0.25280609895833328</v>
-      </c>
-      <c r="J5">
-        <v>0.25280609895833328</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M5">
-        <v>0.24057110752688168</v>
-      </c>
-      <c r="N5">
-        <v>0.25206124032258043</v>
-      </c>
-      <c r="O5">
-        <v>0.23604555053763446</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="R5">
-        <v>0.34411880000000006</v>
-      </c>
-      <c r="S5">
-        <v>0.40768059999999995</v>
-      </c>
-      <c r="T5">
-        <v>0.32608179999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C6">
-        <v>0.19630400000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.22206300000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.18808800000000001</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H6">
-        <v>0.237923</v>
-      </c>
-      <c r="I6">
-        <v>0.237923</v>
-      </c>
-      <c r="J6">
-        <v>0.237923</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M6">
-        <v>0.99018799999999996</v>
-      </c>
-      <c r="N6">
-        <v>0.99016999999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.99056</v>
-      </c>
-      <c r="P6" s="65" t="s">
-        <v>1036</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C7">
-        <v>0.14333699999999999</v>
-      </c>
-      <c r="D7">
-        <v>0.165358</v>
-      </c>
-      <c r="E7">
-        <v>0.13159199999999999</v>
-      </c>
-      <c r="F7" s="65"/>
-      <c r="G7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H7">
-        <v>0.203296</v>
-      </c>
-      <c r="I7">
-        <v>0.203296</v>
-      </c>
-      <c r="J7">
-        <v>0.203296</v>
-      </c>
-      <c r="K7" s="65"/>
-      <c r="L7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M7">
-        <v>0.87431499999999995</v>
-      </c>
-      <c r="N7">
-        <v>0.87416300000000002</v>
-      </c>
-      <c r="O7">
-        <v>0.87551000000000001</v>
-      </c>
-      <c r="P7" s="65"/>
-      <c r="Q7" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F8" s="65"/>
-      <c r="G8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="K8" s="65"/>
-      <c r="L8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P8" s="65"/>
-      <c r="Q8" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F9" s="65"/>
-      <c r="G9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="K9" s="65"/>
-      <c r="L9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F10" s="65"/>
-      <c r="G10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="K10" s="65"/>
-      <c r="L10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="P10" s="65"/>
-      <c r="Q10" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C11">
-        <v>0.193721</v>
-      </c>
-      <c r="D11">
-        <v>0.22053800000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.184304</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H11">
-        <v>0.237064</v>
-      </c>
-      <c r="I11">
-        <v>0.237064</v>
-      </c>
-      <c r="J11">
-        <v>0.237064</v>
-      </c>
-      <c r="K11" s="65" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M11">
-        <v>0.97027200000000002</v>
-      </c>
-      <c r="N11">
-        <v>0.96473299999999995</v>
-      </c>
-      <c r="O11">
-        <v>0.96073900000000001</v>
-      </c>
-      <c r="P11" s="65" t="s">
-        <v>1037</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C12">
-        <v>0.11645899999999999</v>
-      </c>
-      <c r="D12">
-        <v>0.14038900000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.103324</v>
-      </c>
-      <c r="F12" s="65"/>
-      <c r="G12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H12">
-        <v>0.17843000000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.17843000000000001</v>
-      </c>
-      <c r="J12">
-        <v>0.17843000000000001</v>
-      </c>
-      <c r="K12" s="65"/>
-      <c r="L12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M12">
-        <v>0.62006700000000003</v>
-      </c>
-      <c r="N12">
-        <v>0.61555000000000004</v>
-      </c>
-      <c r="O12">
-        <v>0.61432799999999999</v>
-      </c>
-      <c r="P12" s="65"/>
-      <c r="Q12" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="P14" s="65"/>
-      <c r="Q14" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="P15" s="65"/>
-      <c r="Q15" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C16">
-        <v>0.194857</v>
-      </c>
-      <c r="D16">
-        <v>0.22179099999999999</v>
-      </c>
-      <c r="E16">
-        <v>0.18648300000000001</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H16">
-        <v>0.238563</v>
-      </c>
-      <c r="I16">
-        <v>0.238563</v>
-      </c>
-      <c r="J16">
-        <v>0.238563</v>
-      </c>
-      <c r="K16" s="65" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M16">
-        <v>0.97856100000000001</v>
-      </c>
-      <c r="N16">
-        <v>0.97325600000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.96923899999999996</v>
-      </c>
-      <c r="P16" s="65" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C17">
-        <v>0.121397</v>
-      </c>
-      <c r="D17">
-        <v>0.14402599999999999</v>
-      </c>
-      <c r="E17">
-        <v>0.10874</v>
-      </c>
-      <c r="F17" s="65"/>
-      <c r="G17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H17">
-        <v>0.18576599999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.18576599999999999</v>
-      </c>
-      <c r="J17">
-        <v>0.18576599999999999</v>
-      </c>
-      <c r="K17" s="65"/>
-      <c r="L17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M17">
-        <v>0.71679400000000004</v>
-      </c>
-      <c r="N17">
-        <v>0.71238900000000005</v>
-      </c>
-      <c r="O17">
-        <v>0.71152199999999999</v>
-      </c>
-      <c r="P17" s="65"/>
-      <c r="Q17" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P18" s="65"/>
-      <c r="Q18" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="P19" s="65"/>
-      <c r="Q19" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="P20" s="65"/>
-      <c r="Q20" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C21">
-        <v>0.94805499999999998</v>
-      </c>
-      <c r="D21">
-        <v>0.94514500000000001</v>
-      </c>
-      <c r="E21">
-        <v>0.94734600000000002</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H21">
-        <v>0.99038499999999996</v>
-      </c>
-      <c r="I21">
-        <v>0.99038499999999996</v>
-      </c>
-      <c r="J21">
-        <v>0.99038499999999996</v>
-      </c>
-      <c r="K21" s="65" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M21">
-        <v>0.96423300000000001</v>
-      </c>
-      <c r="N21">
-        <v>0.96333299999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.96473299999999995</v>
-      </c>
-      <c r="P21" s="65" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C22">
-        <v>0.81682699999999997</v>
-      </c>
-      <c r="D22">
-        <v>0.81008100000000005</v>
-      </c>
-      <c r="E22">
-        <v>0.81538299999999997</v>
-      </c>
-      <c r="F22" s="65"/>
-      <c r="G22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H22">
-        <v>0.96517200000000003</v>
-      </c>
-      <c r="I22">
-        <v>0.96517200000000003</v>
-      </c>
-      <c r="J22">
-        <v>0.96517200000000003</v>
-      </c>
-      <c r="K22" s="65"/>
-      <c r="L22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M22">
-        <v>0.86624199999999996</v>
-      </c>
-      <c r="N22">
-        <v>0.86314199999999996</v>
-      </c>
-      <c r="O22">
-        <v>0.86752499999999999</v>
-      </c>
-      <c r="P22" s="65"/>
-      <c r="Q22" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C23">
-        <v>0.74146000000000001</v>
-      </c>
-      <c r="D23">
-        <v>0.734545</v>
-      </c>
-      <c r="E23">
-        <v>0.73968699999999998</v>
-      </c>
-      <c r="F23" s="65"/>
-      <c r="G23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H23">
-        <v>0.94957599999999998</v>
-      </c>
-      <c r="I23">
-        <v>0.94957599999999998</v>
-      </c>
-      <c r="J23">
-        <v>0.94957599999999998</v>
-      </c>
-      <c r="K23" s="65"/>
-      <c r="L23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M23">
-        <v>0.80759000000000003</v>
-      </c>
-      <c r="N23">
-        <v>0.80491199999999996</v>
-      </c>
-      <c r="O23">
-        <v>0.80919200000000002</v>
-      </c>
-      <c r="P23" s="65"/>
-      <c r="Q23" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C24">
-        <v>0.953901</v>
-      </c>
-      <c r="D24">
-        <v>0.95126599999999994</v>
-      </c>
-      <c r="E24">
-        <v>0.95324200000000003</v>
-      </c>
-      <c r="F24" s="65"/>
-      <c r="G24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H24">
-        <v>0.99146900000000004</v>
-      </c>
-      <c r="I24">
-        <v>0.99146900000000004</v>
-      </c>
-      <c r="J24">
-        <v>0.99146900000000004</v>
-      </c>
-      <c r="K24" s="65"/>
-      <c r="L24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M24">
-        <v>0.96725000000000005</v>
-      </c>
-      <c r="N24">
-        <v>0.96665000000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.96850000000000003</v>
-      </c>
-      <c r="P24" s="65"/>
-      <c r="Q24" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C25">
-        <v>0.49005500000000002</v>
-      </c>
-      <c r="D25">
-        <v>0.492008</v>
-      </c>
-      <c r="E25">
-        <v>0.48448999999999998</v>
-      </c>
-      <c r="F25" s="65"/>
-      <c r="G25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H25">
-        <v>0.87930200000000003</v>
-      </c>
-      <c r="I25">
-        <v>0.87930200000000003</v>
-      </c>
-      <c r="J25">
-        <v>0.87930200000000003</v>
-      </c>
-      <c r="K25" s="65"/>
-      <c r="L25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M25">
-        <v>0.55984699999999998</v>
-      </c>
-      <c r="N25">
-        <v>0.559419</v>
-      </c>
-      <c r="O25">
-        <v>0.56125700000000001</v>
-      </c>
-      <c r="P25" s="65"/>
-      <c r="Q25" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C26">
-        <v>0.125085</v>
-      </c>
-      <c r="D26">
-        <v>0.156114</v>
-      </c>
-      <c r="E26">
-        <v>0.110765</v>
-      </c>
-      <c r="F26" s="65" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H26">
-        <v>0.252332</v>
-      </c>
-      <c r="I26">
-        <v>0.252332</v>
-      </c>
-      <c r="J26">
-        <v>0.252332</v>
-      </c>
-      <c r="K26" s="65" t="s">
-        <v>1035</v>
-      </c>
-      <c r="L26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M26">
-        <v>0.32134000000000001</v>
-      </c>
-      <c r="N26">
-        <v>0.35797800000000002</v>
-      </c>
-      <c r="O26">
-        <v>0.31786999999999999</v>
-      </c>
-      <c r="P26" s="65" t="s">
-        <v>1035</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C27">
-        <v>0.117091</v>
-      </c>
-      <c r="D27">
-        <v>0.14502999999999999</v>
-      </c>
-      <c r="E27">
-        <v>0.10460700000000001</v>
-      </c>
-      <c r="F27" s="65"/>
-      <c r="G27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H27">
-        <v>0.23960400000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.23960400000000001</v>
-      </c>
-      <c r="J27">
-        <v>0.23960400000000001</v>
-      </c>
-      <c r="K27" s="65"/>
-      <c r="L27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M27">
-        <v>0.29989100000000002</v>
-      </c>
-      <c r="N27">
-        <v>0.33516400000000002</v>
-      </c>
-      <c r="O27">
-        <v>0.29764800000000002</v>
-      </c>
-      <c r="P27" s="65"/>
-      <c r="Q27" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C28">
-        <v>0.100818</v>
-      </c>
-      <c r="D28">
-        <v>0.122519</v>
-      </c>
-      <c r="E28">
-        <v>9.2453599999999997E-2</v>
-      </c>
-      <c r="F28" s="65"/>
-      <c r="G28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H28">
-        <v>0.21997</v>
-      </c>
-      <c r="I28">
-        <v>0.21997</v>
-      </c>
-      <c r="J28">
-        <v>0.21997</v>
-      </c>
-      <c r="K28" s="65"/>
-      <c r="L28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M28">
-        <v>0.199352</v>
-      </c>
-      <c r="N28">
-        <v>0.228378</v>
-      </c>
-      <c r="O28">
-        <v>0.19954</v>
-      </c>
-      <c r="P28" s="65"/>
-      <c r="Q28" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C29">
-        <v>0.10080799999999999</v>
-      </c>
-      <c r="D29">
-        <v>0.122528</v>
-      </c>
-      <c r="E29">
-        <v>9.2410999999999993E-2</v>
-      </c>
-      <c r="F29" s="65"/>
-      <c r="G29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H29">
-        <v>0.21993599999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.21993599999999999</v>
-      </c>
-      <c r="J29">
-        <v>0.21993599999999999</v>
-      </c>
-      <c r="K29" s="65"/>
-      <c r="L29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M29">
-        <v>0.19981099999999999</v>
-      </c>
-      <c r="N29">
-        <v>0.22875200000000001</v>
-      </c>
-      <c r="O29">
-        <v>0.200211</v>
-      </c>
-      <c r="P29" s="65"/>
-      <c r="Q29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="P11:P15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="P16:P20"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="P6:P10"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E331B5-678C-497E-946B-F2BE683E4351}">
   <dimension ref="A1:T29"/>
@@ -56960,56 +57321,56 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>1040</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>1041</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55" t="s">
         <v>1042</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="57" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="59" t="s">
         <v>1043</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -57131,7 +57492,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="47" t="s">
         <v>1036</v>
       </c>
       <c r="B6" t="s">
@@ -57140,7 +57501,7 @@
       <c r="C6">
         <v>8.7974200000000002E-2</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="47" t="s">
         <v>1036</v>
       </c>
       <c r="G6" t="s">
@@ -57149,7 +57510,7 @@
       <c r="H6">
         <v>0.246255</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="47" t="s">
         <v>1036</v>
       </c>
       <c r="L6" t="s">
@@ -57158,7 +57519,7 @@
       <c r="M6">
         <v>0.14504900000000001</v>
       </c>
-      <c r="P6" s="65" t="s">
+      <c r="P6" s="47" t="s">
         <v>1036</v>
       </c>
       <c r="Q6" t="s">
@@ -57169,28 +57530,28 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="47"/>
       <c r="B7" t="s">
         <v>1050</v>
       </c>
       <c r="C7">
         <v>7.0376099999999997E-2</v>
       </c>
-      <c r="F7" s="65"/>
+      <c r="F7" s="47"/>
       <c r="G7" t="s">
         <v>1050</v>
       </c>
       <c r="H7">
         <v>0.22837199999999999</v>
       </c>
-      <c r="K7" s="65"/>
+      <c r="K7" s="47"/>
       <c r="L7" t="s">
         <v>1050</v>
       </c>
       <c r="M7">
         <v>0.13957700000000001</v>
       </c>
-      <c r="P7" s="65"/>
+      <c r="P7" s="47"/>
       <c r="Q7" t="s">
         <v>1050</v>
       </c>
@@ -57199,28 +57560,28 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="47"/>
       <c r="B8" t="s">
         <v>1051</v>
       </c>
       <c r="C8">
         <v>6.1319100000000001E-2</v>
       </c>
-      <c r="F8" s="65"/>
+      <c r="F8" s="47"/>
       <c r="G8" t="s">
         <v>1051</v>
       </c>
       <c r="H8">
         <v>0.21506700000000001</v>
       </c>
-      <c r="K8" s="65"/>
+      <c r="K8" s="47"/>
       <c r="L8" t="s">
         <v>1051</v>
       </c>
       <c r="M8">
         <v>0.12625400000000001</v>
       </c>
-      <c r="P8" s="65"/>
+      <c r="P8" s="47"/>
       <c r="Q8" t="s">
         <v>1051</v>
       </c>
@@ -57229,28 +57590,28 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="47"/>
       <c r="B9" t="s">
         <v>1052</v>
       </c>
       <c r="C9">
         <v>6.3151100000000002E-2</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="47"/>
       <c r="G9" t="s">
         <v>1052</v>
       </c>
       <c r="H9">
         <v>0.217589</v>
       </c>
-      <c r="K9" s="65"/>
+      <c r="K9" s="47"/>
       <c r="L9" t="s">
         <v>1052</v>
       </c>
       <c r="M9">
         <v>0.12778900000000001</v>
       </c>
-      <c r="P9" s="65"/>
+      <c r="P9" s="47"/>
       <c r="Q9" t="s">
         <v>1052</v>
       </c>
@@ -57259,28 +57620,28 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+      <c r="A10" s="47"/>
       <c r="B10" t="s">
         <v>1053</v>
       </c>
       <c r="C10">
         <v>6.4825900000000006E-2</v>
       </c>
-      <c r="F10" s="65"/>
+      <c r="F10" s="47"/>
       <c r="G10" t="s">
         <v>1053</v>
       </c>
       <c r="H10">
         <v>0.21975700000000001</v>
       </c>
-      <c r="K10" s="65"/>
+      <c r="K10" s="47"/>
       <c r="L10" t="s">
         <v>1053</v>
       </c>
       <c r="M10">
         <v>0.12922800000000001</v>
       </c>
-      <c r="P10" s="65"/>
+      <c r="P10" s="47"/>
       <c r="Q10" t="s">
         <v>1053</v>
       </c>
@@ -57289,7 +57650,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="47" t="s">
         <v>1037</v>
       </c>
       <c r="B11" t="s">
@@ -57304,7 +57665,7 @@
       <c r="E11">
         <v>8.4708900000000004E-2</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="47" t="s">
         <v>1037</v>
       </c>
       <c r="G11" t="s">
@@ -57319,7 +57680,7 @@
       <c r="J11">
         <v>0.24529899999999999</v>
       </c>
-      <c r="K11" s="65" t="s">
+      <c r="K11" s="47" t="s">
         <v>1037</v>
       </c>
       <c r="L11" t="s">
@@ -57334,7 +57695,7 @@
       <c r="O11">
         <v>0.14564299999999999</v>
       </c>
-      <c r="P11" s="65" t="s">
+      <c r="P11" s="47" t="s">
         <v>1037</v>
       </c>
       <c r="Q11" t="s">
@@ -57351,7 +57712,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="47"/>
       <c r="B12" t="s">
         <v>1050</v>
       </c>
@@ -57364,7 +57725,7 @@
       <c r="E12">
         <v>3.0890500000000001E-2</v>
       </c>
-      <c r="F12" s="65"/>
+      <c r="F12" s="47"/>
       <c r="G12" t="s">
         <v>1050</v>
       </c>
@@ -57377,7 +57738,7 @@
       <c r="J12">
         <v>0.18826000000000001</v>
       </c>
-      <c r="K12" s="65"/>
+      <c r="K12" s="47"/>
       <c r="L12" t="s">
         <v>1050</v>
       </c>
@@ -57390,7 +57751,7 @@
       <c r="O12">
         <v>0.13728299999999999</v>
       </c>
-      <c r="P12" s="65"/>
+      <c r="P12" s="47"/>
       <c r="Q12" t="s">
         <v>1050</v>
       </c>
@@ -57405,12 +57766,12 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="47"/>
       <c r="B13" t="s">
         <v>1051</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="K13" s="65"/>
+      <c r="F13" s="47"/>
+      <c r="K13" s="47"/>
       <c r="L13" t="s">
         <v>1051</v>
       </c>
@@ -57423,7 +57784,7 @@
       <c r="O13">
         <v>8.7953100000000006E-2</v>
       </c>
-      <c r="P13" s="65"/>
+      <c r="P13" s="47"/>
       <c r="Q13" t="s">
         <v>1051</v>
       </c>
@@ -57438,12 +57799,12 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="47"/>
       <c r="B14" t="s">
         <v>1052</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="K14" s="65"/>
+      <c r="F14" s="47"/>
+      <c r="K14" s="47"/>
       <c r="L14" t="s">
         <v>1052</v>
       </c>
@@ -57456,7 +57817,7 @@
       <c r="O14">
         <v>8.9225799999999994E-2</v>
       </c>
-      <c r="P14" s="65"/>
+      <c r="P14" s="47"/>
       <c r="Q14" t="s">
         <v>1052</v>
       </c>
@@ -57471,12 +57832,12 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="47"/>
       <c r="B15" t="s">
         <v>1053</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="K15" s="65"/>
+      <c r="F15" s="47"/>
+      <c r="K15" s="47"/>
       <c r="L15" t="s">
         <v>1053</v>
       </c>
@@ -57489,7 +57850,7 @@
       <c r="O15">
         <v>8.8517100000000001E-2</v>
       </c>
-      <c r="P15" s="65"/>
+      <c r="P15" s="47"/>
       <c r="Q15" t="s">
         <v>1053</v>
       </c>
@@ -57504,7 +57865,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="47" t="s">
         <v>1038</v>
       </c>
       <c r="B16" t="s">
@@ -57519,7 +57880,7 @@
       <c r="E16">
         <v>8.6377700000000002E-2</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="47" t="s">
         <v>1038</v>
       </c>
       <c r="G16" t="s">
@@ -57534,7 +57895,7 @@
       <c r="J16">
         <v>0.24674499999999999</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="47" t="s">
         <v>1038</v>
       </c>
       <c r="L16" t="s">
@@ -57549,7 +57910,7 @@
       <c r="O16">
         <v>0.14216000000000001</v>
       </c>
-      <c r="P16" s="65" t="s">
+      <c r="P16" s="47" t="s">
         <v>1038</v>
       </c>
       <c r="Q16" t="s">
@@ -57566,7 +57927,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="47"/>
       <c r="B17" t="s">
         <v>1050</v>
       </c>
@@ -57579,7 +57940,7 @@
       <c r="E17">
         <v>3.7734200000000002E-2</v>
       </c>
-      <c r="F17" s="65"/>
+      <c r="F17" s="47"/>
       <c r="G17" t="s">
         <v>1050</v>
       </c>
@@ -57592,7 +57953,7 @@
       <c r="J17">
         <v>0.19531000000000001</v>
       </c>
-      <c r="K17" s="65"/>
+      <c r="K17" s="47"/>
       <c r="L17" t="s">
         <v>1050</v>
       </c>
@@ -57605,7 +57966,7 @@
       <c r="O17">
         <v>0.12939999999999999</v>
       </c>
-      <c r="P17" s="65"/>
+      <c r="P17" s="47"/>
       <c r="Q17" t="s">
         <v>1050</v>
       </c>
@@ -57620,12 +57981,12 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="47"/>
       <c r="B18" t="s">
         <v>1051</v>
       </c>
-      <c r="F18" s="65"/>
-      <c r="K18" s="65"/>
+      <c r="F18" s="47"/>
+      <c r="K18" s="47"/>
       <c r="L18" t="s">
         <v>1051</v>
       </c>
@@ -57638,7 +57999,7 @@
       <c r="O18">
         <v>0.101518</v>
       </c>
-      <c r="P18" s="65"/>
+      <c r="P18" s="47"/>
       <c r="Q18" t="s">
         <v>1051</v>
       </c>
@@ -57653,12 +58014,12 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="47"/>
       <c r="B19" t="s">
         <v>1052</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="K19" s="65"/>
+      <c r="F19" s="47"/>
+      <c r="K19" s="47"/>
       <c r="L19" t="s">
         <v>1052</v>
       </c>
@@ -57671,7 +58032,7 @@
       <c r="O19">
         <v>0.103938</v>
       </c>
-      <c r="P19" s="65"/>
+      <c r="P19" s="47"/>
       <c r="Q19" t="s">
         <v>1052</v>
       </c>
@@ -57686,12 +58047,12 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
+      <c r="A20" s="47"/>
       <c r="B20" t="s">
         <v>1053</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="K20" s="65"/>
+      <c r="F20" s="47"/>
+      <c r="K20" s="47"/>
       <c r="L20" t="s">
         <v>1053</v>
       </c>
@@ -57704,7 +58065,7 @@
       <c r="O20">
         <v>0.103792</v>
       </c>
-      <c r="P20" s="65"/>
+      <c r="P20" s="47"/>
       <c r="Q20" t="s">
         <v>1053</v>
       </c>
@@ -57719,7 +58080,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="47" t="s">
         <v>1039</v>
       </c>
       <c r="B21" t="s">
@@ -57731,7 +58092,7 @@
       <c r="E21">
         <v>0.93253600000000003</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="47" t="s">
         <v>1039</v>
       </c>
       <c r="G21" t="s">
@@ -57743,7 +58104,7 @@
       <c r="J21">
         <v>0.99041699999999999</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="47" t="s">
         <v>1039</v>
       </c>
       <c r="L21" t="s">
@@ -57755,7 +58116,7 @@
       <c r="O21">
         <v>0.99703200000000003</v>
       </c>
-      <c r="P21" s="65" t="s">
+      <c r="P21" s="47" t="s">
         <v>1039</v>
       </c>
       <c r="Q21" t="s">
@@ -57769,7 +58130,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="A22" s="47"/>
       <c r="B22" t="s">
         <v>1050</v>
       </c>
@@ -57779,7 +58140,7 @@
       <c r="E22">
         <v>0.76677200000000001</v>
       </c>
-      <c r="F22" s="65"/>
+      <c r="F22" s="47"/>
       <c r="G22" t="s">
         <v>1050</v>
       </c>
@@ -57789,7 +58150,7 @@
       <c r="J22">
         <v>0.96523400000000004</v>
       </c>
-      <c r="K22" s="65"/>
+      <c r="K22" s="47"/>
       <c r="L22" t="s">
         <v>1050</v>
       </c>
@@ -57799,7 +58160,7 @@
       <c r="O22">
         <v>0.98882400000000004</v>
       </c>
-      <c r="P22" s="65"/>
+      <c r="P22" s="47"/>
       <c r="Q22" t="s">
         <v>1050</v>
       </c>
@@ -57811,7 +58172,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="A23" s="47"/>
       <c r="B23" t="s">
         <v>1051</v>
       </c>
@@ -57821,7 +58182,7 @@
       <c r="E23">
         <v>0.67468899999999998</v>
       </c>
-      <c r="F23" s="65"/>
+      <c r="F23" s="47"/>
       <c r="G23" t="s">
         <v>1051</v>
       </c>
@@ -57831,7 +58192,7 @@
       <c r="J23">
         <v>0.94968799999999998</v>
       </c>
-      <c r="K23" s="65"/>
+      <c r="K23" s="47"/>
       <c r="L23" t="s">
         <v>1051</v>
       </c>
@@ -57841,7 +58202,7 @@
       <c r="O23">
         <v>0.98342799999999997</v>
       </c>
-      <c r="P23" s="65"/>
+      <c r="P23" s="47"/>
       <c r="Q23" t="s">
         <v>1051</v>
       </c>
@@ -57853,7 +58214,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+      <c r="A24" s="47"/>
       <c r="B24" t="s">
         <v>1052</v>
       </c>
@@ -57863,7 +58224,7 @@
       <c r="E24">
         <v>0.94015099999999996</v>
       </c>
-      <c r="F24" s="65"/>
+      <c r="F24" s="47"/>
       <c r="G24" t="s">
         <v>1052</v>
       </c>
@@ -57873,7 +58234,7 @@
       <c r="J24">
         <v>0.99153100000000005</v>
       </c>
-      <c r="K24" s="65"/>
+      <c r="K24" s="47"/>
       <c r="L24" t="s">
         <v>1052</v>
       </c>
@@ -57883,7 +58244,7 @@
       <c r="O24">
         <v>0.99734800000000001</v>
       </c>
-      <c r="P24" s="65"/>
+      <c r="P24" s="47"/>
       <c r="Q24" t="s">
         <v>1052</v>
       </c>
@@ -57895,7 +58256,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+      <c r="A25" s="47"/>
       <c r="B25" t="s">
         <v>1053</v>
       </c>
@@ -57905,7 +58266,7 @@
       <c r="E25">
         <v>0.39113700000000001</v>
       </c>
-      <c r="F25" s="65"/>
+      <c r="F25" s="47"/>
       <c r="G25" t="s">
         <v>1053</v>
       </c>
@@ -57915,7 +58276,7 @@
       <c r="J25">
         <v>0.87982800000000005</v>
       </c>
-      <c r="K25" s="65"/>
+      <c r="K25" s="47"/>
       <c r="L25" t="s">
         <v>1053</v>
       </c>
@@ -57925,7 +58286,7 @@
       <c r="O25">
         <v>0.95652700000000002</v>
       </c>
-      <c r="P25" s="65"/>
+      <c r="P25" s="47"/>
       <c r="Q25" t="s">
         <v>1053</v>
       </c>
@@ -57937,7 +58298,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="47" t="s">
         <v>1035</v>
       </c>
       <c r="B26" t="s">
@@ -57952,7 +58313,7 @@
       <c r="E26">
         <v>2.9574099999999999E-2</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="47" t="s">
         <v>1035</v>
       </c>
       <c r="G26" t="s">
@@ -57967,7 +58328,7 @@
       <c r="J26">
         <v>0.258604</v>
       </c>
-      <c r="K26" s="65" t="s">
+      <c r="K26" s="47" t="s">
         <v>1035</v>
       </c>
       <c r="L26" t="s">
@@ -57982,7 +58343,7 @@
       <c r="O26">
         <v>0.13244400000000001</v>
       </c>
-      <c r="P26" s="65" t="s">
+      <c r="P26" s="47" t="s">
         <v>1035</v>
       </c>
       <c r="Q26" t="s">
@@ -57990,7 +58351,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
+      <c r="A27" s="47"/>
       <c r="B27" t="s">
         <v>1050</v>
       </c>
@@ -58003,7 +58364,7 @@
       <c r="E27">
         <v>2.6283299999999999E-2</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="47"/>
       <c r="G27" t="s">
         <v>1050</v>
       </c>
@@ -58016,7 +58377,7 @@
       <c r="J27">
         <v>0.24598500000000001</v>
       </c>
-      <c r="K27" s="65"/>
+      <c r="K27" s="47"/>
       <c r="L27" t="s">
         <v>1050</v>
       </c>
@@ -58029,13 +58390,13 @@
       <c r="O27">
         <v>0.12027599999999999</v>
       </c>
-      <c r="P27" s="65"/>
+      <c r="P27" s="47"/>
       <c r="Q27" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
+      <c r="A28" s="47"/>
       <c r="B28" t="s">
         <v>1051</v>
       </c>
@@ -58048,7 +58409,7 @@
       <c r="E28">
         <v>2.11919E-2</v>
       </c>
-      <c r="F28" s="65"/>
+      <c r="F28" s="47"/>
       <c r="G28" t="s">
         <v>1051</v>
       </c>
@@ -58061,7 +58422,7 @@
       <c r="J28">
         <v>0.22668199999999999</v>
       </c>
-      <c r="K28" s="65"/>
+      <c r="K28" s="47"/>
       <c r="L28" t="s">
         <v>1051</v>
       </c>
@@ -58074,13 +58435,13 @@
       <c r="O28">
         <v>7.0910699999999993E-2</v>
       </c>
-      <c r="P28" s="65"/>
+      <c r="P28" s="47"/>
       <c r="Q28" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="A29" s="47"/>
       <c r="B29" t="s">
         <v>1052</v>
       </c>
@@ -58093,7 +58454,7 @@
       <c r="E29">
         <v>2.11551E-2</v>
       </c>
-      <c r="F29" s="65"/>
+      <c r="F29" s="47"/>
       <c r="G29" t="s">
         <v>1052</v>
       </c>
@@ -58106,7 +58467,7 @@
       <c r="J29">
         <v>0.22679099999999999</v>
       </c>
-      <c r="K29" s="65"/>
+      <c r="K29" s="47"/>
       <c r="L29" t="s">
         <v>1052</v>
       </c>
@@ -58119,29 +58480,13 @@
       <c r="O29">
         <v>7.1193000000000006E-2</v>
       </c>
-      <c r="P29" s="65"/>
+      <c r="P29" s="47"/>
       <c r="Q29" t="s">
         <v>1052</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="P11:P15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="P16:P20"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="F6:F10"/>
     <mergeCell ref="K6:K10"/>
@@ -58151,6 +58496,22 @@
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="P2:T2"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="P11:P15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="P16:P20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="P26:P29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/SMKITS5/docs/annotatedAnalysis/valuesAndDiagrams.xlsx
+++ b/SMKITS5/docs/annotatedAnalysis/valuesAndDiagrams.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bern_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bern_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2218C754-7C49-4AAD-A1D9-F99DDBDFC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563DCF1C-9241-445F-816A-99A353206CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4500" windowWidth="21540" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tests" sheetId="30" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1095">
   <si>
     <t>file</t>
   </si>
@@ -3540,7 +3540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -3632,10 +3632,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3694,11 +3697,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3780,6 +3778,72 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFCC0000"/>
       <color rgb="FFFF5050"/>
@@ -3873,7 +3937,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3917,9 +3981,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tests!$A$2:$B$15</c:f>
+              <c:f>tests!$A$2:$B$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>keine Einbettung</c:v>
@@ -3931,36 +3995,30 @@
                     <c:v>outguess-0.20</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>outguess-0.13</c:v>
+                    <c:v>outguess-0.13 als 0.20</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>steghide</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>f5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>keine Einbettung</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>jsteg</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>outguess-0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>outguess-0.13 als 0.20</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="10">
                     <c:v>steghide</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>f5</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>keine Einbettung</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>jsteg</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>outguess-0.20</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>outguess-0.13</c:v>
-                  </c:pt>
                   <c:pt idx="11">
-                    <c:v>outguess-0.13 als 0.20</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>steghide</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
                     <c:v>f5</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3968,7 +4026,7 @@
                   <c:pt idx="0">
                     <c:v>Einzelattributierung</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="6">
                     <c:v>vergleichende Attributierung</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3977,10 +4035,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tests!$C$2:$C$15</c:f>
+              <c:f>tests!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.80937499999999996</c:v>
                 </c:pt>
@@ -3991,36 +4049,30 @@
                   <c:v>0.98904538341158055</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.99058084772370492</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99058084772370492</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.99531250000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99531250000000004</c:v>
+                  <c:v>0.72343749999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72343749999999996</c:v>
+                  <c:v>0.86093750000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86093750000000002</c:v>
+                  <c:v>0.971830985915493</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.971830985915493</c:v>
+                  <c:v>0.96703296703296704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.99687499999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96703296703296704</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.99687499999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.99531250000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -4065,9 +4117,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tests!$A$2:$B$15</c:f>
+              <c:f>tests!$A$2:$B$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>keine Einbettung</c:v>
@@ -4079,36 +4131,30 @@
                     <c:v>outguess-0.20</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>outguess-0.13</c:v>
+                    <c:v>outguess-0.13 als 0.20</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>steghide</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>f5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>keine Einbettung</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>jsteg</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>outguess-0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>outguess-0.13 als 0.20</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="10">
                     <c:v>steghide</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>f5</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>keine Einbettung</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>jsteg</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>outguess-0.20</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>outguess-0.13</c:v>
-                  </c:pt>
                   <c:pt idx="11">
-                    <c:v>outguess-0.13 als 0.20</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>steghide</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
                     <c:v>f5</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4116,7 +4162,7 @@
                   <c:pt idx="0">
                     <c:v>Einzelattributierung</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="6">
                     <c:v>vergleichende Attributierung</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4125,10 +4171,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tests!$D$2:$D$15</c:f>
+              <c:f>tests!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.97135416666666663</c:v>
                 </c:pt>
@@ -4139,36 +4185,30 @@
                   <c:v>0.984375</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.98958333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9453125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94791666666666663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.984375</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.98958333333333337</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97916666666666663</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9453125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94791666666666663</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.984375</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98958333333333337</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.97916666666666663</c:v>
                 </c:pt>
               </c:numCache>
@@ -4213,9 +4253,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tests!$A$2:$B$15</c:f>
+              <c:f>tests!$A$2:$B$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>keine Einbettung</c:v>
@@ -4227,36 +4267,30 @@
                     <c:v>outguess-0.20</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>outguess-0.13</c:v>
+                    <c:v>outguess-0.13 als 0.20</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>steghide</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>f5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>keine Einbettung</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>jsteg</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>outguess-0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>outguess-0.13 als 0.20</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="10">
                     <c:v>steghide</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>f5</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>keine Einbettung</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>jsteg</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>outguess-0.20</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>outguess-0.13</c:v>
-                  </c:pt>
                   <c:pt idx="11">
-                    <c:v>outguess-0.13 als 0.20</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>steghide</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
                     <c:v>f5</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4264,7 +4298,7 @@
                   <c:pt idx="0">
                     <c:v>Einzelattributierung</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="6">
                     <c:v>vergleichende Attributierung</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4273,10 +4307,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tests!$E$2:$E$15</c:f>
+              <c:f>tests!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.96256684491978606</c:v>
                 </c:pt>
@@ -4287,19 +4321,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.9598930481283422</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9598930481283422</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -4308,15 +4342,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.95721925133689845</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.95721925133689845</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4356,9 +4384,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tests!$A$2:$B$15</c:f>
+              <c:f>tests!$A$2:$B$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>keine Einbettung</c:v>
@@ -4370,36 +4398,30 @@
                     <c:v>outguess-0.20</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>outguess-0.13</c:v>
+                    <c:v>outguess-0.13 als 0.20</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>steghide</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>f5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>keine Einbettung</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>jsteg</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>outguess-0.20</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>outguess-0.13 als 0.20</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="10">
                     <c:v>steghide</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>f5</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>keine Einbettung</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>jsteg</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>outguess-0.20</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>outguess-0.13</c:v>
-                  </c:pt>
                   <c:pt idx="11">
-                    <c:v>outguess-0.13 als 0.20</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>steghide</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
                     <c:v>f5</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4407,7 +4429,7 @@
                   <c:pt idx="0">
                     <c:v>Einzelattributierung</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="6">
                     <c:v>vergleichende Attributierung</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4416,10 +4438,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tests!$F$2:$F$15</c:f>
+              <c:f>tests!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -4430,16 +4452,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -4448,12 +4470,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4519,7 +4535,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1189448847"/>
@@ -4579,7 +4595,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1189448015"/>
@@ -4621,7 +4637,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4658,7 +4674,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4760,7 +4776,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5455,7 +5471,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -5514,7 +5530,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -5559,7 +5575,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5596,7 +5612,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5698,7 +5714,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6357,7 +6373,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -6416,7 +6432,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -6461,7 +6477,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6498,7 +6514,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6591,7 +6607,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7257,7 +7273,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -7317,7 +7333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -7359,7 +7375,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7396,7 +7412,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7495,7 +7511,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8107,7 +8123,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -8168,7 +8184,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -8210,7 +8226,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8247,7 +8263,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8346,7 +8362,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9012,7 +9028,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -9073,7 +9089,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -9115,7 +9131,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9152,7 +9168,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9251,7 +9267,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9782,7 +9798,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -9843,7 +9859,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -9885,7 +9901,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9922,7 +9938,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10015,7 +10031,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10656,7 +10672,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -10716,7 +10732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -10758,7 +10774,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10795,7 +10811,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10894,7 +10910,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11481,7 +11497,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -11542,7 +11558,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -11584,7 +11600,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11621,7 +11637,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11720,7 +11736,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12415,7 +12431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -12476,7 +12492,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -12518,7 +12534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12555,7 +12571,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12654,7 +12670,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13313,7 +13329,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -13374,7 +13390,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -13416,7 +13432,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13453,7 +13469,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13552,7 +13568,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14372,7 +14388,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -14433,7 +14449,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -14475,7 +14491,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14512,7 +14528,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14588,7 +14604,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15265,7 +15281,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="213151248"/>
@@ -15324,7 +15340,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="213150832"/>
@@ -15366,7 +15382,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15403,7 +15419,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15503,7 +15519,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16144,7 +16160,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -16205,7 +16221,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -16247,7 +16263,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16284,7 +16300,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16388,7 +16404,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17029,7 +17045,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -17090,7 +17106,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -17132,7 +17148,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17169,7 +17185,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17275,7 +17291,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17970,7 +17986,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -18031,7 +18047,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -18073,7 +18089,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18110,7 +18126,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18216,7 +18232,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -18875,7 +18891,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -18935,7 +18951,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -18977,7 +18993,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19014,7 +19030,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19116,7 +19132,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -19757,7 +19773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -19816,7 +19832,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -19861,7 +19877,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19898,7 +19914,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20053,7 +20069,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -20694,7 +20710,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868181184"/>
@@ -20753,7 +20769,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1868180352"/>
@@ -20798,7 +20814,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -20835,7 +20851,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -31171,13 +31187,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -31958,7 +31974,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ECEFF4"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -32213,10 +32229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E9EE83-BF33-4380-BA71-50AAD1331D90}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32241,262 +32257,226 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>1092</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" t="s">
         <v>1085</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="45">
         <v>0.80937499999999996</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="45">
         <v>0.97135416666666663</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="45">
         <v>0.96256684491978606</v>
       </c>
-      <c r="F2" s="69">
+      <c r="F2" s="45">
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" t="s">
         <v>1036</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="45">
         <v>0.97968750000000004</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="45">
         <v>0.97395833333333337</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="45">
         <v>1</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="46"/>
+      <c r="B4" t="s">
         <v>1086</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="45">
         <v>0.98904538341158055</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="45">
         <v>0.984375</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="45">
         <v>1</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C5" s="69">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C5" s="45">
+        <v>0.99058084772370492</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="E5" s="45">
+        <v>1</v>
+      </c>
+      <c r="F5" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C6" s="45">
         <v>0</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D6" s="45">
         <v>0</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E6" s="45">
         <v>0</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F6" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C7" s="45">
+        <v>0.99531250000000004</v>
+      </c>
+      <c r="D7" s="45">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E7" s="45">
+        <v>1</v>
+      </c>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C8" s="45">
+        <v>0.72343749999999996</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0.9453125</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0.9598930481283422</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C9" s="45">
+        <v>0.86093750000000002</v>
+      </c>
+      <c r="D9" s="45">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E9" s="45">
+        <v>1</v>
+      </c>
+      <c r="F9" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C10" s="45">
+        <v>0.971830985915493</v>
+      </c>
+      <c r="D10" s="45">
+        <v>0.984375</v>
+      </c>
+      <c r="E10" s="45">
+        <v>1</v>
+      </c>
+      <c r="F10" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" t="s">
         <v>1087</v>
       </c>
-      <c r="C6" s="69">
-        <v>0.99058084772370492</v>
-      </c>
-      <c r="D6" s="69">
+      <c r="C11" s="45">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="D11" s="45">
         <v>0.98958333333333337</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E11" s="45">
         <v>1</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F11" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" t="s">
         <v>1039</v>
       </c>
-      <c r="C7" s="69">
-        <v>0</v>
-      </c>
-      <c r="D7" s="69">
-        <v>0</v>
-      </c>
-      <c r="E7" s="69">
-        <v>0</v>
-      </c>
-      <c r="F7" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68" t="s">
+      <c r="C12" s="45">
+        <v>0.99687499999999996</v>
+      </c>
+      <c r="D12" s="45">
+        <v>1</v>
+      </c>
+      <c r="E12" s="45">
+        <v>0.95721925133689845</v>
+      </c>
+      <c r="F12" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" t="s">
         <v>1035</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C13" s="45">
         <v>0.99531250000000004</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D13" s="45">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E13" s="45">
         <v>1</v>
       </c>
-      <c r="F8" s="69"/>
-    </row>
-    <row r="9" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C9" s="69">
-        <v>0.72343749999999996</v>
-      </c>
-      <c r="D9" s="69">
-        <v>0.9453125</v>
-      </c>
-      <c r="E9" s="69">
-        <v>0.9598930481283422</v>
-      </c>
-      <c r="F9" s="69">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C10" s="69">
-        <v>0.86093750000000002</v>
-      </c>
-      <c r="D10" s="69">
-        <v>0.94791666666666663</v>
-      </c>
-      <c r="E10" s="69">
-        <v>1</v>
-      </c>
-      <c r="F10" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C11" s="69">
-        <v>0.971830985915493</v>
-      </c>
-      <c r="D11" s="69">
-        <v>0.984375</v>
-      </c>
-      <c r="E11" s="69">
-        <v>1</v>
-      </c>
-      <c r="F11" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C12" s="69">
-        <v>0</v>
-      </c>
-      <c r="D12" s="69">
-        <v>0</v>
-      </c>
-      <c r="E12" s="69">
-        <v>0</v>
-      </c>
-      <c r="F12" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C13" s="69">
-        <v>0.96703296703296704</v>
-      </c>
-      <c r="D13" s="69">
-        <v>0.98958333333333337</v>
-      </c>
-      <c r="E13" s="69">
-        <v>1</v>
-      </c>
-      <c r="F13" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C14" s="69">
-        <v>0.99687499999999996</v>
-      </c>
-      <c r="D14" s="69">
-        <v>1</v>
-      </c>
-      <c r="E14" s="69">
-        <v>0.95721925133689845</v>
-      </c>
-      <c r="F14" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C15" s="69">
-        <v>0.99531250000000004</v>
-      </c>
-      <c r="D15" s="69">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="E15" s="69">
-        <v>1</v>
-      </c>
-      <c r="F15" s="69"/>
+      <c r="F13" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32514,12 +32494,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -33435,102 +33415,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>845</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
       <c r="W1" s="17"/>
       <c r="X1" s="34"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>841</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="26"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="53" t="s">
         <v>842</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="27"/>
       <c r="L2" s="20"/>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="56" t="s">
         <v>843</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
       <c r="Q2" s="28"/>
       <c r="R2" s="21"/>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="59" t="s">
         <v>844</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
       <c r="W2" s="22"/>
       <c r="X2" s="35"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
-      <c r="B3" s="61">
+      <c r="B3" s="62">
         <f>AVERAGE(B4:D4)</f>
         <v>0.23774720567708343</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="29"/>
       <c r="F3" s="23"/>
       <c r="G3" s="30"/>
-      <c r="H3" s="63">
+      <c r="H3" s="64">
         <f>AVERAGE(H4:J4)</f>
         <v>0.25280609895833328</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
       <c r="K3" s="30"/>
       <c r="L3" s="24"/>
       <c r="M3" s="25"/>
-      <c r="N3" s="48">
+      <c r="N3" s="49">
         <f>AVERAGE(N4:P4)</f>
         <v>0.24289263279569884</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="18"/>
       <c r="S3" s="38"/>
-      <c r="T3" s="65">
+      <c r="T3" s="66">
         <f>AVERAGE(T4:V4)</f>
         <v>0.35929373333333331</v>
       </c>
-      <c r="U3" s="65"/>
-      <c r="V3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="67"/>
       <c r="W3" s="6"/>
       <c r="X3" s="36"/>
     </row>
@@ -53831,56 +53811,56 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>1040</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>1041</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>1042</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="59" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="60" t="s">
         <v>1043</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -54968,6 +54948,2314 @@
         <v>0.92271999999999998</v>
       </c>
       <c r="P29" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="P6:P10"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="P11:P15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="P16:P20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="P26:P29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D8CCB6-7FDE-4554-BA14-8E190884BEC8}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="60" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C4">
+        <v>104807</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H4">
+        <v>151219</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M4">
+        <v>3541420</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="R4">
+        <v>6030170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C5">
+        <v>63498.307812500003</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="H5">
+        <v>40199.442708333336</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="M5">
+        <v>1577708.5668449197</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="R5">
+        <v>1997891.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C6">
+        <v>41202.6</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H6">
+        <v>36399.199999999997</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M6">
+        <v>1350340</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R6">
+        <v>1130710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C7">
+        <v>40657.5</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H7">
+        <v>36064.5</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M7">
+        <v>1350330</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R7">
+        <v>1130720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C8">
+        <v>39206.400000000001</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H8">
+        <v>34602.699999999997</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M8">
+        <v>1350300</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R8">
+        <v>1129854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C9">
+        <v>39193.599999999999</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H9">
+        <v>34560</v>
+      </c>
+      <c r="K9" s="47"/>
+      <c r="L9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M9">
+        <v>1350240</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R9">
+        <v>1129830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C10">
+        <v>39187.199999999997</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H10">
+        <v>34538.699999999997</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M10">
+        <v>1350170</v>
+      </c>
+      <c r="P10" s="47"/>
+      <c r="Q10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R10">
+        <v>1129814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C11">
+        <v>41305.699999999997</v>
+      </c>
+      <c r="D11">
+        <v>41305.4</v>
+      </c>
+      <c r="E11">
+        <v>41305.5</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H11">
+        <v>36441.599999999999</v>
+      </c>
+      <c r="I11">
+        <v>36441</v>
+      </c>
+      <c r="J11">
+        <v>36440.5</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M11">
+        <v>1334820</v>
+      </c>
+      <c r="N11">
+        <v>1334820</v>
+      </c>
+      <c r="O11">
+        <v>1334820</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R11">
+        <v>975295</v>
+      </c>
+      <c r="S11">
+        <v>975308</v>
+      </c>
+      <c r="T11">
+        <v>975270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C12">
+        <v>48141.3</v>
+      </c>
+      <c r="D12">
+        <v>48146.2</v>
+      </c>
+      <c r="E12">
+        <v>48143.199999999997</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H12">
+        <v>42813</v>
+      </c>
+      <c r="I12">
+        <v>42813.9</v>
+      </c>
+      <c r="J12">
+        <v>42813.2</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M12">
+        <v>1327110</v>
+      </c>
+      <c r="N12">
+        <v>1327110</v>
+      </c>
+      <c r="O12">
+        <v>1327110</v>
+      </c>
+      <c r="P12" s="47"/>
+      <c r="Q12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R12">
+        <v>1015390</v>
+      </c>
+      <c r="S12">
+        <v>1015411</v>
+      </c>
+      <c r="T12">
+        <v>1015420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M13">
+        <v>1435370</v>
+      </c>
+      <c r="N13">
+        <v>1435340</v>
+      </c>
+      <c r="O13">
+        <v>1435350</v>
+      </c>
+      <c r="P13" s="47"/>
+      <c r="Q13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R13">
+        <v>1348280</v>
+      </c>
+      <c r="S13">
+        <v>1348290</v>
+      </c>
+      <c r="T13">
+        <v>1348250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M14">
+        <v>1435090</v>
+      </c>
+      <c r="N14">
+        <v>1435080</v>
+      </c>
+      <c r="O14">
+        <v>1435090</v>
+      </c>
+      <c r="P14" s="47"/>
+      <c r="Q14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R14">
+        <v>1347560</v>
+      </c>
+      <c r="S14">
+        <v>1347447</v>
+      </c>
+      <c r="T14">
+        <v>1347540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M15">
+        <v>1435220</v>
+      </c>
+      <c r="N15">
+        <v>1435240</v>
+      </c>
+      <c r="O15">
+        <v>1435240</v>
+      </c>
+      <c r="P15" s="47"/>
+      <c r="Q15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R15">
+        <v>1347930</v>
+      </c>
+      <c r="S15">
+        <v>1348000</v>
+      </c>
+      <c r="T15">
+        <v>1348020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C16">
+        <v>41430.1</v>
+      </c>
+      <c r="D16">
+        <v>41433.300000000003</v>
+      </c>
+      <c r="E16">
+        <v>41433.4</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H16">
+        <v>36452.699999999997</v>
+      </c>
+      <c r="I16">
+        <v>36455.1</v>
+      </c>
+      <c r="J16">
+        <v>36455.1</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M16">
+        <v>1363020</v>
+      </c>
+      <c r="N16">
+        <v>1363020</v>
+      </c>
+      <c r="O16">
+        <v>1363020</v>
+      </c>
+      <c r="P16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R16">
+        <v>1130360</v>
+      </c>
+      <c r="S16">
+        <v>1130340</v>
+      </c>
+      <c r="T16">
+        <v>1130340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C17">
+        <v>50155.8</v>
+      </c>
+      <c r="D17">
+        <v>50155.7</v>
+      </c>
+      <c r="E17">
+        <v>50163.9</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H17">
+        <v>43695.199999999997</v>
+      </c>
+      <c r="I17">
+        <v>43694.9</v>
+      </c>
+      <c r="J17">
+        <v>43705</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M17">
+        <v>1370760</v>
+      </c>
+      <c r="N17">
+        <v>1370770</v>
+      </c>
+      <c r="O17">
+        <v>1370770</v>
+      </c>
+      <c r="P17" s="47"/>
+      <c r="Q17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R17">
+        <v>1131524</v>
+      </c>
+      <c r="S17">
+        <v>1131550</v>
+      </c>
+      <c r="T17">
+        <v>1131560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M18">
+        <v>1450460</v>
+      </c>
+      <c r="N18">
+        <v>1450370</v>
+      </c>
+      <c r="O18">
+        <v>1450400</v>
+      </c>
+      <c r="P18" s="47"/>
+      <c r="Q18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R18">
+        <v>1337670</v>
+      </c>
+      <c r="S18">
+        <v>1337560</v>
+      </c>
+      <c r="T18">
+        <v>1337580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M19">
+        <v>1432680</v>
+      </c>
+      <c r="N19">
+        <v>1432670</v>
+      </c>
+      <c r="O19">
+        <v>1432670</v>
+      </c>
+      <c r="P19" s="47"/>
+      <c r="Q19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R19">
+        <v>1336278</v>
+      </c>
+      <c r="S19">
+        <v>1336278</v>
+      </c>
+      <c r="T19">
+        <v>1336350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M20">
+        <v>1432960</v>
+      </c>
+      <c r="N20">
+        <v>1432970</v>
+      </c>
+      <c r="O20">
+        <v>1432960</v>
+      </c>
+      <c r="P20" s="47"/>
+      <c r="Q20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R20">
+        <v>1336920</v>
+      </c>
+      <c r="S20">
+        <v>1336970</v>
+      </c>
+      <c r="T20">
+        <v>1336980</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D21">
+        <v>119364</v>
+      </c>
+      <c r="E21">
+        <v>104834</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I21">
+        <v>151231</v>
+      </c>
+      <c r="J21">
+        <v>151230</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N21">
+        <v>3278350</v>
+      </c>
+      <c r="O21">
+        <v>3261030</v>
+      </c>
+      <c r="P21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="S21">
+        <v>6335670</v>
+      </c>
+      <c r="T21">
+        <v>6335605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D22">
+        <v>119424</v>
+      </c>
+      <c r="E22">
+        <v>104888</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I22">
+        <v>151265</v>
+      </c>
+      <c r="J22">
+        <v>151263</v>
+      </c>
+      <c r="K22" s="47"/>
+      <c r="L22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N22">
+        <v>3278420</v>
+      </c>
+      <c r="O22">
+        <v>3261090</v>
+      </c>
+      <c r="P22" s="47"/>
+      <c r="Q22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S22">
+        <v>6335660</v>
+      </c>
+      <c r="T22">
+        <v>6335650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D23">
+        <v>119469</v>
+      </c>
+      <c r="E23">
+        <v>105066</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I23">
+        <v>151287</v>
+      </c>
+      <c r="J23">
+        <v>151288</v>
+      </c>
+      <c r="K23" s="47"/>
+      <c r="L23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N23">
+        <v>3278450</v>
+      </c>
+      <c r="O23">
+        <v>3261130</v>
+      </c>
+      <c r="P23" s="47"/>
+      <c r="Q23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="S23">
+        <v>6335740</v>
+      </c>
+      <c r="T23">
+        <v>6335790</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D24">
+        <v>119361</v>
+      </c>
+      <c r="E24">
+        <v>105272</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I24">
+        <v>151231</v>
+      </c>
+      <c r="J24">
+        <v>151231</v>
+      </c>
+      <c r="K24" s="47"/>
+      <c r="L24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N24">
+        <v>3278360</v>
+      </c>
+      <c r="O24">
+        <v>3261040</v>
+      </c>
+      <c r="P24" s="47"/>
+      <c r="Q24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="S24">
+        <v>6335580</v>
+      </c>
+      <c r="T24">
+        <v>6335540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D25">
+        <v>119740</v>
+      </c>
+      <c r="E25">
+        <v>100001</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I25">
+        <v>151429</v>
+      </c>
+      <c r="J25">
+        <v>151427</v>
+      </c>
+      <c r="K25" s="47"/>
+      <c r="L25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N25">
+        <v>3278670</v>
+      </c>
+      <c r="O25">
+        <v>3261140</v>
+      </c>
+      <c r="P25" s="47"/>
+      <c r="Q25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="S25">
+        <v>6336180</v>
+      </c>
+      <c r="T25">
+        <v>6335930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C26">
+        <v>53515.8</v>
+      </c>
+      <c r="D26">
+        <v>53516.1</v>
+      </c>
+      <c r="E26">
+        <v>53515.1</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H26">
+        <v>41277</v>
+      </c>
+      <c r="I26">
+        <v>41276.6</v>
+      </c>
+      <c r="J26">
+        <v>41276.9</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M26">
+        <v>104285</v>
+      </c>
+      <c r="N26">
+        <v>104298</v>
+      </c>
+      <c r="O26">
+        <v>104284</v>
+      </c>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C27">
+        <v>52066</v>
+      </c>
+      <c r="D27">
+        <v>52067.199999999997</v>
+      </c>
+      <c r="E27">
+        <v>52068.800000000003</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H27">
+        <v>40090.800000000003</v>
+      </c>
+      <c r="I27">
+        <v>40093.1</v>
+      </c>
+      <c r="J27">
+        <v>40094.199999999997</v>
+      </c>
+      <c r="K27" s="47"/>
+      <c r="L27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M27">
+        <v>103257</v>
+      </c>
+      <c r="N27">
+        <v>103313</v>
+      </c>
+      <c r="O27">
+        <v>103281</v>
+      </c>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C28">
+        <v>45591.5</v>
+      </c>
+      <c r="D28">
+        <v>45583.6</v>
+      </c>
+      <c r="E28">
+        <v>45585.5</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H28">
+        <v>36179.699999999997</v>
+      </c>
+      <c r="I28">
+        <v>36182.800000000003</v>
+      </c>
+      <c r="J28">
+        <v>36176.699999999997</v>
+      </c>
+      <c r="K28" s="47"/>
+      <c r="L28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M28">
+        <v>90334.5</v>
+      </c>
+      <c r="N28">
+        <v>90405.3</v>
+      </c>
+      <c r="O28">
+        <v>90350.5</v>
+      </c>
+      <c r="P28" s="47"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C29">
+        <v>45600.7</v>
+      </c>
+      <c r="D29">
+        <v>45597.1</v>
+      </c>
+      <c r="E29">
+        <v>45597</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H29">
+        <v>36181.9</v>
+      </c>
+      <c r="I29">
+        <v>36178.699999999997</v>
+      </c>
+      <c r="J29">
+        <v>36182.9</v>
+      </c>
+      <c r="K29" s="47"/>
+      <c r="L29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M29">
+        <v>90603.199999999997</v>
+      </c>
+      <c r="N29">
+        <v>90641.7</v>
+      </c>
+      <c r="O29">
+        <v>90544.3</v>
+      </c>
+      <c r="P29" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="P6:P10"/>
+    <mergeCell ref="P11:P15"/>
+    <mergeCell ref="P16:P20"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="K26:K29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D17BE2-A759-46B9-AE0A-A4BC15731660}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="60" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C5">
+        <v>0.23471359749999995</v>
+      </c>
+      <c r="D5">
+        <v>0.25402382093750009</v>
+      </c>
+      <c r="E5">
+        <v>0.22450419859375023</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H5">
+        <v>0.25280609895833328</v>
+      </c>
+      <c r="I5">
+        <v>0.25280609895833328</v>
+      </c>
+      <c r="J5">
+        <v>0.25280609895833328</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M5">
+        <v>0.24057110752688168</v>
+      </c>
+      <c r="N5">
+        <v>0.25206124032258043</v>
+      </c>
+      <c r="O5">
+        <v>0.23604555053763446</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R5">
+        <v>0.34411880000000006</v>
+      </c>
+      <c r="S5">
+        <v>0.40768059999999995</v>
+      </c>
+      <c r="T5">
+        <v>0.32608179999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C6">
+        <v>0.19630400000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.22206300000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.18808800000000001</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H6">
+        <v>0.237923</v>
+      </c>
+      <c r="I6">
+        <v>0.237923</v>
+      </c>
+      <c r="J6">
+        <v>0.237923</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M6">
+        <v>0.99018799999999996</v>
+      </c>
+      <c r="N6">
+        <v>0.99016999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.99056</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C7">
+        <v>0.14333699999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.165358</v>
+      </c>
+      <c r="E7">
+        <v>0.13159199999999999</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H7">
+        <v>0.203296</v>
+      </c>
+      <c r="I7">
+        <v>0.203296</v>
+      </c>
+      <c r="J7">
+        <v>0.203296</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M7">
+        <v>0.87431499999999995</v>
+      </c>
+      <c r="N7">
+        <v>0.87416300000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.87551000000000001</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K9" s="47"/>
+      <c r="L9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="P10" s="47"/>
+      <c r="Q10" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C11">
+        <v>0.193721</v>
+      </c>
+      <c r="D11">
+        <v>0.22053800000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.184304</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H11">
+        <v>0.237064</v>
+      </c>
+      <c r="I11">
+        <v>0.237064</v>
+      </c>
+      <c r="J11">
+        <v>0.237064</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M11">
+        <v>0.97027200000000002</v>
+      </c>
+      <c r="N11">
+        <v>0.96473299999999995</v>
+      </c>
+      <c r="O11">
+        <v>0.96073900000000001</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C12">
+        <v>0.11645899999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.14038900000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.103324</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H12">
+        <v>0.17843000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.17843000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.17843000000000001</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M12">
+        <v>0.62006700000000003</v>
+      </c>
+      <c r="N12">
+        <v>0.61555000000000004</v>
+      </c>
+      <c r="O12">
+        <v>0.61432799999999999</v>
+      </c>
+      <c r="P12" s="47"/>
+      <c r="Q12" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P13" s="47"/>
+      <c r="Q13" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="P14" s="47"/>
+      <c r="Q14" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="P15" s="47"/>
+      <c r="Q15" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C16">
+        <v>0.194857</v>
+      </c>
+      <c r="D16">
+        <v>0.22179099999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.18648300000000001</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H16">
+        <v>0.238563</v>
+      </c>
+      <c r="I16">
+        <v>0.238563</v>
+      </c>
+      <c r="J16">
+        <v>0.238563</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M16">
+        <v>0.97856100000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.97325600000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.96923899999999996</v>
+      </c>
+      <c r="P16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C17">
+        <v>0.121397</v>
+      </c>
+      <c r="D17">
+        <v>0.14402599999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.10874</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H17">
+        <v>0.18576599999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.18576599999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.18576599999999999</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M17">
+        <v>0.71679400000000004</v>
+      </c>
+      <c r="N17">
+        <v>0.71238900000000005</v>
+      </c>
+      <c r="O17">
+        <v>0.71152199999999999</v>
+      </c>
+      <c r="P17" s="47"/>
+      <c r="Q17" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P18" s="47"/>
+      <c r="Q18" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="P19" s="47"/>
+      <c r="Q19" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="P20" s="47"/>
+      <c r="Q20" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C21">
+        <v>0.94805499999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.94514500000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.94734600000000002</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H21">
+        <v>0.99038499999999996</v>
+      </c>
+      <c r="I21">
+        <v>0.99038499999999996</v>
+      </c>
+      <c r="J21">
+        <v>0.99038499999999996</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M21">
+        <v>0.96423300000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.96333299999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.96473299999999995</v>
+      </c>
+      <c r="P21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C22">
+        <v>0.81682699999999997</v>
+      </c>
+      <c r="D22">
+        <v>0.81008100000000005</v>
+      </c>
+      <c r="E22">
+        <v>0.81538299999999997</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H22">
+        <v>0.96517200000000003</v>
+      </c>
+      <c r="I22">
+        <v>0.96517200000000003</v>
+      </c>
+      <c r="J22">
+        <v>0.96517200000000003</v>
+      </c>
+      <c r="K22" s="47"/>
+      <c r="L22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M22">
+        <v>0.86624199999999996</v>
+      </c>
+      <c r="N22">
+        <v>0.86314199999999996</v>
+      </c>
+      <c r="O22">
+        <v>0.86752499999999999</v>
+      </c>
+      <c r="P22" s="47"/>
+      <c r="Q22" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C23">
+        <v>0.74146000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.734545</v>
+      </c>
+      <c r="E23">
+        <v>0.73968699999999998</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H23">
+        <v>0.94957599999999998</v>
+      </c>
+      <c r="I23">
+        <v>0.94957599999999998</v>
+      </c>
+      <c r="J23">
+        <v>0.94957599999999998</v>
+      </c>
+      <c r="K23" s="47"/>
+      <c r="L23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M23">
+        <v>0.80759000000000003</v>
+      </c>
+      <c r="N23">
+        <v>0.80491199999999996</v>
+      </c>
+      <c r="O23">
+        <v>0.80919200000000002</v>
+      </c>
+      <c r="P23" s="47"/>
+      <c r="Q23" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C24">
+        <v>0.953901</v>
+      </c>
+      <c r="D24">
+        <v>0.95126599999999994</v>
+      </c>
+      <c r="E24">
+        <v>0.95324200000000003</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H24">
+        <v>0.99146900000000004</v>
+      </c>
+      <c r="I24">
+        <v>0.99146900000000004</v>
+      </c>
+      <c r="J24">
+        <v>0.99146900000000004</v>
+      </c>
+      <c r="K24" s="47"/>
+      <c r="L24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M24">
+        <v>0.96725000000000005</v>
+      </c>
+      <c r="N24">
+        <v>0.96665000000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="P24" s="47"/>
+      <c r="Q24" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C25">
+        <v>0.49005500000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.492008</v>
+      </c>
+      <c r="E25">
+        <v>0.48448999999999998</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H25">
+        <v>0.87930200000000003</v>
+      </c>
+      <c r="I25">
+        <v>0.87930200000000003</v>
+      </c>
+      <c r="J25">
+        <v>0.87930200000000003</v>
+      </c>
+      <c r="K25" s="47"/>
+      <c r="L25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M25">
+        <v>0.55984699999999998</v>
+      </c>
+      <c r="N25">
+        <v>0.559419</v>
+      </c>
+      <c r="O25">
+        <v>0.56125700000000001</v>
+      </c>
+      <c r="P25" s="47"/>
+      <c r="Q25" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C26">
+        <v>0.125085</v>
+      </c>
+      <c r="D26">
+        <v>0.156114</v>
+      </c>
+      <c r="E26">
+        <v>0.110765</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H26">
+        <v>0.252332</v>
+      </c>
+      <c r="I26">
+        <v>0.252332</v>
+      </c>
+      <c r="J26">
+        <v>0.252332</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M26">
+        <v>0.32134000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.35797800000000002</v>
+      </c>
+      <c r="O26">
+        <v>0.31786999999999999</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C27">
+        <v>0.117091</v>
+      </c>
+      <c r="D27">
+        <v>0.14502999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.10460700000000001</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H27">
+        <v>0.23960400000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.23960400000000001</v>
+      </c>
+      <c r="J27">
+        <v>0.23960400000000001</v>
+      </c>
+      <c r="K27" s="47"/>
+      <c r="L27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M27">
+        <v>0.29989100000000002</v>
+      </c>
+      <c r="N27">
+        <v>0.33516400000000002</v>
+      </c>
+      <c r="O27">
+        <v>0.29764800000000002</v>
+      </c>
+      <c r="P27" s="47"/>
+      <c r="Q27" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C28">
+        <v>0.100818</v>
+      </c>
+      <c r="D28">
+        <v>0.122519</v>
+      </c>
+      <c r="E28">
+        <v>9.2453599999999997E-2</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H28">
+        <v>0.21997</v>
+      </c>
+      <c r="I28">
+        <v>0.21997</v>
+      </c>
+      <c r="J28">
+        <v>0.21997</v>
+      </c>
+      <c r="K28" s="47"/>
+      <c r="L28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M28">
+        <v>0.199352</v>
+      </c>
+      <c r="N28">
+        <v>0.228378</v>
+      </c>
+      <c r="O28">
+        <v>0.19954</v>
+      </c>
+      <c r="P28" s="47"/>
+      <c r="Q28" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C29">
+        <v>0.10080799999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.122528</v>
+      </c>
+      <c r="E29">
+        <v>9.2410999999999993E-2</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H29">
+        <v>0.21993599999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.21993599999999999</v>
+      </c>
+      <c r="J29">
+        <v>0.21993599999999999</v>
+      </c>
+      <c r="K29" s="47"/>
+      <c r="L29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M29">
+        <v>0.19981099999999999</v>
+      </c>
+      <c r="N29">
+        <v>0.22875200000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.200211</v>
+      </c>
+      <c r="P29" s="47"/>
+      <c r="Q29" t="s">
+        <v>1052</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -55002,2314 +57290,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D8CCB6-7FDE-4554-BA14-8E190884BEC8}">
-  <dimension ref="A1:T29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="59" t="s">
-        <v>1043</v>
-      </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C4">
-        <v>104807</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H4">
-        <v>151219</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="M4">
-        <v>3541420</v>
-      </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="R4">
-        <v>6030170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C5">
-        <v>63498.307812500003</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="H5">
-        <v>40199.442708333336</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="M5">
-        <v>1577708.5668449197</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="R5">
-        <v>1997891.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C6">
-        <v>41202.6</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H6">
-        <v>36399.199999999997</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M6">
-        <v>1350340</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R6">
-        <v>1130710</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C7">
-        <v>40657.5</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H7">
-        <v>36064.5</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M7">
-        <v>1350330</v>
-      </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="R7">
-        <v>1130720</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C8">
-        <v>39206.400000000001</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H8">
-        <v>34602.699999999997</v>
-      </c>
-      <c r="K8" s="47"/>
-      <c r="L8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M8">
-        <v>1350300</v>
-      </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="R8">
-        <v>1129854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C9">
-        <v>39193.599999999999</v>
-      </c>
-      <c r="F9" s="47"/>
-      <c r="G9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H9">
-        <v>34560</v>
-      </c>
-      <c r="K9" s="47"/>
-      <c r="L9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M9">
-        <v>1350240</v>
-      </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R9">
-        <v>1129830</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C10">
-        <v>39187.199999999997</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H10">
-        <v>34538.699999999997</v>
-      </c>
-      <c r="K10" s="47"/>
-      <c r="L10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M10">
-        <v>1350170</v>
-      </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="R10">
-        <v>1129814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C11">
-        <v>41305.699999999997</v>
-      </c>
-      <c r="D11">
-        <v>41305.4</v>
-      </c>
-      <c r="E11">
-        <v>41305.5</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H11">
-        <v>36441.599999999999</v>
-      </c>
-      <c r="I11">
-        <v>36441</v>
-      </c>
-      <c r="J11">
-        <v>36440.5</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M11">
-        <v>1334820</v>
-      </c>
-      <c r="N11">
-        <v>1334820</v>
-      </c>
-      <c r="O11">
-        <v>1334820</v>
-      </c>
-      <c r="P11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R11">
-        <v>975295</v>
-      </c>
-      <c r="S11">
-        <v>975308</v>
-      </c>
-      <c r="T11">
-        <v>975270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C12">
-        <v>48141.3</v>
-      </c>
-      <c r="D12">
-        <v>48146.2</v>
-      </c>
-      <c r="E12">
-        <v>48143.199999999997</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H12">
-        <v>42813</v>
-      </c>
-      <c r="I12">
-        <v>42813.9</v>
-      </c>
-      <c r="J12">
-        <v>42813.2</v>
-      </c>
-      <c r="K12" s="47"/>
-      <c r="L12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M12">
-        <v>1327110</v>
-      </c>
-      <c r="N12">
-        <v>1327110</v>
-      </c>
-      <c r="O12">
-        <v>1327110</v>
-      </c>
-      <c r="P12" s="47"/>
-      <c r="Q12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="R12">
-        <v>1015390</v>
-      </c>
-      <c r="S12">
-        <v>1015411</v>
-      </c>
-      <c r="T12">
-        <v>1015420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M13">
-        <v>1435370</v>
-      </c>
-      <c r="N13">
-        <v>1435340</v>
-      </c>
-      <c r="O13">
-        <v>1435350</v>
-      </c>
-      <c r="P13" s="47"/>
-      <c r="Q13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="R13">
-        <v>1348280</v>
-      </c>
-      <c r="S13">
-        <v>1348290</v>
-      </c>
-      <c r="T13">
-        <v>1348250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M14">
-        <v>1435090</v>
-      </c>
-      <c r="N14">
-        <v>1435080</v>
-      </c>
-      <c r="O14">
-        <v>1435090</v>
-      </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R14">
-        <v>1347560</v>
-      </c>
-      <c r="S14">
-        <v>1347447</v>
-      </c>
-      <c r="T14">
-        <v>1347540</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M15">
-        <v>1435220</v>
-      </c>
-      <c r="N15">
-        <v>1435240</v>
-      </c>
-      <c r="O15">
-        <v>1435240</v>
-      </c>
-      <c r="P15" s="47"/>
-      <c r="Q15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="R15">
-        <v>1347930</v>
-      </c>
-      <c r="S15">
-        <v>1348000</v>
-      </c>
-      <c r="T15">
-        <v>1348020</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C16">
-        <v>41430.1</v>
-      </c>
-      <c r="D16">
-        <v>41433.300000000003</v>
-      </c>
-      <c r="E16">
-        <v>41433.4</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H16">
-        <v>36452.699999999997</v>
-      </c>
-      <c r="I16">
-        <v>36455.1</v>
-      </c>
-      <c r="J16">
-        <v>36455.1</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M16">
-        <v>1363020</v>
-      </c>
-      <c r="N16">
-        <v>1363020</v>
-      </c>
-      <c r="O16">
-        <v>1363020</v>
-      </c>
-      <c r="P16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R16">
-        <v>1130360</v>
-      </c>
-      <c r="S16">
-        <v>1130340</v>
-      </c>
-      <c r="T16">
-        <v>1130340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C17">
-        <v>50155.8</v>
-      </c>
-      <c r="D17">
-        <v>50155.7</v>
-      </c>
-      <c r="E17">
-        <v>50163.9</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H17">
-        <v>43695.199999999997</v>
-      </c>
-      <c r="I17">
-        <v>43694.9</v>
-      </c>
-      <c r="J17">
-        <v>43705</v>
-      </c>
-      <c r="K17" s="47"/>
-      <c r="L17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M17">
-        <v>1370760</v>
-      </c>
-      <c r="N17">
-        <v>1370770</v>
-      </c>
-      <c r="O17">
-        <v>1370770</v>
-      </c>
-      <c r="P17" s="47"/>
-      <c r="Q17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="R17">
-        <v>1131524</v>
-      </c>
-      <c r="S17">
-        <v>1131550</v>
-      </c>
-      <c r="T17">
-        <v>1131560</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M18">
-        <v>1450460</v>
-      </c>
-      <c r="N18">
-        <v>1450370</v>
-      </c>
-      <c r="O18">
-        <v>1450400</v>
-      </c>
-      <c r="P18" s="47"/>
-      <c r="Q18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="R18">
-        <v>1337670</v>
-      </c>
-      <c r="S18">
-        <v>1337560</v>
-      </c>
-      <c r="T18">
-        <v>1337580</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M19">
-        <v>1432680</v>
-      </c>
-      <c r="N19">
-        <v>1432670</v>
-      </c>
-      <c r="O19">
-        <v>1432670</v>
-      </c>
-      <c r="P19" s="47"/>
-      <c r="Q19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R19">
-        <v>1336278</v>
-      </c>
-      <c r="S19">
-        <v>1336278</v>
-      </c>
-      <c r="T19">
-        <v>1336350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M20">
-        <v>1432960</v>
-      </c>
-      <c r="N20">
-        <v>1432970</v>
-      </c>
-      <c r="O20">
-        <v>1432960</v>
-      </c>
-      <c r="P20" s="47"/>
-      <c r="Q20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="R20">
-        <v>1336920</v>
-      </c>
-      <c r="S20">
-        <v>1336970</v>
-      </c>
-      <c r="T20">
-        <v>1336980</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D21">
-        <v>119364</v>
-      </c>
-      <c r="E21">
-        <v>104834</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I21">
-        <v>151231</v>
-      </c>
-      <c r="J21">
-        <v>151230</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="N21">
-        <v>3278350</v>
-      </c>
-      <c r="O21">
-        <v>3261030</v>
-      </c>
-      <c r="P21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="S21">
-        <v>6335670</v>
-      </c>
-      <c r="T21">
-        <v>6335605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D22">
-        <v>119424</v>
-      </c>
-      <c r="E22">
-        <v>104888</v>
-      </c>
-      <c r="F22" s="47"/>
-      <c r="G22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I22">
-        <v>151265</v>
-      </c>
-      <c r="J22">
-        <v>151263</v>
-      </c>
-      <c r="K22" s="47"/>
-      <c r="L22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="N22">
-        <v>3278420</v>
-      </c>
-      <c r="O22">
-        <v>3261090</v>
-      </c>
-      <c r="P22" s="47"/>
-      <c r="Q22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S22">
-        <v>6335660</v>
-      </c>
-      <c r="T22">
-        <v>6335650</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D23">
-        <v>119469</v>
-      </c>
-      <c r="E23">
-        <v>105066</v>
-      </c>
-      <c r="F23" s="47"/>
-      <c r="G23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I23">
-        <v>151287</v>
-      </c>
-      <c r="J23">
-        <v>151288</v>
-      </c>
-      <c r="K23" s="47"/>
-      <c r="L23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="N23">
-        <v>3278450</v>
-      </c>
-      <c r="O23">
-        <v>3261130</v>
-      </c>
-      <c r="P23" s="47"/>
-      <c r="Q23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="S23">
-        <v>6335740</v>
-      </c>
-      <c r="T23">
-        <v>6335790</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D24">
-        <v>119361</v>
-      </c>
-      <c r="E24">
-        <v>105272</v>
-      </c>
-      <c r="F24" s="47"/>
-      <c r="G24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I24">
-        <v>151231</v>
-      </c>
-      <c r="J24">
-        <v>151231</v>
-      </c>
-      <c r="K24" s="47"/>
-      <c r="L24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="N24">
-        <v>3278360</v>
-      </c>
-      <c r="O24">
-        <v>3261040</v>
-      </c>
-      <c r="P24" s="47"/>
-      <c r="Q24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="S24">
-        <v>6335580</v>
-      </c>
-      <c r="T24">
-        <v>6335540</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D25">
-        <v>119740</v>
-      </c>
-      <c r="E25">
-        <v>100001</v>
-      </c>
-      <c r="F25" s="47"/>
-      <c r="G25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I25">
-        <v>151429</v>
-      </c>
-      <c r="J25">
-        <v>151427</v>
-      </c>
-      <c r="K25" s="47"/>
-      <c r="L25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="N25">
-        <v>3278670</v>
-      </c>
-      <c r="O25">
-        <v>3261140</v>
-      </c>
-      <c r="P25" s="47"/>
-      <c r="Q25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="S25">
-        <v>6336180</v>
-      </c>
-      <c r="T25">
-        <v>6335930</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C26">
-        <v>53515.8</v>
-      </c>
-      <c r="D26">
-        <v>53516.1</v>
-      </c>
-      <c r="E26">
-        <v>53515.1</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H26">
-        <v>41277</v>
-      </c>
-      <c r="I26">
-        <v>41276.6</v>
-      </c>
-      <c r="J26">
-        <v>41276.9</v>
-      </c>
-      <c r="K26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="L26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M26">
-        <v>104285</v>
-      </c>
-      <c r="N26">
-        <v>104298</v>
-      </c>
-      <c r="O26">
-        <v>104284</v>
-      </c>
-      <c r="P26" s="47"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C27">
-        <v>52066</v>
-      </c>
-      <c r="D27">
-        <v>52067.199999999997</v>
-      </c>
-      <c r="E27">
-        <v>52068.800000000003</v>
-      </c>
-      <c r="F27" s="47"/>
-      <c r="G27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H27">
-        <v>40090.800000000003</v>
-      </c>
-      <c r="I27">
-        <v>40093.1</v>
-      </c>
-      <c r="J27">
-        <v>40094.199999999997</v>
-      </c>
-      <c r="K27" s="47"/>
-      <c r="L27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M27">
-        <v>103257</v>
-      </c>
-      <c r="N27">
-        <v>103313</v>
-      </c>
-      <c r="O27">
-        <v>103281</v>
-      </c>
-      <c r="P27" s="47"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C28">
-        <v>45591.5</v>
-      </c>
-      <c r="D28">
-        <v>45583.6</v>
-      </c>
-      <c r="E28">
-        <v>45585.5</v>
-      </c>
-      <c r="F28" s="47"/>
-      <c r="G28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H28">
-        <v>36179.699999999997</v>
-      </c>
-      <c r="I28">
-        <v>36182.800000000003</v>
-      </c>
-      <c r="J28">
-        <v>36176.699999999997</v>
-      </c>
-      <c r="K28" s="47"/>
-      <c r="L28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M28">
-        <v>90334.5</v>
-      </c>
-      <c r="N28">
-        <v>90405.3</v>
-      </c>
-      <c r="O28">
-        <v>90350.5</v>
-      </c>
-      <c r="P28" s="47"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C29">
-        <v>45600.7</v>
-      </c>
-      <c r="D29">
-        <v>45597.1</v>
-      </c>
-      <c r="E29">
-        <v>45597</v>
-      </c>
-      <c r="F29" s="47"/>
-      <c r="G29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H29">
-        <v>36181.9</v>
-      </c>
-      <c r="I29">
-        <v>36178.699999999997</v>
-      </c>
-      <c r="J29">
-        <v>36182.9</v>
-      </c>
-      <c r="K29" s="47"/>
-      <c r="L29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M29">
-        <v>90603.199999999997</v>
-      </c>
-      <c r="N29">
-        <v>90641.7</v>
-      </c>
-      <c r="O29">
-        <v>90544.3</v>
-      </c>
-      <c r="P29" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="P6:P10"/>
-    <mergeCell ref="P11:P15"/>
-    <mergeCell ref="P16:P20"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D17BE2-A759-46B9-AE0A-A4BC15731660}">
-  <dimension ref="A1:T29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="59" t="s">
-        <v>1043</v>
-      </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C5">
-        <v>0.23471359749999995</v>
-      </c>
-      <c r="D5">
-        <v>0.25402382093750009</v>
-      </c>
-      <c r="E5">
-        <v>0.22450419859375023</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H5">
-        <v>0.25280609895833328</v>
-      </c>
-      <c r="I5">
-        <v>0.25280609895833328</v>
-      </c>
-      <c r="J5">
-        <v>0.25280609895833328</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M5">
-        <v>0.24057110752688168</v>
-      </c>
-      <c r="N5">
-        <v>0.25206124032258043</v>
-      </c>
-      <c r="O5">
-        <v>0.23604555053763446</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="R5">
-        <v>0.34411880000000006</v>
-      </c>
-      <c r="S5">
-        <v>0.40768059999999995</v>
-      </c>
-      <c r="T5">
-        <v>0.32608179999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C6">
-        <v>0.19630400000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.22206300000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.18808800000000001</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H6">
-        <v>0.237923</v>
-      </c>
-      <c r="I6">
-        <v>0.237923</v>
-      </c>
-      <c r="J6">
-        <v>0.237923</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M6">
-        <v>0.99018799999999996</v>
-      </c>
-      <c r="N6">
-        <v>0.99016999999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.99056</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C7">
-        <v>0.14333699999999999</v>
-      </c>
-      <c r="D7">
-        <v>0.165358</v>
-      </c>
-      <c r="E7">
-        <v>0.13159199999999999</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H7">
-        <v>0.203296</v>
-      </c>
-      <c r="I7">
-        <v>0.203296</v>
-      </c>
-      <c r="J7">
-        <v>0.203296</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M7">
-        <v>0.87431499999999995</v>
-      </c>
-      <c r="N7">
-        <v>0.87416300000000002</v>
-      </c>
-      <c r="O7">
-        <v>0.87551000000000001</v>
-      </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="K8" s="47"/>
-      <c r="L8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F9" s="47"/>
-      <c r="G9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="K9" s="47"/>
-      <c r="L9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="K10" s="47"/>
-      <c r="L10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C11">
-        <v>0.193721</v>
-      </c>
-      <c r="D11">
-        <v>0.22053800000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.184304</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H11">
-        <v>0.237064</v>
-      </c>
-      <c r="I11">
-        <v>0.237064</v>
-      </c>
-      <c r="J11">
-        <v>0.237064</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M11">
-        <v>0.97027200000000002</v>
-      </c>
-      <c r="N11">
-        <v>0.96473299999999995</v>
-      </c>
-      <c r="O11">
-        <v>0.96073900000000001</v>
-      </c>
-      <c r="P11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C12">
-        <v>0.11645899999999999</v>
-      </c>
-      <c r="D12">
-        <v>0.14038900000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.103324</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H12">
-        <v>0.17843000000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.17843000000000001</v>
-      </c>
-      <c r="J12">
-        <v>0.17843000000000001</v>
-      </c>
-      <c r="K12" s="47"/>
-      <c r="L12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M12">
-        <v>0.62006700000000003</v>
-      </c>
-      <c r="N12">
-        <v>0.61555000000000004</v>
-      </c>
-      <c r="O12">
-        <v>0.61432799999999999</v>
-      </c>
-      <c r="P12" s="47"/>
-      <c r="Q12" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P13" s="47"/>
-      <c r="Q13" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="P15" s="47"/>
-      <c r="Q15" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C16">
-        <v>0.194857</v>
-      </c>
-      <c r="D16">
-        <v>0.22179099999999999</v>
-      </c>
-      <c r="E16">
-        <v>0.18648300000000001</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H16">
-        <v>0.238563</v>
-      </c>
-      <c r="I16">
-        <v>0.238563</v>
-      </c>
-      <c r="J16">
-        <v>0.238563</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M16">
-        <v>0.97856100000000001</v>
-      </c>
-      <c r="N16">
-        <v>0.97325600000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.96923899999999996</v>
-      </c>
-      <c r="P16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C17">
-        <v>0.121397</v>
-      </c>
-      <c r="D17">
-        <v>0.14402599999999999</v>
-      </c>
-      <c r="E17">
-        <v>0.10874</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H17">
-        <v>0.18576599999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.18576599999999999</v>
-      </c>
-      <c r="J17">
-        <v>0.18576599999999999</v>
-      </c>
-      <c r="K17" s="47"/>
-      <c r="L17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M17">
-        <v>0.71679400000000004</v>
-      </c>
-      <c r="N17">
-        <v>0.71238900000000005</v>
-      </c>
-      <c r="O17">
-        <v>0.71152199999999999</v>
-      </c>
-      <c r="P17" s="47"/>
-      <c r="Q17" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P18" s="47"/>
-      <c r="Q18" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="P19" s="47"/>
-      <c r="Q19" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="P20" s="47"/>
-      <c r="Q20" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C21">
-        <v>0.94805499999999998</v>
-      </c>
-      <c r="D21">
-        <v>0.94514500000000001</v>
-      </c>
-      <c r="E21">
-        <v>0.94734600000000002</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H21">
-        <v>0.99038499999999996</v>
-      </c>
-      <c r="I21">
-        <v>0.99038499999999996</v>
-      </c>
-      <c r="J21">
-        <v>0.99038499999999996</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M21">
-        <v>0.96423300000000001</v>
-      </c>
-      <c r="N21">
-        <v>0.96333299999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.96473299999999995</v>
-      </c>
-      <c r="P21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C22">
-        <v>0.81682699999999997</v>
-      </c>
-      <c r="D22">
-        <v>0.81008100000000005</v>
-      </c>
-      <c r="E22">
-        <v>0.81538299999999997</v>
-      </c>
-      <c r="F22" s="47"/>
-      <c r="G22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H22">
-        <v>0.96517200000000003</v>
-      </c>
-      <c r="I22">
-        <v>0.96517200000000003</v>
-      </c>
-      <c r="J22">
-        <v>0.96517200000000003</v>
-      </c>
-      <c r="K22" s="47"/>
-      <c r="L22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M22">
-        <v>0.86624199999999996</v>
-      </c>
-      <c r="N22">
-        <v>0.86314199999999996</v>
-      </c>
-      <c r="O22">
-        <v>0.86752499999999999</v>
-      </c>
-      <c r="P22" s="47"/>
-      <c r="Q22" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C23">
-        <v>0.74146000000000001</v>
-      </c>
-      <c r="D23">
-        <v>0.734545</v>
-      </c>
-      <c r="E23">
-        <v>0.73968699999999998</v>
-      </c>
-      <c r="F23" s="47"/>
-      <c r="G23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H23">
-        <v>0.94957599999999998</v>
-      </c>
-      <c r="I23">
-        <v>0.94957599999999998</v>
-      </c>
-      <c r="J23">
-        <v>0.94957599999999998</v>
-      </c>
-      <c r="K23" s="47"/>
-      <c r="L23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M23">
-        <v>0.80759000000000003</v>
-      </c>
-      <c r="N23">
-        <v>0.80491199999999996</v>
-      </c>
-      <c r="O23">
-        <v>0.80919200000000002</v>
-      </c>
-      <c r="P23" s="47"/>
-      <c r="Q23" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C24">
-        <v>0.953901</v>
-      </c>
-      <c r="D24">
-        <v>0.95126599999999994</v>
-      </c>
-      <c r="E24">
-        <v>0.95324200000000003</v>
-      </c>
-      <c r="F24" s="47"/>
-      <c r="G24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H24">
-        <v>0.99146900000000004</v>
-      </c>
-      <c r="I24">
-        <v>0.99146900000000004</v>
-      </c>
-      <c r="J24">
-        <v>0.99146900000000004</v>
-      </c>
-      <c r="K24" s="47"/>
-      <c r="L24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M24">
-        <v>0.96725000000000005</v>
-      </c>
-      <c r="N24">
-        <v>0.96665000000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.96850000000000003</v>
-      </c>
-      <c r="P24" s="47"/>
-      <c r="Q24" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C25">
-        <v>0.49005500000000002</v>
-      </c>
-      <c r="D25">
-        <v>0.492008</v>
-      </c>
-      <c r="E25">
-        <v>0.48448999999999998</v>
-      </c>
-      <c r="F25" s="47"/>
-      <c r="G25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H25">
-        <v>0.87930200000000003</v>
-      </c>
-      <c r="I25">
-        <v>0.87930200000000003</v>
-      </c>
-      <c r="J25">
-        <v>0.87930200000000003</v>
-      </c>
-      <c r="K25" s="47"/>
-      <c r="L25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M25">
-        <v>0.55984699999999998</v>
-      </c>
-      <c r="N25">
-        <v>0.559419</v>
-      </c>
-      <c r="O25">
-        <v>0.56125700000000001</v>
-      </c>
-      <c r="P25" s="47"/>
-      <c r="Q25" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C26">
-        <v>0.125085</v>
-      </c>
-      <c r="D26">
-        <v>0.156114</v>
-      </c>
-      <c r="E26">
-        <v>0.110765</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H26">
-        <v>0.252332</v>
-      </c>
-      <c r="I26">
-        <v>0.252332</v>
-      </c>
-      <c r="J26">
-        <v>0.252332</v>
-      </c>
-      <c r="K26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="L26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M26">
-        <v>0.32134000000000001</v>
-      </c>
-      <c r="N26">
-        <v>0.35797800000000002</v>
-      </c>
-      <c r="O26">
-        <v>0.31786999999999999</v>
-      </c>
-      <c r="P26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C27">
-        <v>0.117091</v>
-      </c>
-      <c r="D27">
-        <v>0.14502999999999999</v>
-      </c>
-      <c r="E27">
-        <v>0.10460700000000001</v>
-      </c>
-      <c r="F27" s="47"/>
-      <c r="G27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H27">
-        <v>0.23960400000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.23960400000000001</v>
-      </c>
-      <c r="J27">
-        <v>0.23960400000000001</v>
-      </c>
-      <c r="K27" s="47"/>
-      <c r="L27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M27">
-        <v>0.29989100000000002</v>
-      </c>
-      <c r="N27">
-        <v>0.33516400000000002</v>
-      </c>
-      <c r="O27">
-        <v>0.29764800000000002</v>
-      </c>
-      <c r="P27" s="47"/>
-      <c r="Q27" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C28">
-        <v>0.100818</v>
-      </c>
-      <c r="D28">
-        <v>0.122519</v>
-      </c>
-      <c r="E28">
-        <v>9.2453599999999997E-2</v>
-      </c>
-      <c r="F28" s="47"/>
-      <c r="G28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H28">
-        <v>0.21997</v>
-      </c>
-      <c r="I28">
-        <v>0.21997</v>
-      </c>
-      <c r="J28">
-        <v>0.21997</v>
-      </c>
-      <c r="K28" s="47"/>
-      <c r="L28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M28">
-        <v>0.199352</v>
-      </c>
-      <c r="N28">
-        <v>0.228378</v>
-      </c>
-      <c r="O28">
-        <v>0.19954</v>
-      </c>
-      <c r="P28" s="47"/>
-      <c r="Q28" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C29">
-        <v>0.10080799999999999</v>
-      </c>
-      <c r="D29">
-        <v>0.122528</v>
-      </c>
-      <c r="E29">
-        <v>9.2410999999999993E-2</v>
-      </c>
-      <c r="F29" s="47"/>
-      <c r="G29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H29">
-        <v>0.21993599999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.21993599999999999</v>
-      </c>
-      <c r="J29">
-        <v>0.21993599999999999</v>
-      </c>
-      <c r="K29" s="47"/>
-      <c r="L29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M29">
-        <v>0.19981099999999999</v>
-      </c>
-      <c r="N29">
-        <v>0.22875200000000001</v>
-      </c>
-      <c r="O29">
-        <v>0.200211</v>
-      </c>
-      <c r="P29" s="47"/>
-      <c r="Q29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="P6:P10"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="P11:P15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="P16:P20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="P26:P29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E331B5-678C-497E-946B-F2BE683E4351}">
   <dimension ref="A1:T29"/>
@@ -57321,56 +57301,56 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>1040</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>1041</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>1042</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="59" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="60" t="s">
         <v>1043</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -58487,6 +58467,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="P11:P15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="P16:P20"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="F6:F10"/>
     <mergeCell ref="K6:K10"/>
@@ -58496,22 +58492,6 @@
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="P2:T2"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="P11:P15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="P16:P20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="P26:P29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/SMKITS5/docs/annotatedAnalysis/valuesAndDiagrams.xlsx
+++ b/SMKITS5/docs/annotatedAnalysis/valuesAndDiagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bern_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563DCF1C-9241-445F-816A-99A353206CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FBAA90-900E-4D53-8977-82EB49C425E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3845,6 +3845,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFFFFFFF"/>
       <color rgb="FFCC0000"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFF8080"/>
@@ -4654,7 +4655,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -31187,13 +31188,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -32232,7 +32233,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SMKITS5/docs/annotatedAnalysis/valuesAndDiagrams.xlsx
+++ b/SMKITS5/docs/annotatedAnalysis/valuesAndDiagrams.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bern_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FBAA90-900E-4D53-8977-82EB49C425E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D69214-0D92-4FFE-812D-B75187FBC068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tests" sheetId="30" r:id="rId1"/>
-    <sheet name="stegdetect-stegbreak.csv" sheetId="24" r:id="rId2"/>
-    <sheet name="diff-recomp.csv" sheetId="1" r:id="rId3"/>
-    <sheet name="stegbreak-failure" sheetId="29" r:id="rId4"/>
-    <sheet name="entropy.csv" sheetId="10" r:id="rId5"/>
-    <sheet name="filesize.csv" sheetId="4" r:id="rId6"/>
-    <sheet name="diff-cc.csv" sheetId="17" r:id="rId7"/>
-    <sheet name="diff-bw.csv" sheetId="16" r:id="rId8"/>
+    <sheet name="successfulEmbeds" sheetId="31" r:id="rId1"/>
+    <sheet name="tests" sheetId="30" r:id="rId2"/>
+    <sheet name="stegdetect-stegbreak.csv" sheetId="24" r:id="rId3"/>
+    <sheet name="diff-recomp.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="stegbreak-failure" sheetId="29" r:id="rId5"/>
+    <sheet name="entropy.csv" sheetId="10" r:id="rId6"/>
+    <sheet name="filesize.csv" sheetId="4" r:id="rId7"/>
+    <sheet name="diff-cc.csv" sheetId="17" r:id="rId8"/>
+    <sheet name="diff-bw.csv" sheetId="16" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="3" hidden="1">'stegbreak-failure'!$A$1:$G$9</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="4" hidden="1">'stegbreak-failure'!$A$1:$G$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="1097">
   <si>
     <t>file</t>
   </si>
@@ -3394,6 +3395,12 @@
   </si>
   <si>
     <t>Attributierungsmodus</t>
+  </si>
+  <si>
+    <t>highres</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -32229,10 +32236,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44BD4B6-6E83-438A-B3FB-987B3D7F75A6}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B2">
+        <v>1099</v>
+      </c>
+      <c r="C2">
+        <v>3200</v>
+      </c>
+      <c r="D2">
+        <v>3326</v>
+      </c>
+      <c r="E2">
+        <v>9600</v>
+      </c>
+      <c r="F2">
+        <v>3244</v>
+      </c>
+      <c r="G2">
+        <v>9600</v>
+      </c>
+      <c r="H2">
+        <v>5745</v>
+      </c>
+      <c r="I2">
+        <v>5853</v>
+      </c>
+      <c r="J2">
+        <v>3180</v>
+      </c>
+      <c r="K2">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B3">
+        <v>345</v>
+      </c>
+      <c r="C3">
+        <v>960</v>
+      </c>
+      <c r="D3">
+        <v>981</v>
+      </c>
+      <c r="E3">
+        <v>2880</v>
+      </c>
+      <c r="F3">
+        <v>967</v>
+      </c>
+      <c r="G3">
+        <v>2880</v>
+      </c>
+      <c r="H3">
+        <v>1920</v>
+      </c>
+      <c r="I3">
+        <v>1920</v>
+      </c>
+      <c r="J3">
+        <v>1128</v>
+      </c>
+      <c r="K3">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B4">
+        <v>894</v>
+      </c>
+      <c r="C4">
+        <v>935</v>
+      </c>
+      <c r="D4">
+        <v>1659</v>
+      </c>
+      <c r="E4">
+        <v>2805</v>
+      </c>
+      <c r="F4">
+        <v>2709</v>
+      </c>
+      <c r="G4">
+        <v>2805</v>
+      </c>
+      <c r="H4">
+        <v>1864</v>
+      </c>
+      <c r="I4">
+        <v>1865</v>
+      </c>
+      <c r="J4">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>66</v>
+      </c>
+      <c r="G5">
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B6">
+        <v>2354</v>
+      </c>
+      <c r="C6">
+        <v>5120</v>
+      </c>
+      <c r="D6">
+        <v>6005</v>
+      </c>
+      <c r="E6">
+        <v>15360</v>
+      </c>
+      <c r="F6">
+        <v>6986</v>
+      </c>
+      <c r="G6">
+        <v>15360</v>
+      </c>
+      <c r="H6">
+        <v>9579</v>
+      </c>
+      <c r="I6">
+        <v>9688</v>
+      </c>
+      <c r="J6">
+        <v>4347</v>
+      </c>
+      <c r="K6">
+        <v>10992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="45">
+        <v>0.45976562500000001</v>
+      </c>
+      <c r="D7" s="45">
+        <v>0.39095052083333331</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0.45481770833333335</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0.9887489677952106</v>
+      </c>
+      <c r="J7" s="45">
+        <v>0.39546943231441051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E9EE83-BF33-4380-BA71-50AAD1331D90}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -32484,7 +32713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F425EAAB-9495-4266-BFEC-0E125244F79F}">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -33394,7 +33623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X645"/>
   <sheetViews>
@@ -53404,7 +53633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389E6A34-9FF1-491C-AEC3-4AFA828CC400}">
   <dimension ref="A1:BR27"/>
   <sheetViews>
@@ -53801,7 +54030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996F0916-589D-4DD2-9D14-6612C03B41CB}">
   <dimension ref="A1:T29"/>
   <sheetViews>
@@ -54949,6 +55178,2314 @@
         <v>0.92271999999999998</v>
       </c>
       <c r="P29" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="P11:P15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="P16:P20"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="P6:P10"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D8CCB6-7FDE-4554-BA14-8E190884BEC8}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="60" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C4">
+        <v>104807</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H4">
+        <v>151219</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M4">
+        <v>3541420</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="R4">
+        <v>6030170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C5">
+        <v>63498.307812500003</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="H5">
+        <v>40199.442708333336</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="M5">
+        <v>1577708.5668449197</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="R5">
+        <v>1997891.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C6">
+        <v>41202.6</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H6">
+        <v>36399.199999999997</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M6">
+        <v>1350340</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R6">
+        <v>1130710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C7">
+        <v>40657.5</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H7">
+        <v>36064.5</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M7">
+        <v>1350330</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R7">
+        <v>1130720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C8">
+        <v>39206.400000000001</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H8">
+        <v>34602.699999999997</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M8">
+        <v>1350300</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R8">
+        <v>1129854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C9">
+        <v>39193.599999999999</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H9">
+        <v>34560</v>
+      </c>
+      <c r="K9" s="47"/>
+      <c r="L9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M9">
+        <v>1350240</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R9">
+        <v>1129830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C10">
+        <v>39187.199999999997</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H10">
+        <v>34538.699999999997</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M10">
+        <v>1350170</v>
+      </c>
+      <c r="P10" s="47"/>
+      <c r="Q10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R10">
+        <v>1129814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C11">
+        <v>41305.699999999997</v>
+      </c>
+      <c r="D11">
+        <v>41305.4</v>
+      </c>
+      <c r="E11">
+        <v>41305.5</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H11">
+        <v>36441.599999999999</v>
+      </c>
+      <c r="I11">
+        <v>36441</v>
+      </c>
+      <c r="J11">
+        <v>36440.5</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M11">
+        <v>1334820</v>
+      </c>
+      <c r="N11">
+        <v>1334820</v>
+      </c>
+      <c r="O11">
+        <v>1334820</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R11">
+        <v>975295</v>
+      </c>
+      <c r="S11">
+        <v>975308</v>
+      </c>
+      <c r="T11">
+        <v>975270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C12">
+        <v>48141.3</v>
+      </c>
+      <c r="D12">
+        <v>48146.2</v>
+      </c>
+      <c r="E12">
+        <v>48143.199999999997</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H12">
+        <v>42813</v>
+      </c>
+      <c r="I12">
+        <v>42813.9</v>
+      </c>
+      <c r="J12">
+        <v>42813.2</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M12">
+        <v>1327110</v>
+      </c>
+      <c r="N12">
+        <v>1327110</v>
+      </c>
+      <c r="O12">
+        <v>1327110</v>
+      </c>
+      <c r="P12" s="47"/>
+      <c r="Q12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R12">
+        <v>1015390</v>
+      </c>
+      <c r="S12">
+        <v>1015411</v>
+      </c>
+      <c r="T12">
+        <v>1015420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M13">
+        <v>1435370</v>
+      </c>
+      <c r="N13">
+        <v>1435340</v>
+      </c>
+      <c r="O13">
+        <v>1435350</v>
+      </c>
+      <c r="P13" s="47"/>
+      <c r="Q13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R13">
+        <v>1348280</v>
+      </c>
+      <c r="S13">
+        <v>1348290</v>
+      </c>
+      <c r="T13">
+        <v>1348250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M14">
+        <v>1435090</v>
+      </c>
+      <c r="N14">
+        <v>1435080</v>
+      </c>
+      <c r="O14">
+        <v>1435090</v>
+      </c>
+      <c r="P14" s="47"/>
+      <c r="Q14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R14">
+        <v>1347560</v>
+      </c>
+      <c r="S14">
+        <v>1347447</v>
+      </c>
+      <c r="T14">
+        <v>1347540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M15">
+        <v>1435220</v>
+      </c>
+      <c r="N15">
+        <v>1435240</v>
+      </c>
+      <c r="O15">
+        <v>1435240</v>
+      </c>
+      <c r="P15" s="47"/>
+      <c r="Q15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R15">
+        <v>1347930</v>
+      </c>
+      <c r="S15">
+        <v>1348000</v>
+      </c>
+      <c r="T15">
+        <v>1348020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C16">
+        <v>41430.1</v>
+      </c>
+      <c r="D16">
+        <v>41433.300000000003</v>
+      </c>
+      <c r="E16">
+        <v>41433.4</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H16">
+        <v>36452.699999999997</v>
+      </c>
+      <c r="I16">
+        <v>36455.1</v>
+      </c>
+      <c r="J16">
+        <v>36455.1</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M16">
+        <v>1363020</v>
+      </c>
+      <c r="N16">
+        <v>1363020</v>
+      </c>
+      <c r="O16">
+        <v>1363020</v>
+      </c>
+      <c r="P16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R16">
+        <v>1130360</v>
+      </c>
+      <c r="S16">
+        <v>1130340</v>
+      </c>
+      <c r="T16">
+        <v>1130340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C17">
+        <v>50155.8</v>
+      </c>
+      <c r="D17">
+        <v>50155.7</v>
+      </c>
+      <c r="E17">
+        <v>50163.9</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H17">
+        <v>43695.199999999997</v>
+      </c>
+      <c r="I17">
+        <v>43694.9</v>
+      </c>
+      <c r="J17">
+        <v>43705</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M17">
+        <v>1370760</v>
+      </c>
+      <c r="N17">
+        <v>1370770</v>
+      </c>
+      <c r="O17">
+        <v>1370770</v>
+      </c>
+      <c r="P17" s="47"/>
+      <c r="Q17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R17">
+        <v>1131524</v>
+      </c>
+      <c r="S17">
+        <v>1131550</v>
+      </c>
+      <c r="T17">
+        <v>1131560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M18">
+        <v>1450460</v>
+      </c>
+      <c r="N18">
+        <v>1450370</v>
+      </c>
+      <c r="O18">
+        <v>1450400</v>
+      </c>
+      <c r="P18" s="47"/>
+      <c r="Q18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R18">
+        <v>1337670</v>
+      </c>
+      <c r="S18">
+        <v>1337560</v>
+      </c>
+      <c r="T18">
+        <v>1337580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M19">
+        <v>1432680</v>
+      </c>
+      <c r="N19">
+        <v>1432670</v>
+      </c>
+      <c r="O19">
+        <v>1432670</v>
+      </c>
+      <c r="P19" s="47"/>
+      <c r="Q19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R19">
+        <v>1336278</v>
+      </c>
+      <c r="S19">
+        <v>1336278</v>
+      </c>
+      <c r="T19">
+        <v>1336350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M20">
+        <v>1432960</v>
+      </c>
+      <c r="N20">
+        <v>1432970</v>
+      </c>
+      <c r="O20">
+        <v>1432960</v>
+      </c>
+      <c r="P20" s="47"/>
+      <c r="Q20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R20">
+        <v>1336920</v>
+      </c>
+      <c r="S20">
+        <v>1336970</v>
+      </c>
+      <c r="T20">
+        <v>1336980</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D21">
+        <v>119364</v>
+      </c>
+      <c r="E21">
+        <v>104834</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I21">
+        <v>151231</v>
+      </c>
+      <c r="J21">
+        <v>151230</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N21">
+        <v>3278350</v>
+      </c>
+      <c r="O21">
+        <v>3261030</v>
+      </c>
+      <c r="P21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="S21">
+        <v>6335670</v>
+      </c>
+      <c r="T21">
+        <v>6335605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D22">
+        <v>119424</v>
+      </c>
+      <c r="E22">
+        <v>104888</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I22">
+        <v>151265</v>
+      </c>
+      <c r="J22">
+        <v>151263</v>
+      </c>
+      <c r="K22" s="47"/>
+      <c r="L22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N22">
+        <v>3278420</v>
+      </c>
+      <c r="O22">
+        <v>3261090</v>
+      </c>
+      <c r="P22" s="47"/>
+      <c r="Q22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S22">
+        <v>6335660</v>
+      </c>
+      <c r="T22">
+        <v>6335650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D23">
+        <v>119469</v>
+      </c>
+      <c r="E23">
+        <v>105066</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I23">
+        <v>151287</v>
+      </c>
+      <c r="J23">
+        <v>151288</v>
+      </c>
+      <c r="K23" s="47"/>
+      <c r="L23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N23">
+        <v>3278450</v>
+      </c>
+      <c r="O23">
+        <v>3261130</v>
+      </c>
+      <c r="P23" s="47"/>
+      <c r="Q23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="S23">
+        <v>6335740</v>
+      </c>
+      <c r="T23">
+        <v>6335790</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D24">
+        <v>119361</v>
+      </c>
+      <c r="E24">
+        <v>105272</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I24">
+        <v>151231</v>
+      </c>
+      <c r="J24">
+        <v>151231</v>
+      </c>
+      <c r="K24" s="47"/>
+      <c r="L24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N24">
+        <v>3278360</v>
+      </c>
+      <c r="O24">
+        <v>3261040</v>
+      </c>
+      <c r="P24" s="47"/>
+      <c r="Q24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="S24">
+        <v>6335580</v>
+      </c>
+      <c r="T24">
+        <v>6335540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D25">
+        <v>119740</v>
+      </c>
+      <c r="E25">
+        <v>100001</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I25">
+        <v>151429</v>
+      </c>
+      <c r="J25">
+        <v>151427</v>
+      </c>
+      <c r="K25" s="47"/>
+      <c r="L25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N25">
+        <v>3278670</v>
+      </c>
+      <c r="O25">
+        <v>3261140</v>
+      </c>
+      <c r="P25" s="47"/>
+      <c r="Q25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="S25">
+        <v>6336180</v>
+      </c>
+      <c r="T25">
+        <v>6335930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C26">
+        <v>53515.8</v>
+      </c>
+      <c r="D26">
+        <v>53516.1</v>
+      </c>
+      <c r="E26">
+        <v>53515.1</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H26">
+        <v>41277</v>
+      </c>
+      <c r="I26">
+        <v>41276.6</v>
+      </c>
+      <c r="J26">
+        <v>41276.9</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M26">
+        <v>104285</v>
+      </c>
+      <c r="N26">
+        <v>104298</v>
+      </c>
+      <c r="O26">
+        <v>104284</v>
+      </c>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C27">
+        <v>52066</v>
+      </c>
+      <c r="D27">
+        <v>52067.199999999997</v>
+      </c>
+      <c r="E27">
+        <v>52068.800000000003</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H27">
+        <v>40090.800000000003</v>
+      </c>
+      <c r="I27">
+        <v>40093.1</v>
+      </c>
+      <c r="J27">
+        <v>40094.199999999997</v>
+      </c>
+      <c r="K27" s="47"/>
+      <c r="L27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M27">
+        <v>103257</v>
+      </c>
+      <c r="N27">
+        <v>103313</v>
+      </c>
+      <c r="O27">
+        <v>103281</v>
+      </c>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C28">
+        <v>45591.5</v>
+      </c>
+      <c r="D28">
+        <v>45583.6</v>
+      </c>
+      <c r="E28">
+        <v>45585.5</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H28">
+        <v>36179.699999999997</v>
+      </c>
+      <c r="I28">
+        <v>36182.800000000003</v>
+      </c>
+      <c r="J28">
+        <v>36176.699999999997</v>
+      </c>
+      <c r="K28" s="47"/>
+      <c r="L28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M28">
+        <v>90334.5</v>
+      </c>
+      <c r="N28">
+        <v>90405.3</v>
+      </c>
+      <c r="O28">
+        <v>90350.5</v>
+      </c>
+      <c r="P28" s="47"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C29">
+        <v>45600.7</v>
+      </c>
+      <c r="D29">
+        <v>45597.1</v>
+      </c>
+      <c r="E29">
+        <v>45597</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H29">
+        <v>36181.9</v>
+      </c>
+      <c r="I29">
+        <v>36178.699999999997</v>
+      </c>
+      <c r="J29">
+        <v>36182.9</v>
+      </c>
+      <c r="K29" s="47"/>
+      <c r="L29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M29">
+        <v>90603.199999999997</v>
+      </c>
+      <c r="N29">
+        <v>90641.7</v>
+      </c>
+      <c r="O29">
+        <v>90544.3</v>
+      </c>
+      <c r="P29" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="P6:P10"/>
+    <mergeCell ref="P11:P15"/>
+    <mergeCell ref="P16:P20"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D17BE2-A759-46B9-AE0A-A4BC15731660}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="60" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C5">
+        <v>0.23471359749999995</v>
+      </c>
+      <c r="D5">
+        <v>0.25402382093750009</v>
+      </c>
+      <c r="E5">
+        <v>0.22450419859375023</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H5">
+        <v>0.25280609895833328</v>
+      </c>
+      <c r="I5">
+        <v>0.25280609895833328</v>
+      </c>
+      <c r="J5">
+        <v>0.25280609895833328</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M5">
+        <v>0.24057110752688168</v>
+      </c>
+      <c r="N5">
+        <v>0.25206124032258043</v>
+      </c>
+      <c r="O5">
+        <v>0.23604555053763446</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R5">
+        <v>0.34411880000000006</v>
+      </c>
+      <c r="S5">
+        <v>0.40768059999999995</v>
+      </c>
+      <c r="T5">
+        <v>0.32608179999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C6">
+        <v>0.19630400000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.22206300000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.18808800000000001</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H6">
+        <v>0.237923</v>
+      </c>
+      <c r="I6">
+        <v>0.237923</v>
+      </c>
+      <c r="J6">
+        <v>0.237923</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M6">
+        <v>0.99018799999999996</v>
+      </c>
+      <c r="N6">
+        <v>0.99016999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.99056</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C7">
+        <v>0.14333699999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.165358</v>
+      </c>
+      <c r="E7">
+        <v>0.13159199999999999</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H7">
+        <v>0.203296</v>
+      </c>
+      <c r="I7">
+        <v>0.203296</v>
+      </c>
+      <c r="J7">
+        <v>0.203296</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M7">
+        <v>0.87431499999999995</v>
+      </c>
+      <c r="N7">
+        <v>0.87416300000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.87551000000000001</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K9" s="47"/>
+      <c r="L9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="P10" s="47"/>
+      <c r="Q10" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C11">
+        <v>0.193721</v>
+      </c>
+      <c r="D11">
+        <v>0.22053800000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.184304</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H11">
+        <v>0.237064</v>
+      </c>
+      <c r="I11">
+        <v>0.237064</v>
+      </c>
+      <c r="J11">
+        <v>0.237064</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M11">
+        <v>0.97027200000000002</v>
+      </c>
+      <c r="N11">
+        <v>0.96473299999999995</v>
+      </c>
+      <c r="O11">
+        <v>0.96073900000000001</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C12">
+        <v>0.11645899999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.14038900000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.103324</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H12">
+        <v>0.17843000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.17843000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.17843000000000001</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M12">
+        <v>0.62006700000000003</v>
+      </c>
+      <c r="N12">
+        <v>0.61555000000000004</v>
+      </c>
+      <c r="O12">
+        <v>0.61432799999999999</v>
+      </c>
+      <c r="P12" s="47"/>
+      <c r="Q12" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P13" s="47"/>
+      <c r="Q13" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="P14" s="47"/>
+      <c r="Q14" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="P15" s="47"/>
+      <c r="Q15" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C16">
+        <v>0.194857</v>
+      </c>
+      <c r="D16">
+        <v>0.22179099999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.18648300000000001</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H16">
+        <v>0.238563</v>
+      </c>
+      <c r="I16">
+        <v>0.238563</v>
+      </c>
+      <c r="J16">
+        <v>0.238563</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M16">
+        <v>0.97856100000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.97325600000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.96923899999999996</v>
+      </c>
+      <c r="P16" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C17">
+        <v>0.121397</v>
+      </c>
+      <c r="D17">
+        <v>0.14402599999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.10874</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H17">
+        <v>0.18576599999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.18576599999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.18576599999999999</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M17">
+        <v>0.71679400000000004</v>
+      </c>
+      <c r="N17">
+        <v>0.71238900000000005</v>
+      </c>
+      <c r="O17">
+        <v>0.71152199999999999</v>
+      </c>
+      <c r="P17" s="47"/>
+      <c r="Q17" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P18" s="47"/>
+      <c r="Q18" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="P19" s="47"/>
+      <c r="Q19" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="P20" s="47"/>
+      <c r="Q20" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C21">
+        <v>0.94805499999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.94514500000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.94734600000000002</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H21">
+        <v>0.99038499999999996</v>
+      </c>
+      <c r="I21">
+        <v>0.99038499999999996</v>
+      </c>
+      <c r="J21">
+        <v>0.99038499999999996</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M21">
+        <v>0.96423300000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.96333299999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.96473299999999995</v>
+      </c>
+      <c r="P21" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C22">
+        <v>0.81682699999999997</v>
+      </c>
+      <c r="D22">
+        <v>0.81008100000000005</v>
+      </c>
+      <c r="E22">
+        <v>0.81538299999999997</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H22">
+        <v>0.96517200000000003</v>
+      </c>
+      <c r="I22">
+        <v>0.96517200000000003</v>
+      </c>
+      <c r="J22">
+        <v>0.96517200000000003</v>
+      </c>
+      <c r="K22" s="47"/>
+      <c r="L22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M22">
+        <v>0.86624199999999996</v>
+      </c>
+      <c r="N22">
+        <v>0.86314199999999996</v>
+      </c>
+      <c r="O22">
+        <v>0.86752499999999999</v>
+      </c>
+      <c r="P22" s="47"/>
+      <c r="Q22" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C23">
+        <v>0.74146000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.734545</v>
+      </c>
+      <c r="E23">
+        <v>0.73968699999999998</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H23">
+        <v>0.94957599999999998</v>
+      </c>
+      <c r="I23">
+        <v>0.94957599999999998</v>
+      </c>
+      <c r="J23">
+        <v>0.94957599999999998</v>
+      </c>
+      <c r="K23" s="47"/>
+      <c r="L23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M23">
+        <v>0.80759000000000003</v>
+      </c>
+      <c r="N23">
+        <v>0.80491199999999996</v>
+      </c>
+      <c r="O23">
+        <v>0.80919200000000002</v>
+      </c>
+      <c r="P23" s="47"/>
+      <c r="Q23" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C24">
+        <v>0.953901</v>
+      </c>
+      <c r="D24">
+        <v>0.95126599999999994</v>
+      </c>
+      <c r="E24">
+        <v>0.95324200000000003</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H24">
+        <v>0.99146900000000004</v>
+      </c>
+      <c r="I24">
+        <v>0.99146900000000004</v>
+      </c>
+      <c r="J24">
+        <v>0.99146900000000004</v>
+      </c>
+      <c r="K24" s="47"/>
+      <c r="L24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M24">
+        <v>0.96725000000000005</v>
+      </c>
+      <c r="N24">
+        <v>0.96665000000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="P24" s="47"/>
+      <c r="Q24" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C25">
+        <v>0.49005500000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.492008</v>
+      </c>
+      <c r="E25">
+        <v>0.48448999999999998</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H25">
+        <v>0.87930200000000003</v>
+      </c>
+      <c r="I25">
+        <v>0.87930200000000003</v>
+      </c>
+      <c r="J25">
+        <v>0.87930200000000003</v>
+      </c>
+      <c r="K25" s="47"/>
+      <c r="L25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M25">
+        <v>0.55984699999999998</v>
+      </c>
+      <c r="N25">
+        <v>0.559419</v>
+      </c>
+      <c r="O25">
+        <v>0.56125700000000001</v>
+      </c>
+      <c r="P25" s="47"/>
+      <c r="Q25" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C26">
+        <v>0.125085</v>
+      </c>
+      <c r="D26">
+        <v>0.156114</v>
+      </c>
+      <c r="E26">
+        <v>0.110765</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H26">
+        <v>0.252332</v>
+      </c>
+      <c r="I26">
+        <v>0.252332</v>
+      </c>
+      <c r="J26">
+        <v>0.252332</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M26">
+        <v>0.32134000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.35797800000000002</v>
+      </c>
+      <c r="O26">
+        <v>0.31786999999999999</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C27">
+        <v>0.117091</v>
+      </c>
+      <c r="D27">
+        <v>0.14502999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.10460700000000001</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H27">
+        <v>0.23960400000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.23960400000000001</v>
+      </c>
+      <c r="J27">
+        <v>0.23960400000000001</v>
+      </c>
+      <c r="K27" s="47"/>
+      <c r="L27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M27">
+        <v>0.29989100000000002</v>
+      </c>
+      <c r="N27">
+        <v>0.33516400000000002</v>
+      </c>
+      <c r="O27">
+        <v>0.29764800000000002</v>
+      </c>
+      <c r="P27" s="47"/>
+      <c r="Q27" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C28">
+        <v>0.100818</v>
+      </c>
+      <c r="D28">
+        <v>0.122519</v>
+      </c>
+      <c r="E28">
+        <v>9.2453599999999997E-2</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H28">
+        <v>0.21997</v>
+      </c>
+      <c r="I28">
+        <v>0.21997</v>
+      </c>
+      <c r="J28">
+        <v>0.21997</v>
+      </c>
+      <c r="K28" s="47"/>
+      <c r="L28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M28">
+        <v>0.199352</v>
+      </c>
+      <c r="N28">
+        <v>0.228378</v>
+      </c>
+      <c r="O28">
+        <v>0.19954</v>
+      </c>
+      <c r="P28" s="47"/>
+      <c r="Q28" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C29">
+        <v>0.10080799999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.122528</v>
+      </c>
+      <c r="E29">
+        <v>9.2410999999999993E-2</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H29">
+        <v>0.21993599999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.21993599999999999</v>
+      </c>
+      <c r="J29">
+        <v>0.21993599999999999</v>
+      </c>
+      <c r="K29" s="47"/>
+      <c r="L29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M29">
+        <v>0.19981099999999999</v>
+      </c>
+      <c r="N29">
+        <v>0.22875200000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.200211</v>
+      </c>
+      <c r="P29" s="47"/>
+      <c r="Q29" t="s">
+        <v>1052</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -54983,2315 +57520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D8CCB6-7FDE-4554-BA14-8E190884BEC8}">
-  <dimension ref="A1:T29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="60" t="s">
-        <v>1043</v>
-      </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C4">
-        <v>104807</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H4">
-        <v>151219</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="M4">
-        <v>3541420</v>
-      </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="R4">
-        <v>6030170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C5">
-        <v>63498.307812500003</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="H5">
-        <v>40199.442708333336</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="M5">
-        <v>1577708.5668449197</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="R5">
-        <v>1997891.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C6">
-        <v>41202.6</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H6">
-        <v>36399.199999999997</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M6">
-        <v>1350340</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R6">
-        <v>1130710</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C7">
-        <v>40657.5</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H7">
-        <v>36064.5</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M7">
-        <v>1350330</v>
-      </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="R7">
-        <v>1130720</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C8">
-        <v>39206.400000000001</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H8">
-        <v>34602.699999999997</v>
-      </c>
-      <c r="K8" s="47"/>
-      <c r="L8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M8">
-        <v>1350300</v>
-      </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="R8">
-        <v>1129854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C9">
-        <v>39193.599999999999</v>
-      </c>
-      <c r="F9" s="47"/>
-      <c r="G9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H9">
-        <v>34560</v>
-      </c>
-      <c r="K9" s="47"/>
-      <c r="L9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M9">
-        <v>1350240</v>
-      </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R9">
-        <v>1129830</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C10">
-        <v>39187.199999999997</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H10">
-        <v>34538.699999999997</v>
-      </c>
-      <c r="K10" s="47"/>
-      <c r="L10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M10">
-        <v>1350170</v>
-      </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="R10">
-        <v>1129814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C11">
-        <v>41305.699999999997</v>
-      </c>
-      <c r="D11">
-        <v>41305.4</v>
-      </c>
-      <c r="E11">
-        <v>41305.5</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H11">
-        <v>36441.599999999999</v>
-      </c>
-      <c r="I11">
-        <v>36441</v>
-      </c>
-      <c r="J11">
-        <v>36440.5</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M11">
-        <v>1334820</v>
-      </c>
-      <c r="N11">
-        <v>1334820</v>
-      </c>
-      <c r="O11">
-        <v>1334820</v>
-      </c>
-      <c r="P11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R11">
-        <v>975295</v>
-      </c>
-      <c r="S11">
-        <v>975308</v>
-      </c>
-      <c r="T11">
-        <v>975270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C12">
-        <v>48141.3</v>
-      </c>
-      <c r="D12">
-        <v>48146.2</v>
-      </c>
-      <c r="E12">
-        <v>48143.199999999997</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H12">
-        <v>42813</v>
-      </c>
-      <c r="I12">
-        <v>42813.9</v>
-      </c>
-      <c r="J12">
-        <v>42813.2</v>
-      </c>
-      <c r="K12" s="47"/>
-      <c r="L12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M12">
-        <v>1327110</v>
-      </c>
-      <c r="N12">
-        <v>1327110</v>
-      </c>
-      <c r="O12">
-        <v>1327110</v>
-      </c>
-      <c r="P12" s="47"/>
-      <c r="Q12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="R12">
-        <v>1015390</v>
-      </c>
-      <c r="S12">
-        <v>1015411</v>
-      </c>
-      <c r="T12">
-        <v>1015420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M13">
-        <v>1435370</v>
-      </c>
-      <c r="N13">
-        <v>1435340</v>
-      </c>
-      <c r="O13">
-        <v>1435350</v>
-      </c>
-      <c r="P13" s="47"/>
-      <c r="Q13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="R13">
-        <v>1348280</v>
-      </c>
-      <c r="S13">
-        <v>1348290</v>
-      </c>
-      <c r="T13">
-        <v>1348250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M14">
-        <v>1435090</v>
-      </c>
-      <c r="N14">
-        <v>1435080</v>
-      </c>
-      <c r="O14">
-        <v>1435090</v>
-      </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R14">
-        <v>1347560</v>
-      </c>
-      <c r="S14">
-        <v>1347447</v>
-      </c>
-      <c r="T14">
-        <v>1347540</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M15">
-        <v>1435220</v>
-      </c>
-      <c r="N15">
-        <v>1435240</v>
-      </c>
-      <c r="O15">
-        <v>1435240</v>
-      </c>
-      <c r="P15" s="47"/>
-      <c r="Q15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="R15">
-        <v>1347930</v>
-      </c>
-      <c r="S15">
-        <v>1348000</v>
-      </c>
-      <c r="T15">
-        <v>1348020</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C16">
-        <v>41430.1</v>
-      </c>
-      <c r="D16">
-        <v>41433.300000000003</v>
-      </c>
-      <c r="E16">
-        <v>41433.4</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H16">
-        <v>36452.699999999997</v>
-      </c>
-      <c r="I16">
-        <v>36455.1</v>
-      </c>
-      <c r="J16">
-        <v>36455.1</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M16">
-        <v>1363020</v>
-      </c>
-      <c r="N16">
-        <v>1363020</v>
-      </c>
-      <c r="O16">
-        <v>1363020</v>
-      </c>
-      <c r="P16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R16">
-        <v>1130360</v>
-      </c>
-      <c r="S16">
-        <v>1130340</v>
-      </c>
-      <c r="T16">
-        <v>1130340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C17">
-        <v>50155.8</v>
-      </c>
-      <c r="D17">
-        <v>50155.7</v>
-      </c>
-      <c r="E17">
-        <v>50163.9</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H17">
-        <v>43695.199999999997</v>
-      </c>
-      <c r="I17">
-        <v>43694.9</v>
-      </c>
-      <c r="J17">
-        <v>43705</v>
-      </c>
-      <c r="K17" s="47"/>
-      <c r="L17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M17">
-        <v>1370760</v>
-      </c>
-      <c r="N17">
-        <v>1370770</v>
-      </c>
-      <c r="O17">
-        <v>1370770</v>
-      </c>
-      <c r="P17" s="47"/>
-      <c r="Q17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="R17">
-        <v>1131524</v>
-      </c>
-      <c r="S17">
-        <v>1131550</v>
-      </c>
-      <c r="T17">
-        <v>1131560</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M18">
-        <v>1450460</v>
-      </c>
-      <c r="N18">
-        <v>1450370</v>
-      </c>
-      <c r="O18">
-        <v>1450400</v>
-      </c>
-      <c r="P18" s="47"/>
-      <c r="Q18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="R18">
-        <v>1337670</v>
-      </c>
-      <c r="S18">
-        <v>1337560</v>
-      </c>
-      <c r="T18">
-        <v>1337580</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M19">
-        <v>1432680</v>
-      </c>
-      <c r="N19">
-        <v>1432670</v>
-      </c>
-      <c r="O19">
-        <v>1432670</v>
-      </c>
-      <c r="P19" s="47"/>
-      <c r="Q19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R19">
-        <v>1336278</v>
-      </c>
-      <c r="S19">
-        <v>1336278</v>
-      </c>
-      <c r="T19">
-        <v>1336350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M20">
-        <v>1432960</v>
-      </c>
-      <c r="N20">
-        <v>1432970</v>
-      </c>
-      <c r="O20">
-        <v>1432960</v>
-      </c>
-      <c r="P20" s="47"/>
-      <c r="Q20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="R20">
-        <v>1336920</v>
-      </c>
-      <c r="S20">
-        <v>1336970</v>
-      </c>
-      <c r="T20">
-        <v>1336980</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D21">
-        <v>119364</v>
-      </c>
-      <c r="E21">
-        <v>104834</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I21">
-        <v>151231</v>
-      </c>
-      <c r="J21">
-        <v>151230</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="N21">
-        <v>3278350</v>
-      </c>
-      <c r="O21">
-        <v>3261030</v>
-      </c>
-      <c r="P21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="S21">
-        <v>6335670</v>
-      </c>
-      <c r="T21">
-        <v>6335605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D22">
-        <v>119424</v>
-      </c>
-      <c r="E22">
-        <v>104888</v>
-      </c>
-      <c r="F22" s="47"/>
-      <c r="G22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I22">
-        <v>151265</v>
-      </c>
-      <c r="J22">
-        <v>151263</v>
-      </c>
-      <c r="K22" s="47"/>
-      <c r="L22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="N22">
-        <v>3278420</v>
-      </c>
-      <c r="O22">
-        <v>3261090</v>
-      </c>
-      <c r="P22" s="47"/>
-      <c r="Q22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S22">
-        <v>6335660</v>
-      </c>
-      <c r="T22">
-        <v>6335650</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D23">
-        <v>119469</v>
-      </c>
-      <c r="E23">
-        <v>105066</v>
-      </c>
-      <c r="F23" s="47"/>
-      <c r="G23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I23">
-        <v>151287</v>
-      </c>
-      <c r="J23">
-        <v>151288</v>
-      </c>
-      <c r="K23" s="47"/>
-      <c r="L23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="N23">
-        <v>3278450</v>
-      </c>
-      <c r="O23">
-        <v>3261130</v>
-      </c>
-      <c r="P23" s="47"/>
-      <c r="Q23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="S23">
-        <v>6335740</v>
-      </c>
-      <c r="T23">
-        <v>6335790</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D24">
-        <v>119361</v>
-      </c>
-      <c r="E24">
-        <v>105272</v>
-      </c>
-      <c r="F24" s="47"/>
-      <c r="G24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I24">
-        <v>151231</v>
-      </c>
-      <c r="J24">
-        <v>151231</v>
-      </c>
-      <c r="K24" s="47"/>
-      <c r="L24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="N24">
-        <v>3278360</v>
-      </c>
-      <c r="O24">
-        <v>3261040</v>
-      </c>
-      <c r="P24" s="47"/>
-      <c r="Q24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="S24">
-        <v>6335580</v>
-      </c>
-      <c r="T24">
-        <v>6335540</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D25">
-        <v>119740</v>
-      </c>
-      <c r="E25">
-        <v>100001</v>
-      </c>
-      <c r="F25" s="47"/>
-      <c r="G25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I25">
-        <v>151429</v>
-      </c>
-      <c r="J25">
-        <v>151427</v>
-      </c>
-      <c r="K25" s="47"/>
-      <c r="L25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="N25">
-        <v>3278670</v>
-      </c>
-      <c r="O25">
-        <v>3261140</v>
-      </c>
-      <c r="P25" s="47"/>
-      <c r="Q25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="S25">
-        <v>6336180</v>
-      </c>
-      <c r="T25">
-        <v>6335930</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C26">
-        <v>53515.8</v>
-      </c>
-      <c r="D26">
-        <v>53516.1</v>
-      </c>
-      <c r="E26">
-        <v>53515.1</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H26">
-        <v>41277</v>
-      </c>
-      <c r="I26">
-        <v>41276.6</v>
-      </c>
-      <c r="J26">
-        <v>41276.9</v>
-      </c>
-      <c r="K26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="L26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M26">
-        <v>104285</v>
-      </c>
-      <c r="N26">
-        <v>104298</v>
-      </c>
-      <c r="O26">
-        <v>104284</v>
-      </c>
-      <c r="P26" s="47"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C27">
-        <v>52066</v>
-      </c>
-      <c r="D27">
-        <v>52067.199999999997</v>
-      </c>
-      <c r="E27">
-        <v>52068.800000000003</v>
-      </c>
-      <c r="F27" s="47"/>
-      <c r="G27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H27">
-        <v>40090.800000000003</v>
-      </c>
-      <c r="I27">
-        <v>40093.1</v>
-      </c>
-      <c r="J27">
-        <v>40094.199999999997</v>
-      </c>
-      <c r="K27" s="47"/>
-      <c r="L27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M27">
-        <v>103257</v>
-      </c>
-      <c r="N27">
-        <v>103313</v>
-      </c>
-      <c r="O27">
-        <v>103281</v>
-      </c>
-      <c r="P27" s="47"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C28">
-        <v>45591.5</v>
-      </c>
-      <c r="D28">
-        <v>45583.6</v>
-      </c>
-      <c r="E28">
-        <v>45585.5</v>
-      </c>
-      <c r="F28" s="47"/>
-      <c r="G28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H28">
-        <v>36179.699999999997</v>
-      </c>
-      <c r="I28">
-        <v>36182.800000000003</v>
-      </c>
-      <c r="J28">
-        <v>36176.699999999997</v>
-      </c>
-      <c r="K28" s="47"/>
-      <c r="L28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M28">
-        <v>90334.5</v>
-      </c>
-      <c r="N28">
-        <v>90405.3</v>
-      </c>
-      <c r="O28">
-        <v>90350.5</v>
-      </c>
-      <c r="P28" s="47"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C29">
-        <v>45600.7</v>
-      </c>
-      <c r="D29">
-        <v>45597.1</v>
-      </c>
-      <c r="E29">
-        <v>45597</v>
-      </c>
-      <c r="F29" s="47"/>
-      <c r="G29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H29">
-        <v>36181.9</v>
-      </c>
-      <c r="I29">
-        <v>36178.699999999997</v>
-      </c>
-      <c r="J29">
-        <v>36182.9</v>
-      </c>
-      <c r="K29" s="47"/>
-      <c r="L29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M29">
-        <v>90603.199999999997</v>
-      </c>
-      <c r="N29">
-        <v>90641.7</v>
-      </c>
-      <c r="O29">
-        <v>90544.3</v>
-      </c>
-      <c r="P29" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="P6:P10"/>
-    <mergeCell ref="P11:P15"/>
-    <mergeCell ref="P16:P20"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="K26:K29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D17BE2-A759-46B9-AE0A-A4BC15731660}">
-  <dimension ref="A1:T29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="60" t="s">
-        <v>1043</v>
-      </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C5">
-        <v>0.23471359749999995</v>
-      </c>
-      <c r="D5">
-        <v>0.25402382093750009</v>
-      </c>
-      <c r="E5">
-        <v>0.22450419859375023</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H5">
-        <v>0.25280609895833328</v>
-      </c>
-      <c r="I5">
-        <v>0.25280609895833328</v>
-      </c>
-      <c r="J5">
-        <v>0.25280609895833328</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M5">
-        <v>0.24057110752688168</v>
-      </c>
-      <c r="N5">
-        <v>0.25206124032258043</v>
-      </c>
-      <c r="O5">
-        <v>0.23604555053763446</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="R5">
-        <v>0.34411880000000006</v>
-      </c>
-      <c r="S5">
-        <v>0.40768059999999995</v>
-      </c>
-      <c r="T5">
-        <v>0.32608179999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C6">
-        <v>0.19630400000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.22206300000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.18808800000000001</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H6">
-        <v>0.237923</v>
-      </c>
-      <c r="I6">
-        <v>0.237923</v>
-      </c>
-      <c r="J6">
-        <v>0.237923</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M6">
-        <v>0.99018799999999996</v>
-      </c>
-      <c r="N6">
-        <v>0.99016999999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.99056</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C7">
-        <v>0.14333699999999999</v>
-      </c>
-      <c r="D7">
-        <v>0.165358</v>
-      </c>
-      <c r="E7">
-        <v>0.13159199999999999</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H7">
-        <v>0.203296</v>
-      </c>
-      <c r="I7">
-        <v>0.203296</v>
-      </c>
-      <c r="J7">
-        <v>0.203296</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M7">
-        <v>0.87431499999999995</v>
-      </c>
-      <c r="N7">
-        <v>0.87416300000000002</v>
-      </c>
-      <c r="O7">
-        <v>0.87551000000000001</v>
-      </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="K8" s="47"/>
-      <c r="L8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F9" s="47"/>
-      <c r="G9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="K9" s="47"/>
-      <c r="L9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="K10" s="47"/>
-      <c r="L10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C11">
-        <v>0.193721</v>
-      </c>
-      <c r="D11">
-        <v>0.22053800000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.184304</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H11">
-        <v>0.237064</v>
-      </c>
-      <c r="I11">
-        <v>0.237064</v>
-      </c>
-      <c r="J11">
-        <v>0.237064</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M11">
-        <v>0.97027200000000002</v>
-      </c>
-      <c r="N11">
-        <v>0.96473299999999995</v>
-      </c>
-      <c r="O11">
-        <v>0.96073900000000001</v>
-      </c>
-      <c r="P11" s="47" t="s">
-        <v>1037</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C12">
-        <v>0.11645899999999999</v>
-      </c>
-      <c r="D12">
-        <v>0.14038900000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.103324</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H12">
-        <v>0.17843000000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.17843000000000001</v>
-      </c>
-      <c r="J12">
-        <v>0.17843000000000001</v>
-      </c>
-      <c r="K12" s="47"/>
-      <c r="L12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M12">
-        <v>0.62006700000000003</v>
-      </c>
-      <c r="N12">
-        <v>0.61555000000000004</v>
-      </c>
-      <c r="O12">
-        <v>0.61432799999999999</v>
-      </c>
-      <c r="P12" s="47"/>
-      <c r="Q12" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P13" s="47"/>
-      <c r="Q13" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="P15" s="47"/>
-      <c r="Q15" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C16">
-        <v>0.194857</v>
-      </c>
-      <c r="D16">
-        <v>0.22179099999999999</v>
-      </c>
-      <c r="E16">
-        <v>0.18648300000000001</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H16">
-        <v>0.238563</v>
-      </c>
-      <c r="I16">
-        <v>0.238563</v>
-      </c>
-      <c r="J16">
-        <v>0.238563</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M16">
-        <v>0.97856100000000001</v>
-      </c>
-      <c r="N16">
-        <v>0.97325600000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.96923899999999996</v>
-      </c>
-      <c r="P16" s="47" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C17">
-        <v>0.121397</v>
-      </c>
-      <c r="D17">
-        <v>0.14402599999999999</v>
-      </c>
-      <c r="E17">
-        <v>0.10874</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H17">
-        <v>0.18576599999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.18576599999999999</v>
-      </c>
-      <c r="J17">
-        <v>0.18576599999999999</v>
-      </c>
-      <c r="K17" s="47"/>
-      <c r="L17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M17">
-        <v>0.71679400000000004</v>
-      </c>
-      <c r="N17">
-        <v>0.71238900000000005</v>
-      </c>
-      <c r="O17">
-        <v>0.71152199999999999</v>
-      </c>
-      <c r="P17" s="47"/>
-      <c r="Q17" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P18" s="47"/>
-      <c r="Q18" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="P19" s="47"/>
-      <c r="Q19" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="P20" s="47"/>
-      <c r="Q20" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C21">
-        <v>0.94805499999999998</v>
-      </c>
-      <c r="D21">
-        <v>0.94514500000000001</v>
-      </c>
-      <c r="E21">
-        <v>0.94734600000000002</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H21">
-        <v>0.99038499999999996</v>
-      </c>
-      <c r="I21">
-        <v>0.99038499999999996</v>
-      </c>
-      <c r="J21">
-        <v>0.99038499999999996</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M21">
-        <v>0.96423300000000001</v>
-      </c>
-      <c r="N21">
-        <v>0.96333299999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.96473299999999995</v>
-      </c>
-      <c r="P21" s="47" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C22">
-        <v>0.81682699999999997</v>
-      </c>
-      <c r="D22">
-        <v>0.81008100000000005</v>
-      </c>
-      <c r="E22">
-        <v>0.81538299999999997</v>
-      </c>
-      <c r="F22" s="47"/>
-      <c r="G22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H22">
-        <v>0.96517200000000003</v>
-      </c>
-      <c r="I22">
-        <v>0.96517200000000003</v>
-      </c>
-      <c r="J22">
-        <v>0.96517200000000003</v>
-      </c>
-      <c r="K22" s="47"/>
-      <c r="L22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M22">
-        <v>0.86624199999999996</v>
-      </c>
-      <c r="N22">
-        <v>0.86314199999999996</v>
-      </c>
-      <c r="O22">
-        <v>0.86752499999999999</v>
-      </c>
-      <c r="P22" s="47"/>
-      <c r="Q22" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C23">
-        <v>0.74146000000000001</v>
-      </c>
-      <c r="D23">
-        <v>0.734545</v>
-      </c>
-      <c r="E23">
-        <v>0.73968699999999998</v>
-      </c>
-      <c r="F23" s="47"/>
-      <c r="G23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H23">
-        <v>0.94957599999999998</v>
-      </c>
-      <c r="I23">
-        <v>0.94957599999999998</v>
-      </c>
-      <c r="J23">
-        <v>0.94957599999999998</v>
-      </c>
-      <c r="K23" s="47"/>
-      <c r="L23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M23">
-        <v>0.80759000000000003</v>
-      </c>
-      <c r="N23">
-        <v>0.80491199999999996</v>
-      </c>
-      <c r="O23">
-        <v>0.80919200000000002</v>
-      </c>
-      <c r="P23" s="47"/>
-      <c r="Q23" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C24">
-        <v>0.953901</v>
-      </c>
-      <c r="D24">
-        <v>0.95126599999999994</v>
-      </c>
-      <c r="E24">
-        <v>0.95324200000000003</v>
-      </c>
-      <c r="F24" s="47"/>
-      <c r="G24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H24">
-        <v>0.99146900000000004</v>
-      </c>
-      <c r="I24">
-        <v>0.99146900000000004</v>
-      </c>
-      <c r="J24">
-        <v>0.99146900000000004</v>
-      </c>
-      <c r="K24" s="47"/>
-      <c r="L24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M24">
-        <v>0.96725000000000005</v>
-      </c>
-      <c r="N24">
-        <v>0.96665000000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.96850000000000003</v>
-      </c>
-      <c r="P24" s="47"/>
-      <c r="Q24" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C25">
-        <v>0.49005500000000002</v>
-      </c>
-      <c r="D25">
-        <v>0.492008</v>
-      </c>
-      <c r="E25">
-        <v>0.48448999999999998</v>
-      </c>
-      <c r="F25" s="47"/>
-      <c r="G25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H25">
-        <v>0.87930200000000003</v>
-      </c>
-      <c r="I25">
-        <v>0.87930200000000003</v>
-      </c>
-      <c r="J25">
-        <v>0.87930200000000003</v>
-      </c>
-      <c r="K25" s="47"/>
-      <c r="L25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M25">
-        <v>0.55984699999999998</v>
-      </c>
-      <c r="N25">
-        <v>0.559419</v>
-      </c>
-      <c r="O25">
-        <v>0.56125700000000001</v>
-      </c>
-      <c r="P25" s="47"/>
-      <c r="Q25" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C26">
-        <v>0.125085</v>
-      </c>
-      <c r="D26">
-        <v>0.156114</v>
-      </c>
-      <c r="E26">
-        <v>0.110765</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H26">
-        <v>0.252332</v>
-      </c>
-      <c r="I26">
-        <v>0.252332</v>
-      </c>
-      <c r="J26">
-        <v>0.252332</v>
-      </c>
-      <c r="K26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="L26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M26">
-        <v>0.32134000000000001</v>
-      </c>
-      <c r="N26">
-        <v>0.35797800000000002</v>
-      </c>
-      <c r="O26">
-        <v>0.31786999999999999</v>
-      </c>
-      <c r="P26" s="47" t="s">
-        <v>1035</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C27">
-        <v>0.117091</v>
-      </c>
-      <c r="D27">
-        <v>0.14502999999999999</v>
-      </c>
-      <c r="E27">
-        <v>0.10460700000000001</v>
-      </c>
-      <c r="F27" s="47"/>
-      <c r="G27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H27">
-        <v>0.23960400000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.23960400000000001</v>
-      </c>
-      <c r="J27">
-        <v>0.23960400000000001</v>
-      </c>
-      <c r="K27" s="47"/>
-      <c r="L27" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M27">
-        <v>0.29989100000000002</v>
-      </c>
-      <c r="N27">
-        <v>0.33516400000000002</v>
-      </c>
-      <c r="O27">
-        <v>0.29764800000000002</v>
-      </c>
-      <c r="P27" s="47"/>
-      <c r="Q27" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C28">
-        <v>0.100818</v>
-      </c>
-      <c r="D28">
-        <v>0.122519</v>
-      </c>
-      <c r="E28">
-        <v>9.2453599999999997E-2</v>
-      </c>
-      <c r="F28" s="47"/>
-      <c r="G28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H28">
-        <v>0.21997</v>
-      </c>
-      <c r="I28">
-        <v>0.21997</v>
-      </c>
-      <c r="J28">
-        <v>0.21997</v>
-      </c>
-      <c r="K28" s="47"/>
-      <c r="L28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M28">
-        <v>0.199352</v>
-      </c>
-      <c r="N28">
-        <v>0.228378</v>
-      </c>
-      <c r="O28">
-        <v>0.19954</v>
-      </c>
-      <c r="P28" s="47"/>
-      <c r="Q28" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C29">
-        <v>0.10080799999999999</v>
-      </c>
-      <c r="D29">
-        <v>0.122528</v>
-      </c>
-      <c r="E29">
-        <v>9.2410999999999993E-2</v>
-      </c>
-      <c r="F29" s="47"/>
-      <c r="G29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H29">
-        <v>0.21993599999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.21993599999999999</v>
-      </c>
-      <c r="J29">
-        <v>0.21993599999999999</v>
-      </c>
-      <c r="K29" s="47"/>
-      <c r="L29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M29">
-        <v>0.19981099999999999</v>
-      </c>
-      <c r="N29">
-        <v>0.22875200000000001</v>
-      </c>
-      <c r="O29">
-        <v>0.200211</v>
-      </c>
-      <c r="P29" s="47"/>
-      <c r="Q29" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="P11:P15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="P16:P20"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="P6:P10"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E331B5-678C-497E-946B-F2BE683E4351}">
   <dimension ref="A1:T29"/>
   <sheetViews>
@@ -58468,22 +58697,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="P11:P15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="P16:P20"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="F6:F10"/>
     <mergeCell ref="K6:K10"/>
@@ -58493,6 +58706,22 @@
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="P2:T2"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="P11:P15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="P16:P20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="P26:P29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/SMKITS5/docs/annotatedAnalysis/valuesAndDiagrams.xlsx
+++ b/SMKITS5/docs/annotatedAnalysis/valuesAndDiagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bern_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D69214-0D92-4FFE-812D-B75187FBC068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377B19B8-B5FA-4811-8697-00BBDE849327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32236,10 +32236,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44BD4B6-6E83-438A-B3FB-987B3D7F75A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF7F536-1A06-4D37-8025-140070F6DC94}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -32454,6 +32456,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
